--- a/test_env/database_creation/rawdata/emissions/icao_cruise_emissions.xlsx
+++ b/test_env/database_creation/rawdata/emissions/icao_cruise_emissions.xlsx
@@ -505,7 +505,7 @@
         <v>15.92248062015504</v>
       </c>
       <c r="I2" t="n">
-        <v>22.28095761199914</v>
+        <v>22.21109088795982</v>
       </c>
     </row>
     <row r="3">
@@ -538,7 +538,7 @@
         <v>14.66400199850112</v>
       </c>
       <c r="I3" t="n">
-        <v>21.2295582750174</v>
+        <v>21.1641432847127</v>
       </c>
     </row>
     <row r="4">
@@ -571,7 +571,7 @@
         <v>15.1585623678647</v>
       </c>
       <c r="I4" t="n">
-        <v>21.64274006094471</v>
+        <v>21.57557561614613</v>
       </c>
     </row>
     <row r="5">
@@ -604,7 +604,7 @@
         <v>16.43835616438356</v>
       </c>
       <c r="I5" t="n">
-        <v>22.71194721788863</v>
+        <v>22.64025563920053</v>
       </c>
     </row>
     <row r="6">
@@ -637,7 +637,7 @@
         <v>10.28493150684931</v>
       </c>
       <c r="I6" t="n">
-        <v>17.5710520975599</v>
+        <v>17.52112760149052</v>
       </c>
     </row>
     <row r="7">
@@ -670,7 +670,7 @@
         <v>10.22465753424658</v>
       </c>
       <c r="I7" t="n">
-        <v>17.52069604562436</v>
+        <v>17.47098476229656</v>
       </c>
     </row>
     <row r="8">
@@ -703,7 +703,7 @@
         <v>15.37037037037037</v>
       </c>
       <c r="I8" t="n">
-        <v>21.81969562424957</v>
+        <v>21.75178193126052</v>
       </c>
     </row>
     <row r="9">
@@ -736,7 +736,7 @@
         <v>17.53451676528599</v>
       </c>
       <c r="I9" t="n">
-        <v>23.62773752944727</v>
+        <v>23.55216839968946</v>
       </c>
     </row>
     <row r="10">
@@ -769,7 +769,7 @@
         <v>17.53451676528599</v>
       </c>
       <c r="I10" t="n">
-        <v>23.62773752944727</v>
+        <v>23.55216839968946</v>
       </c>
     </row>
     <row r="11">
@@ -802,7 +802,7 @@
         <v>10.90617848970252</v>
       </c>
       <c r="I11" t="n">
-        <v>18.09007455422694</v>
+        <v>18.03795246329697</v>
       </c>
     </row>
     <row r="12">
@@ -835,7 +835,7 @@
         <v>10.15081967213115</v>
       </c>
       <c r="I12" t="n">
-        <v>17.45900800584639</v>
+        <v>17.40955791607088</v>
       </c>
     </row>
     <row r="13">
@@ -868,7 +868,7 @@
         <v>10.14792899408284</v>
       </c>
       <c r="I13" t="n">
-        <v>17.45659298112437</v>
+        <v>17.40715311681378</v>
       </c>
     </row>
     <row r="14">
@@ -901,7 +901,7 @@
         <v>10.61106155218555</v>
       </c>
       <c r="I14" t="n">
-        <v>17.8435183179123</v>
+        <v>17.79244017163407</v>
       </c>
     </row>
     <row r="15">
@@ -934,7 +934,7 @@
         <v>10.61106155218555</v>
       </c>
       <c r="I15" t="n">
-        <v>17.8435183179123</v>
+        <v>17.79244017163407</v>
       </c>
     </row>
     <row r="16">
@@ -967,7 +967,7 @@
         <v>10.79427083333333</v>
       </c>
       <c r="I16" t="n">
-        <v>17.99658100281872</v>
+        <v>17.94485477327285</v>
       </c>
     </row>
     <row r="17">
@@ -1000,7 +1000,7 @@
         <v>10.79427083333333</v>
       </c>
       <c r="I17" t="n">
-        <v>17.99658100281872</v>
+        <v>17.94485477327285</v>
       </c>
     </row>
     <row r="18">
@@ -1033,7 +1033,7 @@
         <v>9.931350114416475</v>
       </c>
       <c r="I18" t="n">
-        <v>17.27565157571043</v>
+        <v>17.22697783605879</v>
       </c>
     </row>
     <row r="19">
@@ -1066,7 +1066,7 @@
         <v>9.931350114416475</v>
       </c>
       <c r="I19" t="n">
-        <v>17.27565157571043</v>
+        <v>17.22697783605879</v>
       </c>
     </row>
     <row r="20">
@@ -1099,7 +1099,7 @@
         <v>13.14102564102564</v>
       </c>
       <c r="I20" t="n">
-        <v>19.95718359583199</v>
+        <v>19.8971559717574</v>
       </c>
     </row>
     <row r="21">
@@ -1132,7 +1132,7 @@
         <v>9.961517317207257</v>
       </c>
       <c r="I21" t="n">
-        <v>17.30085484612525</v>
+        <v>17.25207439321522</v>
       </c>
     </row>
     <row r="22">
@@ -1165,7 +1165,7 @@
         <v>9.961517317207257</v>
       </c>
       <c r="I22" t="n">
-        <v>17.30085484612525</v>
+        <v>17.25207439321522</v>
       </c>
     </row>
     <row r="23">
@@ -1198,7 +1198,7 @@
         <v>10.35581000848176</v>
       </c>
       <c r="I23" t="n">
-        <v>17.63026773169175</v>
+        <v>17.58009251049177</v>
       </c>
     </row>
     <row r="24">
@@ -1231,7 +1231,7 @@
         <v>10.35581000848176</v>
       </c>
       <c r="I24" t="n">
-        <v>17.63026773169175</v>
+        <v>17.58009251049177</v>
       </c>
     </row>
     <row r="25">
@@ -1264,7 +1264,7 @@
         <v>10.35800636267232</v>
       </c>
       <c r="I25" t="n">
-        <v>17.63210268168613</v>
+        <v>17.58191969111774</v>
       </c>
     </row>
     <row r="26">
@@ -1297,7 +1297,7 @@
         <v>8.951804625027018</v>
       </c>
       <c r="I26" t="n">
-        <v>16.45728767157511</v>
+        <v>16.41207896948921</v>
       </c>
     </row>
     <row r="27">
@@ -1330,7 +1330,7 @@
         <v>9.61783439490446</v>
       </c>
       <c r="I27" t="n">
-        <v>17.01372402767224</v>
+        <v>16.96615931639889</v>
       </c>
     </row>
     <row r="28">
@@ -1363,7 +1363,7 @@
         <v>9.221116399826915</v>
       </c>
       <c r="I28" t="n">
-        <v>16.68228491554407</v>
+        <v>16.63612355181388</v>
       </c>
     </row>
     <row r="29">
@@ -1396,7 +1396,7 @@
         <v>17.08732230925442</v>
       </c>
       <c r="I29" t="n">
-        <v>23.25412772274623</v>
+        <v>23.18014049562197</v>
       </c>
     </row>
     <row r="30">
@@ -1429,7 +1429,7 @@
         <v>9.880348078317622</v>
       </c>
       <c r="I30" t="n">
-        <v>17.23304178797436</v>
+        <v>17.18454846257905</v>
       </c>
     </row>
     <row r="31">
@@ -1462,7 +1462,7 @@
         <v>9.072209127919434</v>
       </c>
       <c r="I31" t="n">
-        <v>16.55787993618134</v>
+        <v>16.51224531602413</v>
       </c>
     </row>
     <row r="32">
@@ -1495,7 +1495,7 @@
         <v>15.8856592259515</v>
       </c>
       <c r="I32" t="n">
-        <v>22.25019507953636</v>
+        <v>22.18045860724698</v>
       </c>
     </row>
     <row r="33">
@@ -1528,7 +1528,7 @@
         <v>9.072209127919434</v>
       </c>
       <c r="I33" t="n">
-        <v>16.55787993618134</v>
+        <v>16.51224531602413</v>
       </c>
     </row>
     <row r="34">
@@ -1561,7 +1561,7 @@
         <v>9.258605125789867</v>
       </c>
       <c r="I34" t="n">
-        <v>16.71360497211359</v>
+        <v>16.66731099601863</v>
       </c>
     </row>
     <row r="35">
@@ -1594,7 +1594,7 @@
         <v>9.763313609467454</v>
       </c>
       <c r="I35" t="n">
-        <v>17.13526502733987</v>
+        <v>17.08718569888033</v>
       </c>
     </row>
     <row r="36">
@@ -1627,7 +1627,7 @@
         <v>17.49332583953913</v>
       </c>
       <c r="I36" t="n">
-        <v>23.59332446014698</v>
+        <v>23.51790103889033</v>
       </c>
     </row>
     <row r="37">
@@ -1660,7 +1660,7 @@
         <v>16.12403100775194</v>
       </c>
       <c r="I37" t="n">
-        <v>22.44934342343971</v>
+        <v>22.37876373642727</v>
       </c>
     </row>
     <row r="38">
@@ -1693,7 +1693,7 @@
         <v>16.8015587529976</v>
       </c>
       <c r="I38" t="n">
-        <v>23.01538579387095</v>
+        <v>22.94240942481104</v>
       </c>
     </row>
     <row r="39">
@@ -1726,7 +1726,7 @@
         <v>9.205662603224537</v>
       </c>
       <c r="I39" t="n">
-        <v>16.66937399975891</v>
+        <v>16.62326730218394</v>
       </c>
     </row>
     <row r="40">
@@ -1759,7 +1759,7 @@
         <v>9.553764497739337</v>
       </c>
       <c r="I40" t="n">
-        <v>16.96019666038858</v>
+        <v>16.91285858953461</v>
       </c>
     </row>
     <row r="41">
@@ -1792,7 +1792,7 @@
         <v>9.51203984571022</v>
       </c>
       <c r="I41" t="n">
-        <v>16.92533768803548</v>
+        <v>16.8781472136824</v>
       </c>
     </row>
     <row r="42">
@@ -1825,7 +1825,7 @@
         <v>9.51203984571022</v>
       </c>
       <c r="I42" t="n">
-        <v>16.92533768803548</v>
+        <v>16.8781472136824</v>
       </c>
     </row>
     <row r="43">
@@ -1858,7 +1858,7 @@
         <v>9.252850963429021</v>
       </c>
       <c r="I43" t="n">
-        <v>16.70879764174899</v>
+        <v>16.66252402038891</v>
       </c>
     </row>
     <row r="44">
@@ -1891,7 +1891,7 @@
         <v>9.598579040852576</v>
       </c>
       <c r="I44" t="n">
-        <v>16.99763709052833</v>
+        <v>16.95014049301372</v>
       </c>
     </row>
     <row r="45">
@@ -1924,7 +1924,7 @@
         <v>9.806430446194225</v>
       </c>
       <c r="I45" t="n">
-        <v>17.17128710412946</v>
+        <v>17.12305525446433</v>
       </c>
     </row>
     <row r="46">
@@ -1957,7 +1957,7 @@
         <v>9.176706827309237</v>
       </c>
       <c r="I46" t="n">
-        <v>16.64518281917364</v>
+        <v>16.59917854956386</v>
       </c>
     </row>
     <row r="47">
@@ -1990,7 +1990,7 @@
         <v>9.641114982578395</v>
       </c>
       <c r="I47" t="n">
-        <v>17.03317385703267</v>
+        <v>16.9855267931665</v>
       </c>
     </row>
     <row r="48">
@@ -2023,7 +2023,7 @@
         <v>9.369994660971702</v>
       </c>
       <c r="I48" t="n">
-        <v>16.80666565778736</v>
+        <v>16.75997765310667</v>
       </c>
     </row>
     <row r="49">
@@ -2056,7 +2056,7 @@
         <v>9.73970473970474</v>
       </c>
       <c r="I49" t="n">
-        <v>17.11554093382862</v>
+        <v>17.06754511922475</v>
       </c>
     </row>
     <row r="50">
@@ -2089,7 +2089,7 @@
         <v>9.324009324009324</v>
       </c>
       <c r="I50" t="n">
-        <v>16.7682470847888</v>
+        <v>16.72172174832698</v>
       </c>
     </row>
     <row r="51">
@@ -2122,7 +2122,7 @@
         <v>13.63636363636364</v>
       </c>
       <c r="I51" t="n">
-        <v>20.37101505146354</v>
+        <v>20.30923522212623</v>
       </c>
     </row>
     <row r="52">
@@ -2155,7 +2155,7 @@
         <v>9.616239442880428</v>
       </c>
       <c r="I52" t="n">
-        <v>17.01239152072954</v>
+        <v>16.96483245142866</v>
       </c>
     </row>
     <row r="53">
@@ -2188,7 +2188,7 @@
         <v>9.65581743359521</v>
       </c>
       <c r="I53" t="n">
-        <v>17.04545705913488</v>
+        <v>16.99775798691827</v>
       </c>
     </row>
     <row r="54">
@@ -2221,7 +2221,7 @@
         <v>9.65581743359521</v>
       </c>
       <c r="I54" t="n">
-        <v>17.04545705913488</v>
+        <v>16.99775798691827</v>
       </c>
     </row>
     <row r="55">
@@ -2254,7 +2254,7 @@
         <v>9.651946107784433</v>
       </c>
       <c r="I55" t="n">
-        <v>17.04222274961174</v>
+        <v>16.99453737179677</v>
       </c>
     </row>
     <row r="56">
@@ -2287,7 +2287,7 @@
         <v>9.369994660971702</v>
       </c>
       <c r="I56" t="n">
-        <v>16.80666565778736</v>
+        <v>16.75997765310667</v>
       </c>
     </row>
     <row r="57">
@@ -2320,7 +2320,7 @@
         <v>9.854851031321621</v>
       </c>
       <c r="I57" t="n">
-        <v>17.21174021173355</v>
+        <v>17.16333707941924</v>
       </c>
     </row>
     <row r="58">
@@ -2353,7 +2353,7 @@
         <v>9.983163315836387</v>
       </c>
       <c r="I58" t="n">
-        <v>17.31893905368777</v>
+        <v>17.2700820303691</v>
       </c>
     </row>
     <row r="59">
@@ -2386,7 +2386,7 @@
         <v>9.947984395318596</v>
       </c>
       <c r="I59" t="n">
-        <v>17.28954873026731</v>
+        <v>17.24081614862331</v>
       </c>
     </row>
     <row r="60">
@@ -2419,7 +2419,7 @@
         <v>9.947984395318596</v>
       </c>
       <c r="I60" t="n">
-        <v>17.28954873026731</v>
+        <v>17.24081614862331</v>
       </c>
     </row>
     <row r="61">
@@ -2452,7 +2452,7 @@
         <v>9.114208633093526</v>
       </c>
       <c r="I61" t="n">
-        <v>16.59296853533098</v>
+        <v>16.54718534640923</v>
       </c>
     </row>
     <row r="62">
@@ -2485,7 +2485,7 @@
         <v>11.97305389221557</v>
       </c>
       <c r="I62" t="n">
-        <v>18.98139846831154</v>
+        <v>18.92550241957387</v>
       </c>
     </row>
     <row r="63">
@@ -2518,7 +2518,7 @@
         <v>11.73559101269945</v>
       </c>
       <c r="I63" t="n">
-        <v>18.78300946925734</v>
+        <v>18.72795342009795</v>
       </c>
     </row>
     <row r="64">
@@ -2551,7 +2551,7 @@
         <v>11.73559101269945</v>
       </c>
       <c r="I64" t="n">
-        <v>18.78300946925734</v>
+        <v>18.72795342009795</v>
       </c>
     </row>
     <row r="65">
@@ -2584,7 +2584,7 @@
         <v>16.48166362231277</v>
       </c>
       <c r="I65" t="n">
-        <v>22.74812854967264</v>
+        <v>22.6762837754768</v>
       </c>
     </row>
     <row r="66">
@@ -2617,7 +2617,7 @@
         <v>10.11611704598235</v>
       </c>
       <c r="I66" t="n">
-        <v>17.4300156038329</v>
+        <v>17.3806882708916</v>
       </c>
     </row>
     <row r="67">
@@ -2650,7 +2650,7 @@
         <v>11.66442953020134</v>
       </c>
       <c r="I67" t="n">
-        <v>18.72355741800293</v>
+        <v>18.66875309498874</v>
       </c>
     </row>
     <row r="68">
@@ -2683,7 +2683,7 @@
         <v>10.1937984496124</v>
       </c>
       <c r="I68" t="n">
-        <v>17.49491474066934</v>
+        <v>17.44531261805808</v>
       </c>
     </row>
     <row r="69">
@@ -2716,7 +2716,7 @@
         <v>10.1937984496124</v>
       </c>
       <c r="I69" t="n">
-        <v>17.49491474066934</v>
+        <v>17.44531261805808</v>
       </c>
     </row>
     <row r="70">
@@ -2749,7 +2749,7 @@
         <v>10.27298850574713</v>
       </c>
       <c r="I70" t="n">
-        <v>17.56107428528374</v>
+        <v>17.5111920363054</v>
       </c>
     </row>
     <row r="71">
@@ -2782,7 +2782,7 @@
         <v>10.26315789473684</v>
       </c>
       <c r="I71" t="n">
-        <v>17.55286127497074</v>
+        <v>17.50301380072906</v>
       </c>
     </row>
     <row r="72">
@@ -2815,7 +2815,7 @@
         <v>10.41108545034642</v>
       </c>
       <c r="I72" t="n">
-        <v>17.6764477477269</v>
+        <v>17.62607699555403</v>
       </c>
     </row>
     <row r="73">
@@ -2848,7 +2848,7 @@
         <v>10.34894398530762</v>
       </c>
       <c r="I73" t="n">
-        <v>17.62453149423107</v>
+        <v>17.57438056085486</v>
       </c>
     </row>
     <row r="74">
@@ -2881,7 +2881,7 @@
         <v>9.195849546044098</v>
       </c>
       <c r="I74" t="n">
-        <v>16.66117565484009</v>
+        <v>16.61510366990699</v>
       </c>
     </row>
     <row r="75">
@@ -2914,7 +2914,7 @@
         <v>11.7784911717496</v>
       </c>
       <c r="I75" t="n">
-        <v>18.81885052210134</v>
+        <v>18.76364271821051</v>
       </c>
     </row>
     <row r="76">
@@ -2947,7 +2947,7 @@
         <v>11.7784911717496</v>
       </c>
       <c r="I76" t="n">
-        <v>18.81885052210134</v>
+        <v>18.76364271821051</v>
       </c>
     </row>
     <row r="77">
@@ -2980,7 +2980,7 @@
         <v>10.24157660521297</v>
       </c>
       <c r="I77" t="n">
-        <v>17.53483112880362</v>
+        <v>17.48505999606903</v>
       </c>
     </row>
     <row r="78">
@@ -3013,7 +3013,7 @@
         <v>10.28293016497136</v>
       </c>
       <c r="I78" t="n">
-        <v>17.56938007112469</v>
+        <v>17.51946265458848</v>
       </c>
     </row>
     <row r="79">
@@ -3046,7 +3046,7 @@
         <v>9.790209790209792</v>
       </c>
       <c r="I79" t="n">
-        <v>17.1577355136185</v>
+        <v>17.10956104279176</v>
       </c>
     </row>
     <row r="80">
@@ -3079,7 +3079,7 @@
         <v>9.098176004650824</v>
       </c>
       <c r="I80" t="n">
-        <v>16.57957403293365</v>
+        <v>16.53384755772294</v>
       </c>
     </row>
     <row r="81">
@@ -3112,7 +3112,7 @@
         <v>10.16205266711681</v>
       </c>
       <c r="I81" t="n">
-        <v>17.46839264160979</v>
+        <v>17.41890281631406</v>
       </c>
     </row>
     <row r="82">
@@ -3145,7 +3145,7 @@
         <v>9.424989191526157</v>
       </c>
       <c r="I82" t="n">
-        <v>16.8526109857156</v>
+        <v>16.8057284437558</v>
       </c>
     </row>
     <row r="83">
@@ -3178,7 +3178,7 @@
         <v>10.06090133982948</v>
       </c>
       <c r="I83" t="n">
-        <v>17.38388549415824</v>
+        <v>17.33475348088112</v>
       </c>
     </row>
     <row r="84">
@@ -3211,7 +3211,7 @@
         <v>10.85757575757576</v>
       </c>
       <c r="I84" t="n">
-        <v>18.04946927142411</v>
+        <v>17.99751910746889</v>
       </c>
     </row>
     <row r="85">
@@ -3244,7 +3244,7 @@
         <v>10.41666666666667</v>
       </c>
       <c r="I85" t="n">
-        <v>17.68111058985842</v>
+        <v>17.63072009472882</v>
       </c>
     </row>
     <row r="86">
@@ -3277,7 +3277,7 @@
         <v>10.19353128313892</v>
       </c>
       <c r="I86" t="n">
-        <v>17.4946915357231</v>
+        <v>17.44509035818471</v>
       </c>
     </row>
     <row r="87">
@@ -3310,7 +3310,7 @@
         <v>10.19353128313892</v>
       </c>
       <c r="I87" t="n">
-        <v>17.4946915357231</v>
+        <v>17.44509035818471</v>
       </c>
     </row>
     <row r="88">
@@ -3343,7 +3343,7 @@
         <v>9.942758566611777</v>
       </c>
       <c r="I88" t="n">
-        <v>17.28518279766982</v>
+        <v>17.23646870183681</v>
       </c>
     </row>
     <row r="89">
@@ -3376,7 +3376,7 @@
         <v>9.941978986984475</v>
       </c>
       <c r="I89" t="n">
-        <v>17.28453149578104</v>
+        <v>17.23582015762772</v>
       </c>
     </row>
     <row r="90">
@@ -3409,7 +3409,7 @@
         <v>11.55161290322581</v>
       </c>
       <c r="I90" t="n">
-        <v>18.62930446466574</v>
+        <v>18.5748992184221</v>
       </c>
     </row>
     <row r="91">
@@ -3442,7 +3442,7 @@
         <v>9.497129418274886</v>
       </c>
       <c r="I91" t="n">
-        <v>16.91288073147707</v>
+        <v>16.8657430011688</v>
       </c>
     </row>
     <row r="92">
@@ -3475,7 +3475,7 @@
         <v>10.85930408472012</v>
       </c>
       <c r="I92" t="n">
-        <v>18.05091320696851</v>
+        <v>17.99895692924058</v>
       </c>
     </row>
     <row r="93">
@@ -3508,7 +3508,7 @@
         <v>10.23255813953488</v>
       </c>
       <c r="I93" t="n">
-        <v>17.52729662748483</v>
+        <v>17.47755739660951</v>
       </c>
     </row>
     <row r="94">
@@ -3541,7 +3541,7 @@
         <v>10.23255813953488</v>
       </c>
       <c r="I94" t="n">
-        <v>17.52729662748483</v>
+        <v>17.47755739660951</v>
       </c>
     </row>
     <row r="95">
@@ -3574,7 +3574,7 @@
         <v>11.51983151983152</v>
       </c>
       <c r="I95" t="n">
-        <v>18.60275262273997</v>
+        <v>18.54845979974625</v>
       </c>
     </row>
     <row r="96">
@@ -3607,7 +3607,7 @@
         <v>10.95279217040875</v>
       </c>
       <c r="I96" t="n">
-        <v>18.12901807869016</v>
+        <v>18.07673109684244</v>
       </c>
     </row>
     <row r="97">
@@ -3640,7 +3640,7 @@
         <v>8.850540216086435</v>
       </c>
       <c r="I97" t="n">
-        <v>16.37268604975331</v>
+        <v>16.3278355597003</v>
       </c>
     </row>
     <row r="98">
@@ -3673,7 +3673,7 @@
         <v>10.95567069660334</v>
       </c>
       <c r="I98" t="n">
-        <v>18.13142295111341</v>
+        <v>18.07912578678667</v>
       </c>
     </row>
     <row r="99">
@@ -3706,7 +3706,7 @@
         <v>10.9596104268118</v>
       </c>
       <c r="I99" t="n">
-        <v>18.13471440927392</v>
+        <v>18.08240330857228</v>
       </c>
     </row>
     <row r="100">
@@ -3739,7 +3739,7 @@
         <v>9.626446280991736</v>
       </c>
       <c r="I100" t="n">
-        <v>17.02091885098233</v>
+        <v>16.97332367608159</v>
       </c>
     </row>
     <row r="101">
@@ -3772,7 +3772,7 @@
         <v>10.34647550776583</v>
       </c>
       <c r="I101" t="n">
-        <v>17.62246919805366</v>
+        <v>17.57232699665315</v>
       </c>
     </row>
     <row r="102">
@@ -3805,7 +3805,7 @@
         <v>10.34647550776583</v>
       </c>
       <c r="I102" t="n">
-        <v>17.62246919805366</v>
+        <v>17.57232699665315</v>
       </c>
     </row>
     <row r="103">
@@ -3838,7 +3838,7 @@
         <v>10.34647550776583</v>
       </c>
       <c r="I103" t="n">
-        <v>17.62246919805366</v>
+        <v>17.57232699665315</v>
       </c>
     </row>
     <row r="104">
@@ -3871,7 +3871,7 @@
         <v>10.16205266711681</v>
       </c>
       <c r="I104" t="n">
-        <v>17.46839264160979</v>
+        <v>17.41890281631406</v>
       </c>
     </row>
     <row r="105">
@@ -3904,7 +3904,7 @@
         <v>10.16205266711681</v>
       </c>
       <c r="I105" t="n">
-        <v>17.46839264160979</v>
+        <v>17.41890281631406</v>
       </c>
     </row>
     <row r="106">
@@ -3937,7 +3937,7 @@
         <v>10.23255813953488</v>
       </c>
       <c r="I106" t="n">
-        <v>17.52729662748483</v>
+        <v>17.47755739660951</v>
       </c>
     </row>
     <row r="107">
@@ -3970,7 +3970,7 @@
         <v>10.23255813953488</v>
       </c>
       <c r="I107" t="n">
-        <v>17.52729662748483</v>
+        <v>17.47755739660951</v>
       </c>
     </row>
     <row r="108">
@@ -4003,7 +4003,7 @@
         <v>10.22222222222222</v>
       </c>
       <c r="I108" t="n">
-        <v>17.51866145766736</v>
+        <v>17.4689587889958</v>
       </c>
     </row>
     <row r="109">
@@ -4036,7 +4036,7 @@
         <v>10.24157660521297</v>
       </c>
       <c r="I109" t="n">
-        <v>17.53483112880362</v>
+        <v>17.48505999606903</v>
       </c>
     </row>
     <row r="110">
@@ -4069,7 +4069,7 @@
         <v>9.437976716178243</v>
       </c>
       <c r="I110" t="n">
-        <v>16.86346144799067</v>
+        <v>16.81653296404931</v>
       </c>
     </row>
     <row r="111">
@@ -4102,7 +4102,7 @@
         <v>11.54193548387097</v>
       </c>
       <c r="I111" t="n">
-        <v>18.62121943873181</v>
+        <v>18.56684842532572</v>
       </c>
     </row>
     <row r="112">
@@ -4135,7 +4135,7 @@
         <v>10.85757575757576</v>
       </c>
       <c r="I112" t="n">
-        <v>18.04946927142411</v>
+        <v>17.99751910746889</v>
       </c>
     </row>
     <row r="113">
@@ -4168,7 +4168,7 @@
         <v>9.731772738356499</v>
       </c>
       <c r="I113" t="n">
-        <v>17.10891412204574</v>
+        <v>17.0609463660496</v>
       </c>
     </row>
     <row r="114">
@@ -4201,7 +4201,7 @@
         <v>9.731772738356499</v>
       </c>
       <c r="I114" t="n">
-        <v>17.10891412204574</v>
+        <v>17.0609463660496</v>
       </c>
     </row>
     <row r="115">
@@ -4234,7 +4234,7 @@
         <v>8.985422740524781</v>
       </c>
       <c r="I115" t="n">
-        <v>16.48537401625887</v>
+        <v>16.44004639367939</v>
       </c>
     </row>
     <row r="116">
@@ -4267,7 +4267,7 @@
         <v>10.85930408472012</v>
       </c>
       <c r="I116" t="n">
-        <v>18.05091320696851</v>
+        <v>17.99895692924058</v>
       </c>
     </row>
     <row r="117">
@@ -4300,7 +4300,7 @@
         <v>9.282296650717702</v>
       </c>
       <c r="I117" t="n">
-        <v>16.73339812010404</v>
+        <v>16.6870203377696</v>
       </c>
     </row>
     <row r="118">
@@ -4333,7 +4333,7 @@
         <v>15.7124243121024</v>
       </c>
       <c r="I118" t="n">
-        <v>22.10546550651933</v>
+        <v>22.03634183423841</v>
       </c>
     </row>
     <row r="119">
@@ -4366,7 +4366,7 @@
         <v>8.769792935444579</v>
       </c>
       <c r="I119" t="n">
-        <v>16.3052255177513</v>
+        <v>16.26066066258078</v>
       </c>
     </row>
     <row r="120">
@@ -4399,7 +4399,7 @@
         <v>9.711649365628602</v>
       </c>
       <c r="I120" t="n">
-        <v>17.09210199637281</v>
+        <v>17.04420542465877</v>
       </c>
     </row>
     <row r="121">
@@ -4432,7 +4432,7 @@
         <v>9.224392300126457</v>
       </c>
       <c r="I121" t="n">
-        <v>16.68502177522821</v>
+        <v>16.63884882335054</v>
       </c>
     </row>
     <row r="122">
@@ -4465,7 +4465,7 @@
         <v>9.403131115459882</v>
       </c>
       <c r="I122" t="n">
-        <v>16.83434959748989</v>
+        <v>16.78754437614001</v>
       </c>
     </row>
     <row r="123">
@@ -4498,7 +4498,7 @@
         <v>8.972073677956033</v>
       </c>
       <c r="I123" t="n">
-        <v>16.47422150616246</v>
+        <v>16.42894110446631</v>
       </c>
     </row>
     <row r="124">
@@ -4531,7 +4531,7 @@
         <v>11.80126535169334</v>
       </c>
       <c r="I124" t="n">
-        <v>18.83787727176649</v>
+        <v>18.78258890664609</v>
       </c>
     </row>
     <row r="125">
@@ -4564,7 +4564,7 @@
         <v>11.78372352285396</v>
       </c>
       <c r="I125" t="n">
-        <v>18.82322190385334</v>
+        <v>18.76799559107922</v>
       </c>
     </row>
     <row r="126">
@@ -4597,7 +4597,7 @@
         <v>10.40621266427718</v>
       </c>
       <c r="I126" t="n">
-        <v>17.67237676554707</v>
+        <v>17.62202325033456</v>
       </c>
     </row>
     <row r="127">
@@ -4630,7 +4630,7 @@
         <v>10.40621266427718</v>
       </c>
       <c r="I127" t="n">
-        <v>17.67237676554707</v>
+        <v>17.62202325033456</v>
       </c>
     </row>
     <row r="128">
@@ -4663,7 +4663,7 @@
         <v>10.40621266427718</v>
       </c>
       <c r="I128" t="n">
-        <v>17.67237676554707</v>
+        <v>17.62202325033456</v>
       </c>
     </row>
     <row r="129">
@@ -4696,7 +4696,7 @@
         <v>11.33246244284781</v>
       </c>
       <c r="I129" t="n">
-        <v>18.44621462525484</v>
+        <v>18.39258460036231</v>
       </c>
     </row>
     <row r="130">
@@ -4729,7 +4729,7 @@
         <v>9.620155038759689</v>
       </c>
       <c r="I130" t="n">
-        <v>17.01566281580004</v>
+        <v>16.96808989549687</v>
       </c>
     </row>
     <row r="131">
@@ -4762,7 +4762,7 @@
         <v>9.126289161315432</v>
       </c>
       <c r="I131" t="n">
-        <v>16.60306124500785</v>
+        <v>16.55723532250756</v>
       </c>
     </row>
     <row r="132">
@@ -4795,7 +4795,7 @@
         <v>10.85757575757576</v>
       </c>
       <c r="I132" t="n">
-        <v>18.04946927142411</v>
+        <v>17.99751910746889</v>
       </c>
     </row>
     <row r="133">
@@ -4828,7 +4828,7 @@
         <v>10.85757575757576</v>
       </c>
       <c r="I133" t="n">
-        <v>18.04946927142411</v>
+        <v>17.99751910746889</v>
       </c>
     </row>
     <row r="134">
@@ -4861,7 +4861,7 @@
         <v>7.933451668221067</v>
       </c>
       <c r="I134" t="n">
-        <v>15.60650196478888</v>
+        <v>15.56489557754058</v>
       </c>
     </row>
     <row r="135">
@@ -4894,7 +4894,7 @@
         <v>13.91355140186916</v>
       </c>
       <c r="I135" t="n">
-        <v>20.60259231297391</v>
+        <v>20.53983196151625</v>
       </c>
     </row>
     <row r="136">
@@ -4927,7 +4927,7 @@
         <v>10.39426523297491</v>
       </c>
       <c r="I136" t="n">
-        <v>17.66239525204839</v>
+        <v>17.61208399959828</v>
       </c>
     </row>
     <row r="137">
@@ -4960,7 +4960,7 @@
         <v>10.39426523297491</v>
       </c>
       <c r="I137" t="n">
-        <v>17.66239525204839</v>
+        <v>17.61208399959828</v>
       </c>
     </row>
     <row r="138">
@@ -4993,7 +4993,7 @@
         <v>10.39426523297491</v>
       </c>
       <c r="I138" t="n">
-        <v>17.66239525204839</v>
+        <v>17.61208399959828</v>
       </c>
     </row>
     <row r="139">
@@ -5026,7 +5026,7 @@
         <v>10.39426523297491</v>
       </c>
       <c r="I139" t="n">
-        <v>17.66239525204839</v>
+        <v>17.61208399959828</v>
       </c>
     </row>
     <row r="140">
@@ -5059,7 +5059,7 @@
         <v>9.92440868080956</v>
       </c>
       <c r="I140" t="n">
-        <v>17.2698523364016</v>
+        <v>17.22120315133009</v>
       </c>
     </row>
     <row r="141">
@@ -5092,7 +5092,7 @@
         <v>9.92440868080956</v>
       </c>
       <c r="I141" t="n">
-        <v>17.2698523364016</v>
+        <v>17.22120315133009</v>
       </c>
     </row>
     <row r="142">
@@ -5125,7 +5125,7 @@
         <v>10.95279217040875</v>
       </c>
       <c r="I142" t="n">
-        <v>18.12901807869016</v>
+        <v>18.07673109684244</v>
       </c>
     </row>
     <row r="143">
@@ -5158,7 +5158,7 @@
         <v>10.95279217040875</v>
       </c>
       <c r="I143" t="n">
-        <v>18.12901807869016</v>
+        <v>18.07673109684244</v>
       </c>
     </row>
     <row r="144">
@@ -5191,7 +5191,7 @@
         <v>10.95279217040875</v>
       </c>
       <c r="I144" t="n">
-        <v>18.12901807869016</v>
+        <v>18.07673109684244</v>
       </c>
     </row>
     <row r="145">
@@ -5224,7 +5224,7 @@
         <v>9.889737065309584</v>
       </c>
       <c r="I145" t="n">
-        <v>17.24088584231777</v>
+        <v>17.19235930438361</v>
       </c>
     </row>
     <row r="146">
@@ -5257,7 +5257,7 @@
         <v>8.578968737312222</v>
       </c>
       <c r="I146" t="n">
-        <v>16.14580093004336</v>
+        <v>16.10191109509614</v>
       </c>
     </row>
     <row r="147">
@@ -5290,7 +5290,7 @@
         <v>8.578968737312222</v>
       </c>
       <c r="I147" t="n">
-        <v>16.14580093004336</v>
+        <v>16.10191109509614</v>
       </c>
     </row>
     <row r="148">
@@ -5323,7 +5323,7 @@
         <v>10.95567069660334</v>
       </c>
       <c r="I148" t="n">
-        <v>18.13142295111341</v>
+        <v>18.07912578678667</v>
       </c>
     </row>
     <row r="149">
@@ -5356,7 +5356,7 @@
         <v>10.95567069660334</v>
       </c>
       <c r="I149" t="n">
-        <v>18.13142295111341</v>
+        <v>18.07912578678667</v>
       </c>
     </row>
     <row r="150">
@@ -5389,7 +5389,7 @@
         <v>10.9596104268118</v>
       </c>
       <c r="I150" t="n">
-        <v>18.13471440927392</v>
+        <v>18.08240330857228</v>
       </c>
     </row>
     <row r="151">
@@ -5422,7 +5422,7 @@
         <v>10.95567069660334</v>
       </c>
       <c r="I151" t="n">
-        <v>18.13142295111341</v>
+        <v>18.07912578678667</v>
       </c>
     </row>
     <row r="152">
@@ -5455,7 +5455,7 @@
         <v>10.9596104268118</v>
       </c>
       <c r="I152" t="n">
-        <v>18.13471440927392</v>
+        <v>18.08240330857228</v>
       </c>
     </row>
     <row r="153">
@@ -5488,7 +5488,7 @@
         <v>9.781659388646288</v>
       </c>
       <c r="I153" t="n">
-        <v>17.15059205771857</v>
+        <v>17.10244783302429</v>
       </c>
     </row>
     <row r="154">
@@ -5521,7 +5521,7 @@
         <v>9.781659388646288</v>
       </c>
       <c r="I154" t="n">
-        <v>17.15059205771857</v>
+        <v>17.10244783302429</v>
       </c>
     </row>
     <row r="155">
@@ -5554,7 +5554,7 @@
         <v>9.781659388646288</v>
       </c>
       <c r="I155" t="n">
-        <v>17.15059205771857</v>
+        <v>17.10244783302429</v>
       </c>
     </row>
     <row r="156">
@@ -5587,7 +5587,7 @@
         <v>7.814649716581365</v>
       </c>
       <c r="I156" t="n">
-        <v>15.5072485559213</v>
+        <v>15.46606241789039</v>
       </c>
     </row>
     <row r="157">
@@ -5620,7 +5620,7 @@
         <v>10.9596104268118</v>
       </c>
       <c r="I157" t="n">
-        <v>18.13471440927392</v>
+        <v>18.08240330857228</v>
       </c>
     </row>
     <row r="158">
@@ -5653,7 +5653,7 @@
         <v>10.85930408472012</v>
       </c>
       <c r="I158" t="n">
-        <v>18.05091320696851</v>
+        <v>17.99895692924058</v>
       </c>
     </row>
     <row r="159">
@@ -5686,7 +5686,7 @@
         <v>10.85930408472012</v>
       </c>
       <c r="I159" t="n">
-        <v>18.05091320696851</v>
+        <v>17.99895692924058</v>
       </c>
     </row>
     <row r="160">
@@ -5719,7 +5719,7 @@
         <v>15.8856592259515</v>
       </c>
       <c r="I160" t="n">
-        <v>22.25019507953636</v>
+        <v>22.18045860724698</v>
       </c>
     </row>
     <row r="161">
@@ -5752,7 +5752,7 @@
         <v>15.8856592259515</v>
       </c>
       <c r="I161" t="n">
-        <v>22.25019507953636</v>
+        <v>22.18045860724698</v>
       </c>
     </row>
     <row r="162">
@@ -5785,7 +5785,7 @@
         <v>9.105098855359001</v>
       </c>
       <c r="I162" t="n">
-        <v>16.58535774710992</v>
+        <v>16.5396067830541</v>
       </c>
     </row>
     <row r="163">
@@ -5818,7 +5818,7 @@
         <v>9.105098855359001</v>
       </c>
       <c r="I163" t="n">
-        <v>16.58535774710992</v>
+        <v>16.5396067830541</v>
       </c>
     </row>
     <row r="164">
@@ -5851,7 +5851,7 @@
         <v>9.827650805545151</v>
       </c>
       <c r="I164" t="n">
-        <v>17.18901571021635</v>
+        <v>17.14070879579608</v>
       </c>
     </row>
     <row r="165">
@@ -5884,7 +5884,7 @@
         <v>8.774014656367598</v>
       </c>
       <c r="I165" t="n">
-        <v>16.30875256580998</v>
+        <v>16.26417277675251</v>
       </c>
     </row>
     <row r="166">
@@ -5917,7 +5917,7 @@
         <v>17.57396449704142</v>
       </c>
       <c r="I166" t="n">
-        <v>23.66069424265594</v>
+        <v>23.58498557075956</v>
       </c>
     </row>
     <row r="167">
@@ -5950,7 +5950,7 @@
         <v>8.951157812804048</v>
       </c>
       <c r="I167" t="n">
-        <v>16.45674729057007</v>
+        <v>16.41154087651335</v>
       </c>
     </row>
     <row r="168">
@@ -5983,7 +5983,7 @@
         <v>8.951157812804048</v>
       </c>
       <c r="I168" t="n">
-        <v>16.45674729057007</v>
+        <v>16.41154087651335</v>
       </c>
     </row>
     <row r="169">
@@ -6016,7 +6016,7 @@
         <v>9.492089925062448</v>
       </c>
       <c r="I169" t="n">
-        <v>16.90867047336771</v>
+        <v>16.86155056972852</v>
       </c>
     </row>
     <row r="170">
@@ -6049,7 +6049,7 @@
         <v>9.131767109295199</v>
       </c>
       <c r="I170" t="n">
-        <v>16.60763781132757</v>
+        <v>16.56179251117128</v>
       </c>
     </row>
     <row r="171">
@@ -6082,7 +6082,7 @@
         <v>9.131767109295199</v>
       </c>
       <c r="I171" t="n">
-        <v>16.60763781132757</v>
+        <v>16.56179251117128</v>
       </c>
     </row>
     <row r="172">
@@ -6115,7 +6115,7 @@
         <v>11.09257265877288</v>
       </c>
       <c r="I172" t="n">
-        <v>18.24579806228327</v>
+        <v>18.19301662188473</v>
       </c>
     </row>
     <row r="173">
@@ -6148,7 +6148,7 @@
         <v>11.09257265877288</v>
       </c>
       <c r="I173" t="n">
-        <v>18.24579806228327</v>
+        <v>18.19301662188473</v>
       </c>
     </row>
     <row r="174">
@@ -6181,7 +6181,7 @@
         <v>14.02818068794032</v>
       </c>
       <c r="I174" t="n">
-        <v>20.69835965721018</v>
+        <v>20.63519381689398</v>
       </c>
     </row>
     <row r="175">
@@ -6214,7 +6214,7 @@
         <v>7.847595807220896</v>
       </c>
       <c r="I175" t="n">
-        <v>15.53477345563634</v>
+        <v>15.49347077432801</v>
       </c>
     </row>
     <row r="176">
@@ -6247,7 +6247,7 @@
         <v>9.55023923444976</v>
       </c>
       <c r="I176" t="n">
-        <v>16.95725146972617</v>
+        <v>16.90992586911463</v>
       </c>
     </row>
     <row r="177">
@@ -6280,7 +6280,7 @@
         <v>12.33766233766234</v>
       </c>
       <c r="I177" t="n">
-        <v>19.28601157115223</v>
+        <v>19.22882575897433</v>
       </c>
     </row>
     <row r="178">
@@ -6313,7 +6313,7 @@
         <v>12.33766233766234</v>
       </c>
       <c r="I178" t="n">
-        <v>19.28601157115223</v>
+        <v>19.22882575897433</v>
       </c>
     </row>
     <row r="179">
@@ -6346,7 +6346,7 @@
         <v>8.413298713027771</v>
       </c>
       <c r="I179" t="n">
-        <v>16.00739146428581</v>
+        <v>15.96408766935804</v>
       </c>
     </row>
     <row r="180">
@@ -6379,7 +6379,7 @@
         <v>9.972573175666561</v>
       </c>
       <c r="I180" t="n">
-        <v>17.31009149270301</v>
+        <v>17.26127193087429</v>
       </c>
     </row>
     <row r="181">
@@ -6412,7 +6412,7 @@
         <v>8.379309379113339</v>
       </c>
       <c r="I181" t="n">
-        <v>15.97899498418103</v>
+        <v>15.93581142289236</v>
       </c>
     </row>
     <row r="182">
@@ -6445,7 +6445,7 @@
         <v>14.23334052188915</v>
       </c>
       <c r="I182" t="n">
-        <v>20.8697609902782</v>
+        <v>20.80586941895786</v>
       </c>
     </row>
     <row r="183">
@@ -6478,7 +6478,7 @@
         <v>9.499458874458874</v>
       </c>
       <c r="I183" t="n">
-        <v>16.91482688188855</v>
+        <v>16.86768091137779</v>
       </c>
     </row>
     <row r="184">
@@ -6511,7 +6511,7 @@
         <v>9.37582650092568</v>
       </c>
       <c r="I184" t="n">
-        <v>16.8115378841053</v>
+        <v>16.76482924991355</v>
       </c>
     </row>
     <row r="185">
@@ -6544,7 +6544,7 @@
         <v>9.37582650092568</v>
       </c>
       <c r="I185" t="n">
-        <v>16.8115378841053</v>
+        <v>16.76482924991355</v>
       </c>
     </row>
     <row r="186">
@@ -6577,7 +6577,7 @@
         <v>13.00595238095238</v>
       </c>
       <c r="I186" t="n">
-        <v>19.84433627872909</v>
+        <v>19.78478646188791</v>
       </c>
     </row>
     <row r="187">
@@ -6610,7 +6610,7 @@
         <v>10.35573122529644</v>
       </c>
       <c r="I187" t="n">
-        <v>17.63020191206845</v>
+        <v>17.58002696955557</v>
       </c>
     </row>
     <row r="188">
@@ -6643,7 +6643,7 @@
         <v>10.03263234227701</v>
       </c>
       <c r="I188" t="n">
-        <v>17.36026808439665</v>
+        <v>17.31123606967961</v>
       </c>
     </row>
     <row r="189">
@@ -6676,7 +6676,7 @@
         <v>11.54791154791155</v>
       </c>
       <c r="I189" t="n">
-        <v>18.62621215744941</v>
+        <v>18.57182000435493</v>
       </c>
     </row>
     <row r="190">
@@ -6709,7 +6709,7 @@
         <v>7.697813997026595</v>
       </c>
       <c r="I190" t="n">
-        <v>15.40963784091827</v>
+        <v>15.36886499676871</v>
       </c>
     </row>
     <row r="191">
@@ -6742,7 +6742,7 @@
         <v>10.1835893593106</v>
       </c>
       <c r="I191" t="n">
-        <v>17.48638552881797</v>
+        <v>17.43681951977346</v>
       </c>
     </row>
     <row r="192">
@@ -6775,7 +6775,7 @@
         <v>8.700480192076832</v>
       </c>
       <c r="I192" t="n">
-        <v>16.24731800055768</v>
+        <v>16.2029983318151</v>
       </c>
     </row>
     <row r="193">
@@ -6808,7 +6808,7 @@
         <v>9.55621301775148</v>
       </c>
       <c r="I193" t="n">
-        <v>16.96224228299437</v>
+        <v>16.91489555076232</v>
       </c>
     </row>
     <row r="194">
@@ -6841,7 +6841,7 @@
         <v>9.55621301775148</v>
       </c>
       <c r="I194" t="n">
-        <v>16.96224228299437</v>
+        <v>16.91489555076232</v>
       </c>
     </row>
     <row r="195">
@@ -6874,7 +6874,7 @@
         <v>7.716428084526244</v>
       </c>
       <c r="I195" t="n">
-        <v>15.42518903020262</v>
+        <v>15.38435034070629</v>
       </c>
     </row>
     <row r="196">
@@ -6907,7 +6907,7 @@
         <v>8.830188679245282</v>
       </c>
       <c r="I196" t="n">
-        <v>16.35568330376051</v>
+        <v>16.31090480509579</v>
       </c>
     </row>
     <row r="197">
@@ -6940,7 +6940,7 @@
         <v>16.12403100775194</v>
       </c>
       <c r="I197" t="n">
-        <v>22.44934342343971</v>
+        <v>22.37876373642727</v>
       </c>
     </row>
     <row r="198">
@@ -6973,7 +6973,7 @@
         <v>11.26593536910762</v>
       </c>
       <c r="I198" t="n">
-        <v>18.3906344032167</v>
+        <v>18.33723971074329</v>
       </c>
     </row>
     <row r="199">
@@ -7006,7 +7006,7 @@
         <v>12.7007299270073</v>
       </c>
       <c r="I199" t="n">
-        <v>19.58933736163343</v>
+        <v>19.53086723662921</v>
       </c>
     </row>
     <row r="200">
@@ -7039,7 +7039,7 @@
         <v>8.069616250537553</v>
       </c>
       <c r="I200" t="n">
-        <v>15.72026102998444</v>
+        <v>15.67817297506683</v>
       </c>
     </row>
     <row r="201">
@@ -7072,7 +7072,7 @@
         <v>10.34082668600435</v>
       </c>
       <c r="I201" t="n">
-        <v>17.61774987477509</v>
+        <v>17.56762765547834</v>
       </c>
     </row>
     <row r="202">
@@ -7105,7 +7105,7 @@
         <v>9.227799227799228</v>
       </c>
       <c r="I202" t="n">
-        <v>16.68786810208244</v>
+        <v>16.64168309856195</v>
       </c>
     </row>
     <row r="203">
@@ -7138,7 +7138,7 @@
         <v>9.227799227799228</v>
       </c>
       <c r="I203" t="n">
-        <v>16.68786810208244</v>
+        <v>16.64168309856195</v>
       </c>
     </row>
     <row r="204">
@@ -7171,7 +7171,7 @@
         <v>8.801749271137027</v>
       </c>
       <c r="I204" t="n">
-        <v>16.33192352404341</v>
+        <v>16.28724562674791</v>
       </c>
     </row>
     <row r="205">
@@ -7204,7 +7204,7 @@
         <v>10.42272126816381</v>
       </c>
       <c r="I205" t="n">
-        <v>17.68616892290456</v>
+        <v>17.63575701026872</v>
       </c>
     </row>
     <row r="206">
@@ -7237,7 +7237,7 @@
         <v>10.42272126816381</v>
       </c>
       <c r="I206" t="n">
-        <v>17.68616892290456</v>
+        <v>17.63575701026872</v>
       </c>
     </row>
     <row r="207">
@@ -7270,7 +7270,7 @@
         <v>8.192584963954687</v>
       </c>
       <c r="I207" t="n">
-        <v>15.82299557114523</v>
+        <v>15.7804725275354</v>
       </c>
     </row>
     <row r="208">
@@ -7303,7 +7303,7 @@
         <v>9.23444976076555</v>
       </c>
       <c r="I208" t="n">
-        <v>16.69342430767152</v>
+        <v>16.64721577860085</v>
       </c>
     </row>
     <row r="209">
@@ -7336,7 +7336,7 @@
         <v>9.23444976076555</v>
       </c>
       <c r="I209" t="n">
-        <v>16.69342430767152</v>
+        <v>16.64721577860085</v>
       </c>
     </row>
     <row r="210">
@@ -7369,7 +7369,7 @@
         <v>9.887640449438203</v>
       </c>
       <c r="I210" t="n">
-        <v>17.23913421896943</v>
+        <v>17.19061509759002</v>
       </c>
     </row>
     <row r="211">
@@ -7402,7 +7402,7 @@
         <v>11.53036153036153</v>
       </c>
       <c r="I211" t="n">
-        <v>18.61154994825601</v>
+        <v>18.55721987647451</v>
       </c>
     </row>
     <row r="212">
@@ -7435,7 +7435,7 @@
         <v>8.792609111181905</v>
       </c>
       <c r="I212" t="n">
-        <v>16.32428735291474</v>
+        <v>16.27964178795903</v>
       </c>
     </row>
     <row r="213">
@@ -7468,7 +7468,7 @@
         <v>10.59667031231012</v>
       </c>
       <c r="I213" t="n">
-        <v>17.83149511799216</v>
+        <v>17.78046787918819</v>
       </c>
     </row>
     <row r="214">
@@ -7501,7 +7501,7 @@
         <v>10.56218057921635</v>
       </c>
       <c r="I214" t="n">
-        <v>17.80268057805202</v>
+        <v>17.7517753429958</v>
       </c>
     </row>
     <row r="215">
@@ -7534,7 +7534,7 @@
         <v>9.940594059405941</v>
       </c>
       <c r="I215" t="n">
-        <v>17.28337445432417</v>
+        <v>17.23466801520426</v>
       </c>
     </row>
     <row r="216">
@@ -7567,7 +7567,7 @@
         <v>9.940594059405941</v>
       </c>
       <c r="I216" t="n">
-        <v>17.28337445432417</v>
+        <v>17.23466801520426</v>
       </c>
     </row>
     <row r="217">
@@ -7600,7 +7600,7 @@
         <v>9.940594059405941</v>
       </c>
       <c r="I217" t="n">
-        <v>17.28337445432417</v>
+        <v>17.23466801520426</v>
       </c>
     </row>
     <row r="218">
@@ -7633,7 +7633,7 @@
         <v>9.940594059405941</v>
       </c>
       <c r="I218" t="n">
-        <v>17.28337445432417</v>
+        <v>17.23466801520426</v>
       </c>
     </row>
     <row r="219">
@@ -7666,7 +7666,7 @@
         <v>9.940594059405941</v>
       </c>
       <c r="I219" t="n">
-        <v>17.28337445432417</v>
+        <v>17.23466801520426</v>
       </c>
     </row>
     <row r="220">
@@ -7699,7 +7699,7 @@
         <v>8.917627213944336</v>
       </c>
       <c r="I220" t="n">
-        <v>16.42873406189609</v>
+        <v>16.38364625875219</v>
       </c>
     </row>
     <row r="221">
@@ -7732,7 +7732,7 @@
         <v>7.882480300093149</v>
       </c>
       <c r="I221" t="n">
-        <v>15.56391779869132</v>
+        <v>15.52249171721467</v>
       </c>
     </row>
     <row r="222">
@@ -7765,7 +7765,7 @@
         <v>8.176882787649774</v>
       </c>
       <c r="I222" t="n">
-        <v>15.80987714587198</v>
+        <v>15.76740964703403</v>
       </c>
     </row>
     <row r="223">
@@ -7798,7 +7798,7 @@
         <v>9.995069033530573</v>
       </c>
       <c r="I223" t="n">
-        <v>17.32888571744079</v>
+        <v>17.27998657891715</v>
       </c>
     </row>
     <row r="224">
@@ -7831,7 +7831,7 @@
         <v>9.995069033530573</v>
       </c>
       <c r="I224" t="n">
-        <v>17.32888571744079</v>
+        <v>17.27998657891715</v>
       </c>
     </row>
     <row r="225">
@@ -7864,7 +7864,7 @@
         <v>10.06967022758941</v>
       </c>
       <c r="I225" t="n">
-        <v>17.39121148493649</v>
+        <v>17.34204845265533</v>
       </c>
     </row>
     <row r="226">
@@ -7897,7 +7897,7 @@
         <v>10.17395182872435</v>
       </c>
       <c r="I226" t="n">
-        <v>17.47833382806265</v>
+        <v>17.42880191075342</v>
       </c>
     </row>
     <row r="227">
@@ -7930,7 +7930,7 @@
         <v>10.24739583333333</v>
       </c>
       <c r="I227" t="n">
-        <v>17.53969281853139</v>
+        <v>17.48990110089873</v>
       </c>
     </row>
     <row r="228">
@@ -7963,7 +7963,7 @@
         <v>10.24739583333333</v>
       </c>
       <c r="I228" t="n">
-        <v>17.53969281853139</v>
+        <v>17.48990110089873</v>
       </c>
     </row>
     <row r="229">
@@ -7996,7 +7996,7 @@
         <v>10.18166455428813</v>
       </c>
       <c r="I229" t="n">
-        <v>17.48477744530378</v>
+        <v>17.43521824505148</v>
       </c>
     </row>
     <row r="230">
@@ -8029,7 +8029,7 @@
         <v>10.17395182872435</v>
       </c>
       <c r="I230" t="n">
-        <v>17.47833382806265</v>
+        <v>17.42880191075342</v>
       </c>
     </row>
     <row r="231">
@@ -8062,7 +8062,7 @@
         <v>10.17395182872435</v>
       </c>
       <c r="I231" t="n">
-        <v>17.47833382806265</v>
+        <v>17.42880191075342</v>
       </c>
     </row>
     <row r="232">
@@ -8095,7 +8095,7 @@
         <v>10.24739583333333</v>
       </c>
       <c r="I232" t="n">
-        <v>17.53969281853139</v>
+        <v>17.48990110089873</v>
       </c>
     </row>
     <row r="233">
@@ -8128,7 +8128,7 @@
         <v>10.24739583333333</v>
       </c>
       <c r="I233" t="n">
-        <v>17.53969281853139</v>
+        <v>17.48990110089873</v>
       </c>
     </row>
     <row r="234">
@@ -8161,7 +8161,7 @@
         <v>10.24739583333333</v>
       </c>
       <c r="I234" t="n">
-        <v>17.53969281853139</v>
+        <v>17.48990110089873</v>
       </c>
     </row>
     <row r="235">
@@ -8194,7 +8194,7 @@
         <v>10.18166455428813</v>
       </c>
       <c r="I235" t="n">
-        <v>17.48477744530378</v>
+        <v>17.43521824505148</v>
       </c>
     </row>
     <row r="236">
@@ -8227,7 +8227,7 @@
         <v>8.36376028430943</v>
       </c>
       <c r="I236" t="n">
-        <v>15.96600445125802</v>
+        <v>15.92287589323178</v>
       </c>
     </row>
     <row r="237">
@@ -8260,7 +8260,7 @@
         <v>9.228896103896103</v>
       </c>
       <c r="I237" t="n">
-        <v>16.68878449015703</v>
+        <v>16.64259560655448</v>
       </c>
     </row>
     <row r="238">
@@ -8293,7 +8293,7 @@
         <v>9.228896103896103</v>
       </c>
       <c r="I238" t="n">
-        <v>16.68878449015703</v>
+        <v>16.64259560655448</v>
       </c>
     </row>
     <row r="239">
@@ -8326,7 +8326,7 @@
         <v>10.07976794778825</v>
       </c>
       <c r="I239" t="n">
-        <v>17.39964765233688</v>
+        <v>17.35044890044882</v>
       </c>
     </row>
     <row r="240">
@@ -8359,7 +8359,7 @@
         <v>8.255999250093737</v>
       </c>
       <c r="I240" t="n">
-        <v>15.87597520644022</v>
+        <v>15.83322784156501</v>
       </c>
     </row>
     <row r="241">
@@ -8392,7 +8392,7 @@
         <v>8.062015503875969</v>
       </c>
       <c r="I241" t="n">
-        <v>15.71391096581724</v>
+        <v>15.67184979772928</v>
       </c>
     </row>
     <row r="242">
@@ -8425,7 +8425,7 @@
         <v>9.969446990528567</v>
       </c>
       <c r="I242" t="n">
-        <v>17.3074797129518</v>
+        <v>17.25867120966917</v>
       </c>
     </row>
     <row r="243">
@@ -8458,7 +8458,7 @@
         <v>11.17699377408835</v>
       </c>
       <c r="I243" t="n">
-        <v>18.31632790930864</v>
+        <v>18.26324783822977</v>
       </c>
     </row>
     <row r="244">
@@ -8491,7 +8491,7 @@
         <v>10.32303370786517</v>
       </c>
       <c r="I244" t="n">
-        <v>17.60288468350638</v>
+        <v>17.55282540496974</v>
       </c>
     </row>
     <row r="245">
@@ -8524,7 +8524,7 @@
         <v>8.152325257588414</v>
       </c>
       <c r="I245" t="n">
-        <v>15.78936049157197</v>
+        <v>15.74697986237418</v>
       </c>
     </row>
     <row r="246">
@@ -8557,7 +8557,7 @@
         <v>9.800187324383391</v>
       </c>
       <c r="I246" t="n">
-        <v>17.16607127128203</v>
+        <v>17.11786150599362</v>
       </c>
     </row>
     <row r="247">
@@ -8590,7 +8590,7 @@
         <v>9.800187324383391</v>
       </c>
       <c r="I247" t="n">
-        <v>17.16607127128203</v>
+        <v>17.11786150599362</v>
       </c>
     </row>
     <row r="248">
@@ -8623,7 +8623,7 @@
         <v>9.868354430379746</v>
       </c>
       <c r="I248" t="n">
-        <v>17.22302166266361</v>
+        <v>17.17457076351711</v>
       </c>
     </row>
     <row r="249">
@@ -8656,7 +8656,7 @@
         <v>10.09293680297398</v>
       </c>
       <c r="I249" t="n">
-        <v>17.41064960769222</v>
+        <v>17.36140427238521</v>
       </c>
     </row>
     <row r="250">
@@ -8689,7 +8689,7 @@
         <v>10.09293680297398</v>
       </c>
       <c r="I250" t="n">
-        <v>17.41064960769222</v>
+        <v>17.36140427238521</v>
       </c>
     </row>
     <row r="251">
@@ -8722,7 +8722,7 @@
         <v>10.09293680297398</v>
       </c>
       <c r="I251" t="n">
-        <v>17.41064960769222</v>
+        <v>17.36140427238521</v>
       </c>
     </row>
     <row r="252">
@@ -8755,7 +8755,7 @@
         <v>10.09293680297398</v>
       </c>
       <c r="I252" t="n">
-        <v>17.41064960769222</v>
+        <v>17.36140427238521</v>
       </c>
     </row>
     <row r="253">
@@ -8788,7 +8788,7 @@
         <v>10.09293680297398</v>
       </c>
       <c r="I253" t="n">
-        <v>17.41064960769222</v>
+        <v>17.36140427238521</v>
       </c>
     </row>
     <row r="254">
@@ -8821,7 +8821,7 @@
         <v>10.86229460520576</v>
       </c>
       <c r="I254" t="n">
-        <v>18.05341164532235</v>
+        <v>18.00144478894754</v>
       </c>
     </row>
     <row r="255">
@@ -8854,7 +8854,7 @@
         <v>10.86229460520576</v>
       </c>
       <c r="I255" t="n">
-        <v>18.05341164532235</v>
+        <v>18.00144478894754</v>
       </c>
     </row>
     <row r="256">
@@ -8887,7 +8887,7 @@
         <v>10.58047198299966</v>
       </c>
       <c r="I256" t="n">
-        <v>17.81796218036081</v>
+        <v>17.766992241417</v>
       </c>
     </row>
     <row r="257">
@@ -8920,7 +8920,7 @@
         <v>9.195814648729447</v>
       </c>
       <c r="I257" t="n">
-        <v>16.66114649978505</v>
+        <v>16.61507463829747</v>
       </c>
     </row>
     <row r="258">
@@ -8953,7 +8953,7 @@
         <v>8.505354648455688</v>
       </c>
       <c r="I258" t="n">
-        <v>16.08429984223421</v>
+        <v>16.04067040926527</v>
       </c>
     </row>
     <row r="259">
@@ -8986,7 +8986,7 @@
         <v>9.20569031867514</v>
       </c>
       <c r="I259" t="n">
-        <v>16.66939715470639</v>
+        <v>16.62329035909097</v>
       </c>
     </row>
     <row r="260">
@@ -9019,7 +9019,7 @@
         <v>10.00848176420695</v>
       </c>
       <c r="I260" t="n">
-        <v>17.34009141922834</v>
+        <v>17.29114483460225</v>
       </c>
     </row>
     <row r="261">
@@ -9052,7 +9052,7 @@
         <v>9.217413837781811</v>
       </c>
       <c r="I261" t="n">
-        <v>16.67919160016121</v>
+        <v>16.63304333384887</v>
       </c>
     </row>
     <row r="262">
@@ -9085,7 +9085,7 @@
         <v>9.966389010667836</v>
       </c>
       <c r="I262" t="n">
-        <v>17.30492491548225</v>
+        <v>17.25612722947683</v>
       </c>
     </row>
     <row r="263">
@@ -9118,7 +9118,7 @@
         <v>9.966389010667836</v>
       </c>
       <c r="I263" t="n">
-        <v>17.30492491548225</v>
+        <v>17.25612722947683</v>
       </c>
     </row>
     <row r="264">
@@ -9151,7 +9151,7 @@
         <v>11.47771147771148</v>
       </c>
       <c r="I264" t="n">
-        <v>18.56756332067582</v>
+        <v>18.51341949283321</v>
       </c>
     </row>
     <row r="265">
@@ -9184,7 +9184,7 @@
         <v>11.47771147771148</v>
       </c>
       <c r="I265" t="n">
-        <v>18.56756332067582</v>
+        <v>18.51341949283321</v>
       </c>
     </row>
     <row r="266">
@@ -9217,7 +9217,7 @@
         <v>11.47771147771148</v>
       </c>
       <c r="I266" t="n">
-        <v>18.56756332067582</v>
+        <v>18.51341949283321</v>
       </c>
     </row>
     <row r="267">
@@ -9250,7 +9250,7 @@
         <v>10.77579637250419</v>
       </c>
       <c r="I267" t="n">
-        <v>17.98114646501043</v>
+        <v>17.9294855868969</v>
       </c>
     </row>
     <row r="268">
@@ -9283,7 +9283,7 @@
         <v>9.191621949108534</v>
       </c>
       <c r="I268" t="n">
-        <v>16.657643697651</v>
+        <v>16.6115866673906</v>
       </c>
     </row>
     <row r="269">
@@ -9316,7 +9316,7 @@
         <v>10.11441647597254</v>
       </c>
       <c r="I269" t="n">
-        <v>17.42859485806095</v>
+        <v>17.37927354070446</v>
       </c>
     </row>
     <row r="270">
@@ -9349,7 +9349,7 @@
         <v>9.443943492636008</v>
       </c>
       <c r="I270" t="n">
-        <v>16.86844640737231</v>
+        <v>16.82149681659641</v>
       </c>
     </row>
     <row r="271">
@@ -9382,7 +9382,7 @@
         <v>9.508742714404663</v>
       </c>
       <c r="I271" t="n">
-        <v>16.92258309085047</v>
+        <v>16.87540427974729</v>
       </c>
     </row>
     <row r="272">
@@ -9415,7 +9415,7 @@
         <v>9.508742714404663</v>
       </c>
       <c r="I272" t="n">
-        <v>16.92258309085047</v>
+        <v>16.87540427974729</v>
       </c>
     </row>
     <row r="273">
@@ -9448,7 +9448,7 @@
         <v>9.508742714404663</v>
       </c>
       <c r="I273" t="n">
-        <v>16.92258309085047</v>
+        <v>16.87540427974729</v>
       </c>
     </row>
     <row r="274">
@@ -9481,7 +9481,7 @@
         <v>9.508742714404663</v>
       </c>
       <c r="I274" t="n">
-        <v>16.92258309085047</v>
+        <v>16.87540427974729</v>
       </c>
     </row>
     <row r="275">
@@ -9514,7 +9514,7 @@
         <v>9.401846647932558</v>
       </c>
       <c r="I275" t="n">
-        <v>16.83327648565202</v>
+        <v>16.78647580796885</v>
       </c>
     </row>
     <row r="276">
@@ -9547,7 +9547,7 @@
         <v>9.401846647932558</v>
       </c>
       <c r="I276" t="n">
-        <v>16.83327648565202</v>
+        <v>16.78647580796885</v>
       </c>
     </row>
     <row r="277">
@@ -9580,7 +9580,7 @@
         <v>9.222198414398973</v>
       </c>
       <c r="I277" t="n">
-        <v>16.68318888751792</v>
+        <v>16.63702369627673</v>
       </c>
     </row>
     <row r="278">
@@ -9613,7 +9613,7 @@
         <v>9.284633671925654</v>
       </c>
       <c r="I278" t="n">
-        <v>16.73535059073507</v>
+        <v>16.68896454143767</v>
       </c>
     </row>
     <row r="279">
@@ -9646,7 +9646,7 @@
         <v>16.17348418914998</v>
       </c>
       <c r="I279" t="n">
-        <v>22.4906592163653</v>
+        <v>22.41990459400464</v>
       </c>
     </row>
     <row r="280">
@@ -9679,7 +9679,7 @@
         <v>16.70454545454545</v>
       </c>
       <c r="I280" t="n">
-        <v>22.93433577369901</v>
+        <v>22.86170257882259</v>
       </c>
     </row>
     <row r="281">
@@ -9712,7 +9712,7 @@
         <v>10.06539955037809</v>
       </c>
       <c r="I281" t="n">
-        <v>17.38764353621556</v>
+        <v>17.33849561099898</v>
       </c>
     </row>
     <row r="282">
@@ -9745,7 +9745,7 @@
         <v>10.06539955037809</v>
       </c>
       <c r="I282" t="n">
-        <v>17.38764353621556</v>
+        <v>17.33849561099898</v>
       </c>
     </row>
     <row r="283">
@@ -9778,7 +9778,7 @@
         <v>9.616279069767442</v>
       </c>
       <c r="I283" t="n">
-        <v>17.0124246271185</v>
+        <v>16.96486541764173</v>
       </c>
     </row>
     <row r="284">
@@ -9811,7 +9811,7 @@
         <v>9.163346613545817</v>
       </c>
       <c r="I284" t="n">
-        <v>16.63402099278176</v>
+        <v>16.58806398350147</v>
       </c>
     </row>
     <row r="285">
@@ -9844,7 +9844,7 @@
         <v>10.74262461851475</v>
       </c>
       <c r="I285" t="n">
-        <v>17.95343303424496</v>
+        <v>17.90188949766885</v>
       </c>
     </row>
     <row r="286">
@@ -9877,7 +9877,7 @@
         <v>10.36752136752137</v>
       </c>
       <c r="I286" t="n">
-        <v>17.64005201798595</v>
+        <v>17.58983536910399</v>
       </c>
     </row>
     <row r="287">
@@ -9910,7 +9910,7 @@
         <v>10.36752136752137</v>
       </c>
       <c r="I287" t="n">
-        <v>17.64005201798595</v>
+        <v>17.58983536910399</v>
       </c>
     </row>
     <row r="288">
@@ -9943,7 +9943,7 @@
         <v>10.36752136752137</v>
       </c>
       <c r="I288" t="n">
-        <v>17.64005201798595</v>
+        <v>17.58983536910399</v>
       </c>
     </row>
     <row r="289">
@@ -9976,7 +9976,7 @@
         <v>10.36752136752137</v>
       </c>
       <c r="I289" t="n">
-        <v>17.64005201798595</v>
+        <v>17.58983536910399</v>
       </c>
     </row>
     <row r="290">
@@ -10009,7 +10009,7 @@
         <v>10.36752136752137</v>
       </c>
       <c r="I290" t="n">
-        <v>17.64005201798595</v>
+        <v>17.58983536910399</v>
       </c>
     </row>
     <row r="291">
@@ -10042,7 +10042,7 @@
         <v>10.36752136752137</v>
       </c>
       <c r="I291" t="n">
-        <v>17.64005201798595</v>
+        <v>17.58983536910399</v>
       </c>
     </row>
     <row r="292">
@@ -10075,7 +10075,7 @@
         <v>10.36752136752137</v>
       </c>
       <c r="I292" t="n">
-        <v>17.64005201798595</v>
+        <v>17.58983536910399</v>
       </c>
     </row>
     <row r="293">
@@ -10108,7 +10108,7 @@
         <v>10.36752136752137</v>
       </c>
       <c r="I293" t="n">
-        <v>17.64005201798595</v>
+        <v>17.58983536910399</v>
       </c>
     </row>
     <row r="294">
@@ -10141,7 +10141,7 @@
         <v>10.36752136752137</v>
       </c>
       <c r="I294" t="n">
-        <v>17.64005201798595</v>
+        <v>17.58983536910399</v>
       </c>
     </row>
     <row r="295">
@@ -10174,7 +10174,7 @@
         <v>10.36752136752137</v>
       </c>
       <c r="I295" t="n">
-        <v>17.64005201798595</v>
+        <v>17.58983536910399</v>
       </c>
     </row>
     <row r="296">
@@ -10207,7 +10207,7 @@
         <v>10.36752136752137</v>
       </c>
       <c r="I296" t="n">
-        <v>17.64005201798595</v>
+        <v>17.58983536910399</v>
       </c>
     </row>
     <row r="297">
@@ -10240,7 +10240,7 @@
         <v>9.397212963334807</v>
       </c>
       <c r="I297" t="n">
-        <v>16.8294052614373</v>
+        <v>16.78262097491858</v>
       </c>
     </row>
     <row r="298">
@@ -10273,7 +10273,7 @@
         <v>11.03480937721999</v>
       </c>
       <c r="I298" t="n">
-        <v>18.19753957391357</v>
+        <v>18.14496246495515</v>
       </c>
     </row>
     <row r="299">
@@ -10306,7 +10306,7 @@
         <v>11.03480937721999</v>
       </c>
       <c r="I299" t="n">
-        <v>18.19753957391357</v>
+        <v>18.14496246495515</v>
       </c>
     </row>
     <row r="300">
@@ -10339,7 +10339,7 @@
         <v>10.07868115399026</v>
       </c>
       <c r="I300" t="n">
-        <v>17.39873968754591</v>
+        <v>17.34954478007486</v>
       </c>
     </row>
     <row r="301">
@@ -10372,7 +10372,7 @@
         <v>10.19579405366207</v>
       </c>
       <c r="I301" t="n">
-        <v>17.49658197342053</v>
+        <v>17.44697279157305</v>
       </c>
     </row>
     <row r="302">
@@ -10405,7 +10405,7 @@
         <v>9.674418604651162</v>
       </c>
       <c r="I302" t="n">
-        <v>17.06099745734173</v>
+        <v>17.01323258546888</v>
       </c>
     </row>
     <row r="303">
@@ -10438,7 +10438,7 @@
         <v>9.917572124391159</v>
       </c>
       <c r="I303" t="n">
-        <v>17.26414071702097</v>
+        <v>17.21551571553773</v>
       </c>
     </row>
     <row r="304">
@@ -10471,7 +10471,7 @@
         <v>9.917572124391159</v>
       </c>
       <c r="I304" t="n">
-        <v>17.26414071702097</v>
+        <v>17.21551571553773</v>
       </c>
     </row>
     <row r="305">
@@ -10504,7 +10504,7 @@
         <v>9.625315899351719</v>
       </c>
       <c r="I305" t="n">
-        <v>17.01997447061193</v>
+        <v>16.97238329431553</v>
       </c>
     </row>
     <row r="306">
@@ -10537,7 +10537,7 @@
         <v>10.36752136752137</v>
       </c>
       <c r="I306" t="n">
-        <v>17.64005201798595</v>
+        <v>17.58983536910399</v>
       </c>
     </row>
     <row r="307">
@@ -10570,7 +10570,7 @@
         <v>9.52991452991453</v>
       </c>
       <c r="I307" t="n">
-        <v>16.94027114085526</v>
+        <v>16.89301743671559</v>
       </c>
     </row>
     <row r="308">
@@ -10603,7 +10603,7 @@
         <v>9.496056261413528</v>
       </c>
       <c r="I308" t="n">
-        <v>16.91198415970136</v>
+        <v>16.86485022557089</v>
       </c>
     </row>
     <row r="309">
@@ -10636,7 +10636,7 @@
         <v>9.47120110084529</v>
       </c>
       <c r="I309" t="n">
-        <v>16.89121884919678</v>
+        <v>16.8441728375426</v>
       </c>
     </row>
     <row r="310">
@@ -10669,7 +10669,7 @@
         <v>9.975359342915811</v>
       </c>
       <c r="I310" t="n">
-        <v>17.31241920359788</v>
+        <v>17.26358978600005</v>
       </c>
     </row>
     <row r="311">
@@ -10702,7 +10702,7 @@
         <v>10.65074135090609</v>
       </c>
       <c r="I311" t="n">
-        <v>17.87666891208888</v>
+        <v>17.82545040275998</v>
       </c>
     </row>
     <row r="312">
@@ -10735,7 +10735,7 @@
         <v>10.65074135090609</v>
       </c>
       <c r="I312" t="n">
-        <v>17.87666891208888</v>
+        <v>17.82545040275998</v>
       </c>
     </row>
     <row r="313">
@@ -10768,7 +10768,7 @@
         <v>10.65074135090609</v>
       </c>
       <c r="I313" t="n">
-        <v>17.87666891208888</v>
+        <v>17.82545040275998</v>
       </c>
     </row>
     <row r="314">
@@ -10801,7 +10801,7 @@
         <v>10.65074135090609</v>
       </c>
       <c r="I314" t="n">
-        <v>17.87666891208888</v>
+        <v>17.82545040275998</v>
       </c>
     </row>
     <row r="315">
@@ -10834,7 +10834,7 @@
         <v>10.65074135090609</v>
       </c>
       <c r="I315" t="n">
-        <v>17.87666891208888</v>
+        <v>17.82545040275998</v>
       </c>
     </row>
     <row r="316">
@@ -10867,7 +10867,7 @@
         <v>10.65074135090609</v>
       </c>
       <c r="I316" t="n">
-        <v>17.87666891208888</v>
+        <v>17.82545040275998</v>
       </c>
     </row>
     <row r="317">
@@ -10900,7 +10900,7 @@
         <v>10.65074135090609</v>
       </c>
       <c r="I317" t="n">
-        <v>17.87666891208888</v>
+        <v>17.82545040275998</v>
       </c>
     </row>
     <row r="318">
@@ -10933,7 +10933,7 @@
         <v>10.65074135090609</v>
       </c>
       <c r="I318" t="n">
-        <v>17.87666891208888</v>
+        <v>17.82545040275998</v>
       </c>
     </row>
     <row r="319">
@@ -10966,7 +10966,7 @@
         <v>10.65074135090609</v>
       </c>
       <c r="I319" t="n">
-        <v>17.87666891208888</v>
+        <v>17.82545040275998</v>
       </c>
     </row>
     <row r="320">
@@ -10999,7 +10999,7 @@
         <v>10.65074135090609</v>
       </c>
       <c r="I320" t="n">
-        <v>17.87666891208888</v>
+        <v>17.82545040275998</v>
       </c>
     </row>
     <row r="321">
@@ -11032,7 +11032,7 @@
         <v>10.65074135090609</v>
       </c>
       <c r="I321" t="n">
-        <v>17.87666891208888</v>
+        <v>17.82545040275998</v>
       </c>
     </row>
     <row r="322">
@@ -11065,7 +11065,7 @@
         <v>10.65074135090609</v>
       </c>
       <c r="I322" t="n">
-        <v>17.87666891208888</v>
+        <v>17.82545040275998</v>
       </c>
     </row>
     <row r="323">
@@ -11098,7 +11098,7 @@
         <v>10.65074135090609</v>
       </c>
       <c r="I323" t="n">
-        <v>17.87666891208888</v>
+        <v>17.82545040275998</v>
       </c>
     </row>
     <row r="324">
@@ -11131,7 +11131,7 @@
         <v>9.594996567767522</v>
       </c>
       <c r="I324" t="n">
-        <v>16.99464410378897</v>
+        <v>16.94716017889033</v>
       </c>
     </row>
     <row r="325">
@@ -11164,7 +11164,7 @@
         <v>9.525682372374735</v>
       </c>
       <c r="I325" t="n">
-        <v>16.93673537349713</v>
+        <v>16.88949664016282</v>
       </c>
     </row>
     <row r="326">
@@ -11197,7 +11197,7 @@
         <v>9.545115585384041</v>
       </c>
       <c r="I326" t="n">
-        <v>16.95297090338365</v>
+        <v>16.90566342713354</v>
       </c>
     </row>
     <row r="327">
@@ -11230,7 +11230,7 @@
         <v>9.525682372374735</v>
       </c>
       <c r="I327" t="n">
-        <v>16.93673537349713</v>
+        <v>16.88949664016282</v>
       </c>
     </row>
     <row r="328">
@@ -11263,7 +11263,7 @@
         <v>9.298765904525016</v>
       </c>
       <c r="I328" t="n">
-        <v>16.74715740233232</v>
+        <v>16.70072136177124</v>
       </c>
     </row>
     <row r="329">
@@ -11296,7 +11296,7 @@
         <v>10.36258158085569</v>
       </c>
       <c r="I329" t="n">
-        <v>17.63592505997828</v>
+        <v>17.58572588506414</v>
       </c>
     </row>
     <row r="330">
@@ -11329,7 +11329,7 @@
         <v>11.86688311688312</v>
       </c>
       <c r="I330" t="n">
-        <v>18.89269780953938</v>
+        <v>18.83717732858177</v>
       </c>
     </row>
     <row r="331">
@@ -11362,7 +11362,7 @@
         <v>9.650632153811628</v>
       </c>
       <c r="I331" t="n">
-        <v>17.04112500324397</v>
+        <v>16.99344427340087</v>
       </c>
     </row>
     <row r="332">
@@ -11395,7 +11395,7 @@
         <v>9.655688622754491</v>
       </c>
       <c r="I332" t="n">
-        <v>17.04534944377281</v>
+        <v>16.99765082721079</v>
       </c>
     </row>
     <row r="333">
@@ -11428,7 +11428,7 @@
         <v>10.08430349257326</v>
       </c>
       <c r="I333" t="n">
-        <v>17.40343688538205</v>
+        <v>17.35422208948866</v>
       </c>
     </row>
     <row r="334">
@@ -11461,7 +11461,7 @@
         <v>17.08732230925442</v>
       </c>
       <c r="I334" t="n">
-        <v>23.25412772274623</v>
+        <v>23.18014049562197</v>
       </c>
     </row>
     <row r="335">
@@ -11494,7 +11494,7 @@
         <v>9.484140815615197</v>
       </c>
       <c r="I335" t="n">
-        <v>16.90202936857766</v>
+        <v>16.85493758406428</v>
       </c>
     </row>
     <row r="336">
@@ -11527,7 +11527,7 @@
         <v>11.02265768524189</v>
       </c>
       <c r="I336" t="n">
-        <v>18.18738741028588</v>
+        <v>18.13485328664018</v>
       </c>
     </row>
     <row r="337">
@@ -11560,7 +11560,7 @@
         <v>9.71426431487099</v>
       </c>
       <c r="I337" t="n">
-        <v>17.094286662725</v>
+        <v>17.04638084090726</v>
       </c>
     </row>
     <row r="338">
@@ -11593,7 +11593,7 @@
         <v>9.71426431487099</v>
       </c>
       <c r="I338" t="n">
-        <v>17.094286662725</v>
+        <v>17.04638084090726</v>
       </c>
     </row>
     <row r="339">
@@ -11626,7 +11626,7 @@
         <v>9.71426431487099</v>
       </c>
       <c r="I339" t="n">
-        <v>17.094286662725</v>
+        <v>17.04638084090726</v>
       </c>
     </row>
     <row r="340">
@@ -11659,7 +11659,7 @@
         <v>7.218562874251497</v>
       </c>
       <c r="I340" t="n">
-        <v>15.00924620607963</v>
+        <v>14.97016866159898</v>
       </c>
     </row>
     <row r="341">
@@ -11692,7 +11692,7 @@
         <v>7.218562874251497</v>
       </c>
       <c r="I341" t="n">
-        <v>15.00924620607963</v>
+        <v>14.97016866159898</v>
       </c>
     </row>
     <row r="342">
@@ -11725,7 +11725,7 @@
         <v>11.03250478011472</v>
       </c>
       <c r="I342" t="n">
-        <v>18.19561419208603</v>
+        <v>18.14304523539376</v>
       </c>
     </row>
     <row r="343">
@@ -11758,7 +11758,7 @@
         <v>9.755823533817692</v>
       </c>
       <c r="I343" t="n">
-        <v>17.12900742356607</v>
+        <v>17.0809545904493</v>
       </c>
     </row>
     <row r="344">
@@ -11791,7 +11791,7 @@
         <v>10.11673151750973</v>
       </c>
       <c r="I344" t="n">
-        <v>17.43052896571713</v>
+        <v>17.38119945914842</v>
       </c>
     </row>
     <row r="345">
@@ -11824,7 +11824,7 @@
         <v>9.451438848920862</v>
       </c>
       <c r="I345" t="n">
-        <v>16.87470842286685</v>
+        <v>16.8277323180685</v>
       </c>
     </row>
     <row r="346">
@@ -11857,7 +11857,7 @@
         <v>8.454598370197905</v>
       </c>
       <c r="I346" t="n">
-        <v>16.04189537354506</v>
+        <v>15.99844548549033</v>
       </c>
     </row>
     <row r="347">
@@ -11890,7 +11890,7 @@
         <v>9.73847977478145</v>
       </c>
       <c r="I347" t="n">
-        <v>17.11451753360075</v>
+        <v>17.06652605217948</v>
       </c>
     </row>
     <row r="348">
@@ -11923,7 +11923,7 @@
         <v>9.880059970014992</v>
       </c>
       <c r="I348" t="n">
-        <v>17.23280108712084</v>
+        <v>17.18430878087789</v>
       </c>
     </row>
     <row r="349">
@@ -11956,7 +11956,7 @@
         <v>9.880059970014992</v>
       </c>
       <c r="I349" t="n">
-        <v>17.23280108712084</v>
+        <v>17.18430878087789</v>
       </c>
     </row>
     <row r="350">
@@ -11989,7 +11989,7 @@
         <v>11.33246244284781</v>
       </c>
       <c r="I350" t="n">
-        <v>18.44621462525484</v>
+        <v>18.39258460036231</v>
       </c>
     </row>
     <row r="351">
@@ -12022,7 +12022,7 @@
         <v>7.35605170387779</v>
       </c>
       <c r="I351" t="n">
-        <v>15.12411161723894</v>
+        <v>15.08454772070554</v>
       </c>
     </row>
     <row r="352">
@@ -12055,7 +12055,7 @@
         <v>17.63110307414105</v>
       </c>
       <c r="I352" t="n">
-        <v>23.70843082001605</v>
+        <v>23.63252002650486</v>
       </c>
     </row>
     <row r="353">
@@ -12088,7 +12088,7 @@
         <v>9.909443725743856</v>
       </c>
       <c r="I353" t="n">
-        <v>17.25734982458827</v>
+        <v>17.20875357644724</v>
       </c>
     </row>
     <row r="354">
@@ -12121,7 +12121,7 @@
         <v>9.852126371408653</v>
       </c>
       <c r="I354" t="n">
-        <v>17.20946388730761</v>
+        <v>17.16107039318678</v>
       </c>
     </row>
     <row r="355">
@@ -12154,7 +12154,7 @@
         <v>9.852126371408653</v>
       </c>
       <c r="I355" t="n">
-        <v>17.20946388730761</v>
+        <v>17.16107039318678</v>
       </c>
     </row>
     <row r="356">
@@ -12187,7 +12187,7 @@
         <v>10.8843537414966</v>
       </c>
       <c r="I356" t="n">
-        <v>18.07184100985148</v>
+        <v>18.01979612163769</v>
       </c>
     </row>
     <row r="357">
@@ -12220,7 +12220,7 @@
         <v>10.8843537414966</v>
       </c>
       <c r="I357" t="n">
-        <v>18.07184100985148</v>
+        <v>18.01979612163769</v>
       </c>
     </row>
     <row r="358">
@@ -12253,7 +12253,7 @@
         <v>7.218562874251497</v>
       </c>
       <c r="I358" t="n">
-        <v>15.00924620607963</v>
+        <v>14.97016866159898</v>
       </c>
     </row>
     <row r="359">
@@ -12286,7 +12286,7 @@
         <v>9.594502884289108</v>
       </c>
       <c r="I359" t="n">
-        <v>16.99423165460394</v>
+        <v>16.94674947605788</v>
       </c>
     </row>
     <row r="360">
@@ -12319,7 +12319,7 @@
         <v>9.597556210705786</v>
       </c>
       <c r="I360" t="n">
-        <v>16.99678256434117</v>
+        <v>16.94928958497898</v>
       </c>
     </row>
     <row r="361">
@@ -12352,7 +12352,7 @@
         <v>11.33246244284781</v>
       </c>
       <c r="I361" t="n">
-        <v>18.44621462525484</v>
+        <v>18.39258460036231</v>
       </c>
     </row>
     <row r="362">
@@ -12385,7 +12385,7 @@
         <v>9.639771460423633</v>
       </c>
       <c r="I362" t="n">
-        <v>17.03205140784805</v>
+        <v>16.98440909654803</v>
       </c>
     </row>
     <row r="363">
@@ -12418,7 +12418,7 @@
         <v>9.625292740046838</v>
       </c>
       <c r="I363" t="n">
-        <v>17.01995512210861</v>
+        <v>16.97236402773578</v>
       </c>
     </row>
     <row r="364">
@@ -12451,7 +12451,7 @@
         <v>17.49332583953913</v>
       </c>
       <c r="I364" t="n">
-        <v>23.59332446014698</v>
+        <v>23.51790103889033</v>
       </c>
     </row>
     <row r="365">
@@ -12484,7 +12484,7 @@
         <v>7.322635135135135</v>
       </c>
       <c r="I365" t="n">
-        <v>15.09619365533184</v>
+        <v>15.0567479663419</v>
       </c>
     </row>
     <row r="366">
@@ -12517,7 +12517,7 @@
         <v>7.322635135135135</v>
       </c>
       <c r="I366" t="n">
-        <v>15.09619365533184</v>
+        <v>15.0567479663419</v>
       </c>
     </row>
     <row r="367">
@@ -12550,7 +12550,7 @@
         <v>7.322635135135135</v>
       </c>
       <c r="I367" t="n">
-        <v>15.09619365533184</v>
+        <v>15.0567479663419</v>
       </c>
     </row>
     <row r="368">
@@ -12583,7 +12583,7 @@
         <v>7.322635135135135</v>
       </c>
       <c r="I368" t="n">
-        <v>15.09619365533184</v>
+        <v>15.0567479663419</v>
       </c>
     </row>
     <row r="369">
@@ -12616,7 +12616,7 @@
         <v>10.04350978970268</v>
       </c>
       <c r="I369" t="n">
-        <v>17.36935567699824</v>
+        <v>17.3202851844725</v>
       </c>
     </row>
     <row r="370">
@@ -12649,7 +12649,7 @@
         <v>10.04350978970268</v>
       </c>
       <c r="I370" t="n">
-        <v>17.36935567699824</v>
+        <v>17.3202851844725</v>
       </c>
     </row>
     <row r="371">
@@ -12682,7 +12682,7 @@
         <v>9.67338531705164</v>
       </c>
       <c r="I371" t="n">
-        <v>17.06013419444767</v>
+        <v>17.01237297771936</v>
       </c>
     </row>
     <row r="372">
@@ -12715,7 +12715,7 @@
         <v>9.674157303370787</v>
       </c>
       <c r="I372" t="n">
-        <v>17.0607791524868</v>
+        <v>17.01301520493932</v>
       </c>
     </row>
     <row r="373">
@@ -12748,7 +12748,7 @@
         <v>10.43461970775572</v>
       </c>
       <c r="I373" t="n">
-        <v>17.69610950614754</v>
+        <v>17.64565550405224</v>
       </c>
     </row>
     <row r="374">
@@ -12781,7 +12781,7 @@
         <v>10.8824874256973</v>
       </c>
       <c r="I374" t="n">
-        <v>18.07028179131553</v>
+        <v>18.01824350499458</v>
       </c>
     </row>
     <row r="375">
@@ -12814,7 +12814,7 @@
         <v>10.8824874256973</v>
       </c>
       <c r="I375" t="n">
-        <v>18.07028179131553</v>
+        <v>18.01824350499458</v>
       </c>
     </row>
     <row r="376">
@@ -12847,7 +12847,7 @@
         <v>7.441946185035016</v>
       </c>
       <c r="I376" t="n">
-        <v>15.19587239170518</v>
+        <v>15.15600465261713</v>
       </c>
     </row>
     <row r="377">
@@ -12880,7 +12880,7 @@
         <v>7.322635135135135</v>
       </c>
       <c r="I377" t="n">
-        <v>15.09619365533184</v>
+        <v>15.0567479663419</v>
       </c>
     </row>
     <row r="378">
@@ -12913,7 +12913,7 @@
         <v>7.322635135135135</v>
       </c>
       <c r="I378" t="n">
-        <v>15.09619365533184</v>
+        <v>15.0567479663419</v>
       </c>
     </row>
     <row r="379">
@@ -12946,7 +12946,7 @@
         <v>9.523381294964029</v>
       </c>
       <c r="I379" t="n">
-        <v>16.93481293220784</v>
+        <v>16.88758233868914</v>
       </c>
     </row>
     <row r="380">
@@ -12979,7 +12979,7 @@
         <v>11.04080987029421</v>
       </c>
       <c r="I380" t="n">
-        <v>18.20255270193279</v>
+        <v>18.14995436687089</v>
       </c>
     </row>
     <row r="381">
@@ -13012,7 +13012,7 @@
         <v>11.04080987029421</v>
       </c>
       <c r="I381" t="n">
-        <v>18.20255270193279</v>
+        <v>18.14995436687089</v>
       </c>
     </row>
     <row r="382">
@@ -13045,7 +13045,7 @@
         <v>12.02726830060055</v>
       </c>
       <c r="I382" t="n">
-        <v>19.0266920410827</v>
+        <v>18.97060421466478</v>
       </c>
     </row>
     <row r="383">
@@ -13078,7 +13078,7 @@
         <v>10.27406886858749</v>
       </c>
       <c r="I383" t="n">
-        <v>17.56197687731393</v>
+        <v>17.51209080666741</v>
       </c>
     </row>
     <row r="384">
@@ -13111,7 +13111,7 @@
         <v>10.27406886858749</v>
       </c>
       <c r="I384" t="n">
-        <v>17.56197687731393</v>
+        <v>17.51209080666741</v>
       </c>
     </row>
     <row r="385">
@@ -13144,7 +13144,7 @@
         <v>10.86724584666971</v>
       </c>
       <c r="I385" t="n">
-        <v>18.05754817327194</v>
+        <v>18.00556380240919</v>
       </c>
     </row>
     <row r="386">
@@ -13177,7 +13177,7 @@
         <v>11.42898425083081</v>
       </c>
       <c r="I386" t="n">
-        <v>18.52685402839721</v>
+        <v>18.47288256791624</v>
       </c>
     </row>
     <row r="387">
@@ -13210,7 +13210,7 @@
         <v>11.42898425083081</v>
       </c>
       <c r="I387" t="n">
-        <v>18.52685402839721</v>
+        <v>18.47288256791624</v>
       </c>
     </row>
     <row r="388">
@@ -13243,7 +13243,7 @@
         <v>7.437994722955145</v>
       </c>
       <c r="I388" t="n">
-        <v>15.19257113212127</v>
+        <v>15.15271737090836</v>
       </c>
     </row>
     <row r="389">
@@ -13276,7 +13276,7 @@
         <v>7.437994722955145</v>
       </c>
       <c r="I389" t="n">
-        <v>15.19257113212127</v>
+        <v>15.15271737090836</v>
       </c>
     </row>
     <row r="390">
@@ -13309,7 +13309,7 @@
         <v>7.414806110458285</v>
       </c>
       <c r="I390" t="n">
-        <v>15.173198143669</v>
+        <v>15.13342640969655</v>
       </c>
     </row>
     <row r="391">
@@ -13342,7 +13342,7 @@
         <v>11.3030303030303</v>
       </c>
       <c r="I391" t="n">
-        <v>18.42162546517089</v>
+        <v>18.36809955332999</v>
       </c>
     </row>
     <row r="392">
@@ -13375,7 +13375,7 @@
         <v>11.3030303030303</v>
       </c>
       <c r="I392" t="n">
-        <v>18.42162546517089</v>
+        <v>18.36809955332999</v>
       </c>
     </row>
     <row r="393">
@@ -13408,7 +13408,7 @@
         <v>10.56218057921635</v>
       </c>
       <c r="I393" t="n">
-        <v>17.80268057805202</v>
+        <v>17.7517753429958</v>
       </c>
     </row>
     <row r="394">
@@ -13441,7 +13441,7 @@
         <v>11.32075471698113</v>
       </c>
       <c r="I394" t="n">
-        <v>18.4364333743047</v>
+        <v>18.38284476424219</v>
       </c>
     </row>
     <row r="395">
@@ -13474,7 +13474,7 @@
         <v>11.32075471698113</v>
       </c>
       <c r="I395" t="n">
-        <v>18.4364333743047</v>
+        <v>18.38284476424219</v>
       </c>
     </row>
     <row r="396">
@@ -13507,7 +13507,7 @@
         <v>9.626352015732545</v>
       </c>
       <c r="I396" t="n">
-        <v>17.02084009681892</v>
+        <v>16.97324525537147</v>
       </c>
     </row>
     <row r="397">
@@ -13540,7 +13540,7 @@
         <v>9.626352015732545</v>
       </c>
       <c r="I397" t="n">
-        <v>17.02084009681892</v>
+        <v>16.97324525537147</v>
       </c>
     </row>
     <row r="398">
@@ -13573,7 +13573,7 @@
         <v>11.3429327064355</v>
       </c>
       <c r="I398" t="n">
-        <v>18.4549620350278</v>
+        <v>18.40129497269592</v>
       </c>
     </row>
     <row r="399">
@@ -13606,7 +13606,7 @@
         <v>11.3429327064355</v>
       </c>
       <c r="I399" t="n">
-        <v>18.4549620350278</v>
+        <v>18.40129497269592</v>
       </c>
     </row>
     <row r="400">
@@ -13639,7 +13639,7 @@
         <v>18.30276414363214</v>
       </c>
       <c r="I400" t="n">
-        <v>24.26957186046639</v>
+        <v>24.19128513764671</v>
       </c>
     </row>
     <row r="401">
@@ -13672,7 +13672,7 @@
         <v>7.437994722955145</v>
       </c>
       <c r="I401" t="n">
-        <v>15.19257113212127</v>
+        <v>15.15271737090836</v>
       </c>
     </row>
     <row r="402">
@@ -13705,7 +13705,7 @@
         <v>11.32075471698113</v>
       </c>
       <c r="I402" t="n">
-        <v>18.4364333743047</v>
+        <v>18.38284476424219</v>
       </c>
     </row>
     <row r="403">
@@ -13738,7 +13738,7 @@
         <v>9.763313609467454</v>
       </c>
       <c r="I403" t="n">
-        <v>17.13526502733987</v>
+        <v>17.08718569888033</v>
       </c>
     </row>
     <row r="404">
@@ -13771,7 +13771,7 @@
         <v>8.030684680558736</v>
       </c>
       <c r="I404" t="n">
-        <v>15.68773554551527</v>
+        <v>15.64578520686907</v>
       </c>
     </row>
     <row r="405">
@@ -13804,7 +13804,7 @@
         <v>10.35573122529644</v>
       </c>
       <c r="I405" t="n">
-        <v>17.63020191206845</v>
+        <v>17.58002696955557</v>
       </c>
     </row>
     <row r="406">
@@ -13837,7 +13837,7 @@
         <v>7.493549576115002</v>
       </c>
       <c r="I406" t="n">
-        <v>15.23898458307177</v>
+        <v>15.19893430249836</v>
       </c>
     </row>
     <row r="407">
@@ -13870,7 +13870,7 @@
         <v>11.17351463198345</v>
       </c>
       <c r="I407" t="n">
-        <v>18.31342125071355</v>
+        <v>18.26035348672836</v>
       </c>
     </row>
     <row r="408">
@@ -13903,7 +13903,7 @@
         <v>11.17351463198345</v>
       </c>
       <c r="I408" t="n">
-        <v>18.31342125071355</v>
+        <v>18.26035348672836</v>
       </c>
     </row>
     <row r="409">
@@ -13936,7 +13936,7 @@
         <v>9.694926140012846</v>
       </c>
       <c r="I409" t="n">
-        <v>17.07813053271656</v>
+        <v>17.03029311762731</v>
       </c>
     </row>
     <row r="410">
@@ -13969,7 +13969,7 @@
         <v>11.57286363010871</v>
       </c>
       <c r="I410" t="n">
-        <v>18.64705844138861</v>
+        <v>18.59257802296793</v>
       </c>
     </row>
     <row r="411">
@@ -14002,7 +14002,7 @@
         <v>11.57286363010871</v>
       </c>
       <c r="I411" t="n">
-        <v>18.64705844138861</v>
+        <v>18.59257802296793</v>
       </c>
     </row>
     <row r="412">
@@ -14035,7 +14035,7 @@
         <v>7.600671140939597</v>
       </c>
       <c r="I412" t="n">
-        <v>15.32847958147311</v>
+        <v>15.28805036980334</v>
       </c>
     </row>
     <row r="413">
@@ -14068,7 +14068,7 @@
         <v>11.8522233366767</v>
       </c>
       <c r="I413" t="n">
-        <v>18.88045025688007</v>
+        <v>18.82498163332946</v>
       </c>
     </row>
     <row r="414">
@@ -14101,7 +14101,7 @@
         <v>11.8522233366767</v>
       </c>
       <c r="I414" t="n">
-        <v>18.88045025688007</v>
+        <v>18.82498163332946</v>
       </c>
     </row>
     <row r="415">
@@ -14134,7 +14134,7 @@
         <v>11.8522233366767</v>
       </c>
       <c r="I415" t="n">
-        <v>18.88045025688007</v>
+        <v>18.82498163332946</v>
       </c>
     </row>
     <row r="416">
@@ -14167,7 +14167,7 @@
         <v>7.936241610738255</v>
       </c>
       <c r="I416" t="n">
-        <v>15.60883282974147</v>
+        <v>15.56721657336943</v>
       </c>
     </row>
     <row r="417">
@@ -14200,7 +14200,7 @@
         <v>9.412019022913965</v>
       </c>
       <c r="I417" t="n">
-        <v>16.84177502359057</v>
+        <v>16.79493836221718</v>
       </c>
     </row>
     <row r="418">
@@ -14233,7 +14233,7 @@
         <v>10.32526475037822</v>
       </c>
       <c r="I418" t="n">
-        <v>17.60474861395274</v>
+        <v>17.55468144334146</v>
       </c>
     </row>
     <row r="419">
@@ -14266,7 +14266,7 @@
         <v>7.670877874959507</v>
       </c>
       <c r="I419" t="n">
-        <v>15.38713398555283</v>
+        <v>15.34645642505865</v>
       </c>
     </row>
     <row r="420">
@@ -14299,7 +14299,7 @@
         <v>9.746611667648793</v>
       </c>
       <c r="I420" t="n">
-        <v>17.12131134528894</v>
+        <v>17.07329109816503</v>
       </c>
     </row>
     <row r="421">
@@ -14332,7 +14332,7 @@
         <v>7.879604672057502</v>
       </c>
       <c r="I421" t="n">
-        <v>15.56151534754271</v>
+        <v>15.52009943829316</v>
       </c>
     </row>
     <row r="422">
@@ -14365,7 +14365,7 @@
         <v>7.879604672057502</v>
       </c>
       <c r="I422" t="n">
-        <v>15.56151534754271</v>
+        <v>15.52009943829316</v>
       </c>
     </row>
     <row r="423">
@@ -14398,7 +14398,7 @@
         <v>9.615478814597111</v>
       </c>
       <c r="I423" t="n">
-        <v>17.01175605179188</v>
+        <v>16.96419967313233</v>
       </c>
     </row>
     <row r="424">
@@ -14431,7 +14431,7 @@
         <v>9.702852614896988</v>
       </c>
       <c r="I424" t="n">
-        <v>17.0847527274002</v>
+        <v>17.03688727325249</v>
       </c>
     </row>
     <row r="425">
@@ -14464,7 +14464,7 @@
         <v>9.702852614896988</v>
       </c>
       <c r="I425" t="n">
-        <v>17.0847527274002</v>
+        <v>17.03688727325249</v>
       </c>
     </row>
     <row r="426">
@@ -14497,7 +14497,7 @@
         <v>9.702852614896988</v>
       </c>
       <c r="I426" t="n">
-        <v>17.0847527274002</v>
+        <v>17.03688727325249</v>
       </c>
     </row>
     <row r="427">
@@ -14530,7 +14530,7 @@
         <v>8.035284683239775</v>
       </c>
       <c r="I427" t="n">
-        <v>15.69157863008242</v>
+        <v>15.64961201941795</v>
       </c>
     </row>
     <row r="428">
@@ -14563,7 +14563,7 @@
         <v>7.644295302013423</v>
       </c>
       <c r="I428" t="n">
-        <v>15.36492550374799</v>
+        <v>15.32434197626693</v>
       </c>
     </row>
     <row r="429">
@@ -14596,7 +14596,7 @@
         <v>7.95138888888889</v>
       </c>
       <c r="I429" t="n">
-        <v>15.62148766386469</v>
+        <v>15.57981782561374</v>
       </c>
     </row>
     <row r="430">
@@ -14629,7 +14629,7 @@
         <v>7.95138888888889</v>
       </c>
       <c r="I430" t="n">
-        <v>15.62148766386469</v>
+        <v>15.57981782561374</v>
       </c>
     </row>
     <row r="431">
@@ -14662,7 +14662,7 @@
         <v>7.75497512437811</v>
       </c>
       <c r="I431" t="n">
-        <v>15.45739325794675</v>
+        <v>15.41641821241327</v>
       </c>
     </row>
     <row r="432">
@@ -14695,7 +14695,7 @@
         <v>8.053691275167784</v>
       </c>
       <c r="I432" t="n">
-        <v>15.70695646663539</v>
+        <v>15.66492474461757</v>
       </c>
     </row>
     <row r="433">
@@ -14728,7 +14728,7 @@
         <v>8.053691275167784</v>
       </c>
       <c r="I433" t="n">
-        <v>15.70695646663539</v>
+        <v>15.66492474461757</v>
       </c>
     </row>
     <row r="434">
@@ -14761,7 +14761,7 @@
         <v>7.363885624755189</v>
       </c>
       <c r="I434" t="n">
-        <v>15.13065648742961</v>
+        <v>15.09106487923767</v>
       </c>
     </row>
     <row r="435">
@@ -14794,7 +14794,7 @@
         <v>7.363885624755189</v>
       </c>
       <c r="I435" t="n">
-        <v>15.13065648742961</v>
+        <v>15.09106487923767</v>
       </c>
     </row>
     <row r="436">
@@ -14827,7 +14827,7 @@
         <v>7.363885624755189</v>
       </c>
       <c r="I436" t="n">
-        <v>15.13065648742961</v>
+        <v>15.09106487923767</v>
       </c>
     </row>
     <row r="437">
@@ -14860,7 +14860,7 @@
         <v>7.45669001105787</v>
       </c>
       <c r="I437" t="n">
-        <v>15.20819016066707</v>
+        <v>15.16827026686891</v>
       </c>
     </row>
     <row r="438">
@@ -14893,7 +14893,7 @@
         <v>7.45669001105787</v>
       </c>
       <c r="I438" t="n">
-        <v>15.20819016066707</v>
+        <v>15.16827026686891</v>
       </c>
     </row>
     <row r="439">
@@ -14926,7 +14926,7 @@
         <v>7.45669001105787</v>
       </c>
       <c r="I439" t="n">
-        <v>15.20819016066707</v>
+        <v>15.16827026686891</v>
       </c>
     </row>
     <row r="440">
@@ -14959,7 +14959,7 @@
         <v>7.709750566893424</v>
       </c>
       <c r="I440" t="n">
-        <v>15.41961028020161</v>
+        <v>15.37879521171082</v>
       </c>
     </row>
     <row r="441">
@@ -14992,7 +14992,7 @@
         <v>8.136503067484663</v>
       </c>
       <c r="I441" t="n">
-        <v>15.77614180044885</v>
+        <v>15.73381714055895</v>
       </c>
     </row>
     <row r="442">
@@ -15025,7 +15025,7 @@
         <v>8.136503067484663</v>
       </c>
       <c r="I442" t="n">
-        <v>15.77614180044885</v>
+        <v>15.73381714055895</v>
       </c>
     </row>
     <row r="443">
@@ -15058,7 +15058,7 @@
         <v>7.830957794908769</v>
       </c>
       <c r="I443" t="n">
-        <v>15.52087318366297</v>
+        <v>15.47962935754647</v>
       </c>
     </row>
     <row r="444">
@@ -15091,7 +15091,7 @@
         <v>8.175450300200133</v>
       </c>
       <c r="I444" t="n">
-        <v>15.80868037039334</v>
+        <v>15.76621793882677</v>
       </c>
     </row>
     <row r="445">
@@ -15124,7 +15124,7 @@
         <v>8.175450300200133</v>
       </c>
       <c r="I445" t="n">
-        <v>15.80868037039334</v>
+        <v>15.76621793882677</v>
       </c>
     </row>
     <row r="446">
@@ -15157,7 +15157,7 @@
         <v>7.62751677852349</v>
       </c>
       <c r="I446" t="n">
-        <v>15.35090784133457</v>
+        <v>15.31038366608863</v>
       </c>
     </row>
     <row r="447">
@@ -15190,7 +15190,7 @@
         <v>7.62751677852349</v>
       </c>
       <c r="I447" t="n">
-        <v>15.35090784133457</v>
+        <v>15.31038366608863</v>
       </c>
     </row>
     <row r="448">
@@ -15223,7 +15223,7 @@
         <v>7.62751677852349</v>
       </c>
       <c r="I448" t="n">
-        <v>15.35090784133457</v>
+        <v>15.31038366608863</v>
       </c>
     </row>
     <row r="449">
@@ -15256,7 +15256,7 @@
         <v>7.792636618788178</v>
       </c>
       <c r="I449" t="n">
-        <v>15.48885765437841</v>
+        <v>15.44774938533022</v>
       </c>
     </row>
     <row r="450">
@@ -15289,7 +15289,7 @@
         <v>6.585049156000742</v>
       </c>
       <c r="I450" t="n">
-        <v>14.47997547245181</v>
+        <v>14.44313891509829</v>
       </c>
     </row>
     <row r="451">
@@ -15322,7 +15322,7 @@
         <v>6.585049156000742</v>
       </c>
       <c r="I451" t="n">
-        <v>14.47997547245181</v>
+        <v>14.44313891509829</v>
       </c>
     </row>
     <row r="452">
@@ -15355,7 +15355,7 @@
         <v>6.585049156000742</v>
       </c>
       <c r="I452" t="n">
-        <v>14.47997547245181</v>
+        <v>14.44313891509829</v>
       </c>
     </row>
     <row r="453">
@@ -15388,7 +15388,7 @@
         <v>6.585049156000742</v>
       </c>
       <c r="I453" t="n">
-        <v>14.47997547245181</v>
+        <v>14.44313891509829</v>
       </c>
     </row>
     <row r="454">
@@ -15421,7 +15421,7 @@
         <v>6.585049156000742</v>
       </c>
       <c r="I454" t="n">
-        <v>14.47997547245181</v>
+        <v>14.44313891509829</v>
       </c>
     </row>
     <row r="455">
@@ -15454,7 +15454,7 @@
         <v>6.585049156000742</v>
       </c>
       <c r="I455" t="n">
-        <v>14.47997547245181</v>
+        <v>14.44313891509829</v>
       </c>
     </row>
     <row r="456">
@@ -15487,7 +15487,7 @@
         <v>7.78917910447761</v>
       </c>
       <c r="I456" t="n">
-        <v>15.48596906478206</v>
+        <v>15.44487302632153</v>
       </c>
     </row>
     <row r="457">
@@ -15520,7 +15520,7 @@
         <v>7.78917910447761</v>
       </c>
       <c r="I457" t="n">
-        <v>15.48596906478206</v>
+        <v>15.44487302632153</v>
       </c>
     </row>
     <row r="458">
@@ -15553,7 +15553,7 @@
         <v>7.78917910447761</v>
       </c>
       <c r="I458" t="n">
-        <v>15.48596906478206</v>
+        <v>15.44487302632153</v>
       </c>
     </row>
     <row r="459">
@@ -15586,7 +15586,7 @@
         <v>7.712146422628951</v>
       </c>
       <c r="I459" t="n">
-        <v>15.42161190429636</v>
+        <v>15.38078836072176</v>
       </c>
     </row>
     <row r="460">
@@ -15619,7 +15619,7 @@
         <v>7.712146422628951</v>
       </c>
       <c r="I460" t="n">
-        <v>15.42161190429636</v>
+        <v>15.38078836072176</v>
       </c>
     </row>
     <row r="461">
@@ -15652,7 +15652,7 @@
         <v>7.721518987341772</v>
       </c>
       <c r="I461" t="n">
-        <v>15.42944223860266</v>
+        <v>15.38858554058126</v>
       </c>
     </row>
     <row r="462">
@@ -15685,7 +15685,7 @@
         <v>6.584781353135303</v>
       </c>
       <c r="I462" t="n">
-        <v>14.47975173583021</v>
+        <v>14.44291612580072</v>
       </c>
     </row>
     <row r="463">
@@ -15718,7 +15718,7 @@
         <v>6.584781353135303</v>
       </c>
       <c r="I463" t="n">
-        <v>14.47975173583021</v>
+        <v>14.44291612580072</v>
       </c>
     </row>
     <row r="464">
@@ -15751,7 +15751,7 @@
         <v>6.584781353135303</v>
       </c>
       <c r="I464" t="n">
-        <v>14.47975173583021</v>
+        <v>14.44291612580072</v>
       </c>
     </row>
     <row r="465">
@@ -15784,7 +15784,7 @@
         <v>8.131515637530073</v>
       </c>
       <c r="I465" t="n">
-        <v>15.77197503872778</v>
+        <v>15.72966802133875</v>
       </c>
     </row>
     <row r="466">
@@ -15817,7 +15817,7 @@
         <v>8.131515637530073</v>
       </c>
       <c r="I466" t="n">
-        <v>15.77197503872778</v>
+        <v>15.72966802133875</v>
       </c>
     </row>
     <row r="467">
@@ -15850,7 +15850,7 @@
         <v>8.131515637530073</v>
       </c>
       <c r="I467" t="n">
-        <v>15.77197503872778</v>
+        <v>15.72966802133875</v>
       </c>
     </row>
     <row r="468">
@@ -15883,7 +15883,7 @@
         <v>8.131515637530073</v>
       </c>
       <c r="I468" t="n">
-        <v>15.77197503872778</v>
+        <v>15.72966802133875</v>
       </c>
     </row>
     <row r="469">
@@ -15916,7 +15916,7 @@
         <v>8.131515637530073</v>
       </c>
       <c r="I469" t="n">
-        <v>15.77197503872778</v>
+        <v>15.72966802133875</v>
       </c>
     </row>
     <row r="470">
@@ -15949,7 +15949,7 @@
         <v>8.131515637530073</v>
       </c>
       <c r="I470" t="n">
-        <v>15.77197503872778</v>
+        <v>15.72966802133875</v>
       </c>
     </row>
     <row r="471">
@@ -15982,7 +15982,7 @@
         <v>7.696793002915452</v>
       </c>
       <c r="I471" t="n">
-        <v>15.40878484865202</v>
+        <v>15.3680156161601</v>
       </c>
     </row>
     <row r="472">
@@ -16015,7 +16015,7 @@
         <v>7.696793002915452</v>
       </c>
       <c r="I472" t="n">
-        <v>15.40878484865202</v>
+        <v>15.3680156161601</v>
       </c>
     </row>
     <row r="473">
@@ -16048,7 +16048,7 @@
         <v>7.696793002915452</v>
       </c>
       <c r="I473" t="n">
-        <v>15.40878484865202</v>
+        <v>15.3680156161601</v>
       </c>
     </row>
     <row r="474">
@@ -16081,7 +16081,7 @@
         <v>7.880091070073362</v>
       </c>
       <c r="I474" t="n">
-        <v>15.56192171006853</v>
+        <v>15.52050408023794</v>
       </c>
     </row>
     <row r="475">
@@ -16114,7 +16114,7 @@
         <v>8.243865030674845</v>
       </c>
       <c r="I475" t="n">
-        <v>15.86583764030895</v>
+        <v>15.82313319893915</v>
       </c>
     </row>
     <row r="476">
@@ -16147,7 +16147,7 @@
         <v>8.243865030674845</v>
       </c>
       <c r="I476" t="n">
-        <v>15.86583764030895</v>
+        <v>15.82313319893915</v>
       </c>
     </row>
     <row r="477">
@@ -16180,7 +16180,7 @@
         <v>8.243865030674845</v>
       </c>
       <c r="I477" t="n">
-        <v>15.86583764030895</v>
+        <v>15.82313319893915</v>
       </c>
     </row>
     <row r="478">
@@ -16213,7 +16213,7 @@
         <v>8.243865030674845</v>
       </c>
       <c r="I478" t="n">
-        <v>15.86583764030895</v>
+        <v>15.82313319893915</v>
       </c>
     </row>
     <row r="479">
@@ -16246,7 +16246,7 @@
         <v>6.642585410895681</v>
       </c>
       <c r="I479" t="n">
-        <v>14.52804429079173</v>
+        <v>14.49100420508065</v>
       </c>
     </row>
     <row r="480">
@@ -16279,7 +16279,7 @@
         <v>6.642585410895681</v>
       </c>
       <c r="I480" t="n">
-        <v>14.52804429079173</v>
+        <v>14.49100420508065</v>
       </c>
     </row>
     <row r="481">
@@ -16312,7 +16312,7 @@
         <v>6.642585410895681</v>
       </c>
       <c r="I481" t="n">
-        <v>14.52804429079173</v>
+        <v>14.49100420508065</v>
       </c>
     </row>
     <row r="482">
@@ -16345,7 +16345,7 @@
         <v>8.016493384938403</v>
       </c>
       <c r="I482" t="n">
-        <v>15.67587938955887</v>
+        <v>15.63397925110547</v>
       </c>
     </row>
     <row r="483">
@@ -16378,7 +16378,7 @@
         <v>7.786069651741293</v>
       </c>
       <c r="I483" t="n">
-        <v>15.48337126416067</v>
+        <v>15.44228622505714</v>
       </c>
     </row>
     <row r="484">
@@ -16411,7 +16411,7 @@
         <v>7.786069651741293</v>
       </c>
       <c r="I484" t="n">
-        <v>15.48337126416067</v>
+        <v>15.44228622505714</v>
       </c>
     </row>
     <row r="485">
@@ -16444,7 +16444,7 @@
         <v>7.786069651741293</v>
       </c>
       <c r="I485" t="n">
-        <v>15.48337126416067</v>
+        <v>15.44228622505714</v>
       </c>
     </row>
     <row r="486">
@@ -16477,7 +16477,7 @@
         <v>7.786069651741293</v>
       </c>
       <c r="I486" t="n">
-        <v>15.48337126416067</v>
+        <v>15.44228622505714</v>
       </c>
     </row>
     <row r="487">
@@ -16510,7 +16510,7 @@
         <v>7.786069651741293</v>
       </c>
       <c r="I487" t="n">
-        <v>15.48337126416067</v>
+        <v>15.44228622505714</v>
       </c>
     </row>
     <row r="488">
@@ -16543,7 +16543,7 @@
         <v>7.786069651741293</v>
       </c>
       <c r="I488" t="n">
-        <v>15.48337126416067</v>
+        <v>15.44228622505714</v>
       </c>
     </row>
     <row r="489">
@@ -16576,7 +16576,7 @@
         <v>7.786069651741293</v>
       </c>
       <c r="I489" t="n">
-        <v>15.48337126416067</v>
+        <v>15.44228622505714</v>
       </c>
     </row>
     <row r="490">
@@ -16609,7 +16609,7 @@
         <v>7.786069651741293</v>
       </c>
       <c r="I490" t="n">
-        <v>15.48337126416067</v>
+        <v>15.44228622505714</v>
       </c>
     </row>
     <row r="491">
@@ -16642,7 +16642,7 @@
         <v>7.786069651741293</v>
       </c>
       <c r="I491" t="n">
-        <v>15.48337126416067</v>
+        <v>15.44228622505714</v>
       </c>
     </row>
     <row r="492">
@@ -16675,7 +16675,7 @@
         <v>7.939624853458383</v>
       </c>
       <c r="I492" t="n">
-        <v>15.61165936893854</v>
+        <v>15.57003114470668</v>
       </c>
     </row>
     <row r="493">
@@ -16708,7 +16708,7 @@
         <v>6.642863073984888</v>
       </c>
       <c r="I493" t="n">
-        <v>14.5282762651637</v>
+        <v>14.4912351972491</v>
       </c>
     </row>
     <row r="494">
@@ -16741,7 +16741,7 @@
         <v>6.642863073984888</v>
       </c>
       <c r="I494" t="n">
-        <v>14.5282762651637</v>
+        <v>14.4912351972491</v>
       </c>
     </row>
     <row r="495">
@@ -16774,7 +16774,7 @@
         <v>6.642863073984888</v>
       </c>
       <c r="I495" t="n">
-        <v>14.5282762651637</v>
+        <v>14.4912351972491</v>
       </c>
     </row>
     <row r="496">
@@ -16807,7 +16807,7 @@
         <v>6.642863073984888</v>
       </c>
       <c r="I496" t="n">
-        <v>14.5282762651637</v>
+        <v>14.4912351972491</v>
       </c>
     </row>
     <row r="497">
@@ -16840,7 +16840,7 @@
         <v>6.642863073984888</v>
       </c>
       <c r="I497" t="n">
-        <v>14.5282762651637</v>
+        <v>14.4912351972491</v>
       </c>
     </row>
     <row r="498">
@@ -16873,7 +16873,7 @@
         <v>6.642863073984888</v>
       </c>
       <c r="I498" t="n">
-        <v>14.5282762651637</v>
+        <v>14.4912351972491</v>
       </c>
     </row>
     <row r="499">
@@ -16906,7 +16906,7 @@
         <v>7.975086906141367</v>
       </c>
       <c r="I499" t="n">
-        <v>15.64128623588516</v>
+        <v>15.59953256842882</v>
       </c>
     </row>
     <row r="500">
@@ -16939,7 +16939,7 @@
         <v>8.007653671370486</v>
       </c>
       <c r="I500" t="n">
-        <v>15.66849422716954</v>
+        <v>15.62662535825892</v>
       </c>
     </row>
     <row r="501">
@@ -16972,7 +16972,7 @@
         <v>6.764670883911805</v>
       </c>
       <c r="I501" t="n">
-        <v>14.63004092639255</v>
+        <v>14.59256897635785</v>
       </c>
     </row>
     <row r="502">
@@ -17005,7 +17005,7 @@
         <v>6.571845704109423</v>
       </c>
       <c r="I502" t="n">
-        <v>14.46894461318608</v>
+        <v>14.43215476163365</v>
       </c>
     </row>
     <row r="503">
@@ -17038,7 +17038,7 @@
         <v>6.571845704109423</v>
       </c>
       <c r="I503" t="n">
-        <v>14.46894461318608</v>
+        <v>14.43215476163365</v>
       </c>
     </row>
     <row r="504">
@@ -17071,7 +17071,7 @@
         <v>6.571845704109423</v>
       </c>
       <c r="I504" t="n">
-        <v>14.46894461318608</v>
+        <v>14.43215476163365</v>
       </c>
     </row>
     <row r="505">
@@ -17104,7 +17104,7 @@
         <v>8.119223659889093</v>
       </c>
       <c r="I505" t="n">
-        <v>15.76170567306709</v>
+        <v>15.71944213723634</v>
       </c>
     </row>
     <row r="506">
@@ -17137,7 +17137,7 @@
         <v>8.119223659889093</v>
       </c>
       <c r="I506" t="n">
-        <v>15.76170567306709</v>
+        <v>15.71944213723634</v>
       </c>
     </row>
     <row r="507">
@@ -17170,7 +17170,7 @@
         <v>8.181848504052565</v>
       </c>
       <c r="I507" t="n">
-        <v>15.81402576694801</v>
+        <v>15.77154070241857</v>
       </c>
     </row>
     <row r="508">
@@ -17203,7 +17203,7 @@
         <v>8.181848504052565</v>
       </c>
       <c r="I508" t="n">
-        <v>15.81402576694801</v>
+        <v>15.77154070241857</v>
       </c>
     </row>
     <row r="509">
@@ -17236,7 +17236,7 @@
         <v>8.181848504052565</v>
       </c>
       <c r="I509" t="n">
-        <v>15.81402576694801</v>
+        <v>15.77154070241857</v>
       </c>
     </row>
     <row r="510">
@@ -17269,7 +17269,7 @@
         <v>8.164924784158037</v>
       </c>
       <c r="I510" t="n">
-        <v>15.79988679980927</v>
+        <v>15.75746160113172</v>
       </c>
     </row>
     <row r="511">
@@ -17302,7 +17302,7 @@
         <v>11.87800963081862</v>
       </c>
       <c r="I511" t="n">
-        <v>18.90199348542407</v>
+        <v>18.84643364561158</v>
       </c>
     </row>
     <row r="512">
@@ -17335,7 +17335,7 @@
         <v>11.87800963081862</v>
       </c>
       <c r="I512" t="n">
-        <v>18.90199348542407</v>
+        <v>18.84643364561158</v>
       </c>
     </row>
     <row r="513">
@@ -17368,7 +17368,7 @@
         <v>11.87800963081862</v>
       </c>
       <c r="I513" t="n">
-        <v>18.90199348542407</v>
+        <v>18.84643364561158</v>
       </c>
     </row>
     <row r="514">
@@ -17401,7 +17401,7 @@
         <v>7.924970691676436</v>
       </c>
       <c r="I514" t="n">
-        <v>15.59941651020701</v>
+        <v>15.55784012350757</v>
       </c>
     </row>
     <row r="515">
@@ -17434,7 +17434,7 @@
         <v>7.924970691676436</v>
       </c>
       <c r="I515" t="n">
-        <v>15.59941651020701</v>
+        <v>15.55784012350757</v>
       </c>
     </row>
     <row r="516">
@@ -17467,7 +17467,7 @@
         <v>7.924970691676436</v>
       </c>
       <c r="I516" t="n">
-        <v>15.59941651020701</v>
+        <v>15.55784012350757</v>
       </c>
     </row>
     <row r="517">
@@ -17500,7 +17500,7 @@
         <v>6.764522361586198</v>
       </c>
       <c r="I517" t="n">
-        <v>14.62991684301761</v>
+        <v>14.59244541836477</v>
       </c>
     </row>
     <row r="518">
@@ -17533,7 +17533,7 @@
         <v>6.764522361586198</v>
       </c>
       <c r="I518" t="n">
-        <v>14.62991684301761</v>
+        <v>14.59244541836477</v>
       </c>
     </row>
     <row r="519">
@@ -17566,7 +17566,7 @@
         <v>6.764522361586198</v>
       </c>
       <c r="I519" t="n">
-        <v>14.62991684301761</v>
+        <v>14.59244541836477</v>
       </c>
     </row>
     <row r="520">
@@ -17599,7 +17599,7 @@
         <v>6.97565543071161</v>
       </c>
       <c r="I520" t="n">
-        <v>14.80630853142122</v>
+        <v>14.76809024608267</v>
       </c>
     </row>
     <row r="521">
@@ -17632,7 +17632,7 @@
         <v>6.97565543071161</v>
       </c>
       <c r="I521" t="n">
-        <v>14.80630853142122</v>
+        <v>14.76809024608267</v>
       </c>
     </row>
     <row r="522">
@@ -17665,7 +17665,7 @@
         <v>7.954808806488993</v>
       </c>
       <c r="I522" t="n">
-        <v>15.62434484318853</v>
+        <v>15.58266290734427</v>
       </c>
     </row>
     <row r="523">
@@ -17698,7 +17698,7 @@
         <v>7.954808806488993</v>
       </c>
       <c r="I523" t="n">
-        <v>15.62434484318853</v>
+        <v>15.58266290734427</v>
       </c>
     </row>
     <row r="524">
@@ -17731,7 +17731,7 @@
         <v>7.954808806488993</v>
       </c>
       <c r="I524" t="n">
-        <v>15.62434484318853</v>
+        <v>15.58266290734427</v>
       </c>
     </row>
     <row r="525">
@@ -17764,7 +17764,7 @@
         <v>8.237251593550807</v>
       </c>
       <c r="I525" t="n">
-        <v>15.86031242654072</v>
+        <v>15.81763137949851</v>
       </c>
     </row>
     <row r="526">
@@ -17797,7 +17797,7 @@
         <v>6.765067650676507</v>
       </c>
       <c r="I526" t="n">
-        <v>14.63037240624939</v>
+        <v>14.59289905269463</v>
       </c>
     </row>
     <row r="527">
@@ -17830,7 +17830,7 @@
         <v>6.765067650676507</v>
       </c>
       <c r="I527" t="n">
-        <v>14.63037240624939</v>
+        <v>14.59289905269463</v>
       </c>
     </row>
     <row r="528">
@@ -17863,7 +17863,7 @@
         <v>7.989690721649485</v>
       </c>
       <c r="I528" t="n">
-        <v>15.6534870326873</v>
+        <v>15.61168170579311</v>
       </c>
     </row>
     <row r="529">
@@ -17896,7 +17896,7 @@
         <v>7.989690721649485</v>
       </c>
       <c r="I529" t="n">
-        <v>15.6534870326873</v>
+        <v>15.61168170579311</v>
       </c>
     </row>
     <row r="530">
@@ -17929,7 +17929,7 @@
         <v>7.989690721649485</v>
       </c>
       <c r="I530" t="n">
-        <v>15.6534870326873</v>
+        <v>15.61168170579311</v>
       </c>
     </row>
     <row r="531">
@@ -17962,7 +17962,7 @@
         <v>7.989690721649485</v>
       </c>
       <c r="I531" t="n">
-        <v>15.6534870326873</v>
+        <v>15.61168170579311</v>
       </c>
     </row>
     <row r="532">
@@ -17995,7 +17995,7 @@
         <v>7.989690721649485</v>
       </c>
       <c r="I532" t="n">
-        <v>15.6534870326873</v>
+        <v>15.61168170579311</v>
       </c>
     </row>
     <row r="533">
@@ -18028,7 +18028,7 @@
         <v>7.989690721649485</v>
       </c>
       <c r="I533" t="n">
-        <v>15.6534870326873</v>
+        <v>15.61168170579311</v>
       </c>
     </row>
     <row r="534">
@@ -18061,7 +18061,7 @@
         <v>6.571989726544795</v>
       </c>
       <c r="I534" t="n">
-        <v>14.46906493711567</v>
+        <v>14.43227457609926</v>
       </c>
     </row>
     <row r="535">
@@ -18094,7 +18094,7 @@
         <v>6.571989726544795</v>
       </c>
       <c r="I535" t="n">
-        <v>14.46906493711567</v>
+        <v>14.43227457609926</v>
       </c>
     </row>
     <row r="536">
@@ -18127,7 +18127,7 @@
         <v>6.571989726544795</v>
       </c>
       <c r="I536" t="n">
-        <v>14.46906493711567</v>
+        <v>14.43227457609926</v>
       </c>
     </row>
     <row r="537">
@@ -18160,7 +18160,7 @@
         <v>6.945956810631237</v>
       </c>
       <c r="I537" t="n">
-        <v>14.78149673968753</v>
+        <v>14.74338351004608</v>
       </c>
     </row>
     <row r="538">
@@ -18193,7 +18193,7 @@
         <v>6.945956810631237</v>
       </c>
       <c r="I538" t="n">
-        <v>14.78149673968753</v>
+        <v>14.74338351004608</v>
       </c>
     </row>
     <row r="539">
@@ -18226,7 +18226,7 @@
         <v>6.945956810631237</v>
       </c>
       <c r="I539" t="n">
-        <v>14.78149673968753</v>
+        <v>14.74338351004608</v>
       </c>
     </row>
     <row r="540">
@@ -18259,7 +18259,7 @@
         <v>6.764936267179377</v>
       </c>
       <c r="I540" t="n">
-        <v>14.63026264155463</v>
+        <v>14.59278975275496</v>
       </c>
     </row>
     <row r="541">
@@ -18292,7 +18292,7 @@
         <v>6.764936267179377</v>
       </c>
       <c r="I541" t="n">
-        <v>14.63026264155463</v>
+        <v>14.59278975275496</v>
       </c>
     </row>
     <row r="542">
@@ -18325,7 +18325,7 @@
         <v>6.764936267179377</v>
       </c>
       <c r="I542" t="n">
-        <v>14.63026264155463</v>
+        <v>14.59278975275496</v>
       </c>
     </row>
     <row r="543">
@@ -18358,7 +18358,7 @@
         <v>11.08349267049076</v>
       </c>
       <c r="I543" t="n">
-        <v>18.23821216174006</v>
+        <v>18.18546284083045</v>
       </c>
     </row>
     <row r="544">
@@ -18391,7 +18391,7 @@
         <v>7.139303482587064</v>
       </c>
       <c r="I544" t="n">
-        <v>14.94302873491111</v>
+        <v>14.90423156206458</v>
       </c>
     </row>
     <row r="545">
@@ -18424,7 +18424,7 @@
         <v>7.139303482587064</v>
       </c>
       <c r="I545" t="n">
-        <v>14.94302873491111</v>
+        <v>14.90423156206458</v>
       </c>
     </row>
     <row r="546">
@@ -18457,7 +18457,7 @@
         <v>7.139303482587064</v>
       </c>
       <c r="I546" t="n">
-        <v>14.94302873491111</v>
+        <v>14.90423156206458</v>
       </c>
     </row>
     <row r="547">
@@ -18490,7 +18490,7 @@
         <v>7.139303482587064</v>
       </c>
       <c r="I547" t="n">
-        <v>14.94302873491111</v>
+        <v>14.90423156206458</v>
       </c>
     </row>
     <row r="548">
@@ -18523,7 +18523,7 @@
         <v>7.089552238805971</v>
       </c>
       <c r="I548" t="n">
-        <v>14.90146392496884</v>
+        <v>14.86284274183438</v>
       </c>
     </row>
     <row r="549">
@@ -18556,7 +18556,7 @@
         <v>6.945953286257468</v>
       </c>
       <c r="I549" t="n">
-        <v>14.78149379524002</v>
+        <v>14.74338057806566</v>
       </c>
     </row>
     <row r="550">
@@ -18589,7 +18589,7 @@
         <v>6.945953286257468</v>
       </c>
       <c r="I550" t="n">
-        <v>14.78149379524002</v>
+        <v>14.74338057806566</v>
       </c>
     </row>
     <row r="551">
@@ -18622,7 +18622,7 @@
         <v>6.945953286257468</v>
       </c>
       <c r="I551" t="n">
-        <v>14.78149379524002</v>
+        <v>14.74338057806566</v>
       </c>
     </row>
     <row r="552">
@@ -18655,7 +18655,7 @@
         <v>6.945953286257468</v>
       </c>
       <c r="I552" t="n">
-        <v>14.78149379524002</v>
+        <v>14.74338057806566</v>
       </c>
     </row>
     <row r="553">
@@ -18688,7 +18688,7 @@
         <v>6.945953286257468</v>
       </c>
       <c r="I553" t="n">
-        <v>14.78149379524002</v>
+        <v>14.74338057806566</v>
       </c>
     </row>
     <row r="554">
@@ -18721,7 +18721,7 @@
         <v>6.945953286257468</v>
       </c>
       <c r="I554" t="n">
-        <v>14.78149379524002</v>
+        <v>14.74338057806566</v>
       </c>
     </row>
     <row r="555">
@@ -18754,7 +18754,7 @@
         <v>7.260168841135838</v>
       </c>
       <c r="I555" t="n">
-        <v>15.04400602261047</v>
+        <v>15.00478130146496</v>
       </c>
     </row>
     <row r="556">
@@ -18787,7 +18787,7 @@
         <v>7.260168841135838</v>
       </c>
       <c r="I556" t="n">
-        <v>15.04400602261047</v>
+        <v>15.00478130146496</v>
       </c>
     </row>
     <row r="557">
@@ -18820,7 +18820,7 @@
         <v>7.260168841135838</v>
       </c>
       <c r="I557" t="n">
-        <v>15.04400602261047</v>
+        <v>15.00478130146496</v>
       </c>
     </row>
     <row r="558">
@@ -18853,7 +18853,7 @@
         <v>7.260168841135838</v>
       </c>
       <c r="I558" t="n">
-        <v>15.04400602261047</v>
+        <v>15.00478130146496</v>
       </c>
     </row>
     <row r="559">
@@ -18886,7 +18886,7 @@
         <v>7.776814108123736</v>
       </c>
       <c r="I559" t="n">
-        <v>15.47563869544201</v>
+        <v>15.43458639683566</v>
       </c>
     </row>
     <row r="560">
@@ -18919,7 +18919,7 @@
         <v>7.393431167016074</v>
       </c>
       <c r="I560" t="n">
-        <v>15.15534038988879</v>
+        <v>15.11564426749619</v>
       </c>
     </row>
     <row r="561">
@@ -18952,7 +18952,7 @@
         <v>10.0089928057554</v>
       </c>
       <c r="I561" t="n">
-        <v>17.3405183702595</v>
+        <v>17.2915699778785</v>
       </c>
     </row>
     <row r="562">
@@ -18985,7 +18985,7 @@
         <v>7.421383647798743</v>
       </c>
       <c r="I562" t="n">
-        <v>15.17869336486683</v>
+        <v>15.13889836355844</v>
       </c>
     </row>
     <row r="563">
@@ -19018,7 +19018,7 @@
         <v>7.421383647798743</v>
       </c>
       <c r="I563" t="n">
-        <v>15.17869336486683</v>
+        <v>15.13889836355844</v>
       </c>
     </row>
     <row r="564">
@@ -19051,7 +19051,7 @@
         <v>9.933460076045629</v>
       </c>
       <c r="I564" t="n">
-        <v>17.27741434880786</v>
+        <v>17.22873314539228</v>
       </c>
     </row>
     <row r="565">
@@ -19084,7 +19084,7 @@
         <v>7.048658481127786</v>
       </c>
       <c r="I565" t="n">
-        <v>14.86729912552788</v>
+        <v>14.82882259969428</v>
       </c>
     </row>
     <row r="566">
@@ -19117,7 +19117,7 @@
         <v>7.048658481127786</v>
       </c>
       <c r="I566" t="n">
-        <v>14.86729912552788</v>
+        <v>14.82882259969428</v>
       </c>
     </row>
     <row r="567">
@@ -19150,7 +19150,7 @@
         <v>7.048658481127786</v>
       </c>
       <c r="I567" t="n">
-        <v>14.86729912552788</v>
+        <v>14.82882259969428</v>
       </c>
     </row>
     <row r="568">
@@ -19183,7 +19183,7 @@
         <v>7.048658481127786</v>
       </c>
       <c r="I568" t="n">
-        <v>14.86729912552788</v>
+        <v>14.82882259969428</v>
       </c>
     </row>
     <row r="569">
@@ -19216,7 +19216,7 @@
         <v>7.005065200991486</v>
       </c>
       <c r="I569" t="n">
-        <v>14.83087900281501</v>
+        <v>14.79255668355469</v>
       </c>
     </row>
     <row r="570">
@@ -19249,7 +19249,7 @@
         <v>7.005065200991486</v>
       </c>
       <c r="I570" t="n">
-        <v>14.83087900281501</v>
+        <v>14.79255668355469</v>
       </c>
     </row>
     <row r="571">
@@ -19282,7 +19282,7 @@
         <v>7.005065200991486</v>
       </c>
       <c r="I571" t="n">
-        <v>14.83087900281501</v>
+        <v>14.79255668355469</v>
       </c>
     </row>
     <row r="572">
@@ -19315,7 +19315,7 @@
         <v>7.768150582611294</v>
       </c>
       <c r="I572" t="n">
-        <v>15.46840072983578</v>
+        <v>15.42737907752577</v>
       </c>
     </row>
     <row r="573">
@@ -19348,7 +19348,7 @@
         <v>10.0914362176628</v>
       </c>
       <c r="I573" t="n">
-        <v>17.40939593967266</v>
+        <v>17.36015591252595</v>
       </c>
     </row>
     <row r="574">
@@ -19381,7 +19381,7 @@
         <v>10.75421472937001</v>
       </c>
       <c r="I574" t="n">
-        <v>17.96311602341863</v>
+        <v>17.91153148806304</v>
       </c>
     </row>
     <row r="575">
@@ -19414,7 +19414,7 @@
         <v>10.70121398804131</v>
       </c>
       <c r="I575" t="n">
-        <v>17.91883641204208</v>
+        <v>17.86743936114914</v>
       </c>
     </row>
     <row r="576">
@@ -19447,7 +19447,7 @@
         <v>10.70846167784019</v>
       </c>
       <c r="I576" t="n">
-        <v>17.92489151390719</v>
+        <v>17.87346882508555</v>
       </c>
     </row>
     <row r="577">
@@ -19480,7 +19480,7 @@
         <v>10.75421472937001</v>
       </c>
       <c r="I577" t="n">
-        <v>17.96311602341863</v>
+        <v>17.91153148806304</v>
       </c>
     </row>
     <row r="578">
@@ -19513,7 +19513,7 @@
         <v>10.70846167784019</v>
       </c>
       <c r="I578" t="n">
-        <v>17.92489151390719</v>
+        <v>17.87346882508555</v>
       </c>
     </row>
     <row r="579">
@@ -19546,7 +19546,7 @@
         <v>8.376339817387851</v>
       </c>
       <c r="I579" t="n">
-        <v>15.97651405587952</v>
+        <v>15.93334099909834</v>
       </c>
     </row>
     <row r="580">
@@ -19579,7 +19579,7 @@
         <v>10.88757396449704</v>
       </c>
       <c r="I580" t="n">
-        <v>18.07453135378688</v>
+        <v>18.0224750743781</v>
       </c>
     </row>
     <row r="581">
@@ -19612,7 +19612,7 @@
         <v>10.88757396449704</v>
       </c>
       <c r="I581" t="n">
-        <v>18.07453135378688</v>
+        <v>18.0224750743781</v>
       </c>
     </row>
     <row r="582">
@@ -19645,7 +19645,7 @@
         <v>9.473170731707318</v>
       </c>
       <c r="I582" t="n">
-        <v>16.89286438257876</v>
+        <v>16.84581140356574</v>
       </c>
     </row>
     <row r="583">
@@ -19678,7 +19678,7 @@
         <v>9.473170731707318</v>
       </c>
       <c r="I583" t="n">
-        <v>16.89286438257876</v>
+        <v>16.84581140356574</v>
       </c>
     </row>
     <row r="584">
@@ -19711,7 +19711,7 @@
         <v>9.550045913682277</v>
       </c>
       <c r="I584" t="n">
-        <v>16.9570899593729</v>
+        <v>16.90976504261294</v>
       </c>
     </row>
     <row r="585">
@@ -19744,7 +19744,7 @@
         <v>9.510426110607433</v>
       </c>
       <c r="I585" t="n">
-        <v>16.9239894887193</v>
+        <v>16.87680472278182</v>
       </c>
     </row>
     <row r="586">
@@ -19777,7 +19777,7 @@
         <v>9.510426110607433</v>
       </c>
       <c r="I586" t="n">
-        <v>16.9239894887193</v>
+        <v>16.87680472278182</v>
       </c>
     </row>
     <row r="587">
@@ -19810,7 +19810,7 @@
         <v>9.510426110607433</v>
       </c>
       <c r="I587" t="n">
-        <v>16.9239894887193</v>
+        <v>16.87680472278182</v>
       </c>
     </row>
     <row r="588">
@@ -19843,7 +19843,7 @@
         <v>9.550045913682277</v>
       </c>
       <c r="I588" t="n">
-        <v>16.9570899593729</v>
+        <v>16.90976504261294</v>
       </c>
     </row>
     <row r="589">
@@ -19876,7 +19876,7 @@
         <v>9.510426110607433</v>
       </c>
       <c r="I589" t="n">
-        <v>16.9239894887193</v>
+        <v>16.87680472278182</v>
       </c>
     </row>
     <row r="590">
@@ -19909,7 +19909,7 @@
         <v>9.510426110607433</v>
       </c>
       <c r="I590" t="n">
-        <v>16.9239894887193</v>
+        <v>16.87680472278182</v>
       </c>
     </row>
     <row r="591">
@@ -19942,7 +19942,7 @@
         <v>9.510426110607433</v>
       </c>
       <c r="I591" t="n">
-        <v>16.9239894887193</v>
+        <v>16.87680472278182</v>
       </c>
     </row>
     <row r="592">
@@ -19975,7 +19975,7 @@
         <v>10.28007972306724</v>
       </c>
       <c r="I592" t="n">
-        <v>17.56699866179716</v>
+        <v>17.5170913283948</v>
       </c>
     </row>
     <row r="593">
@@ -20008,7 +20008,7 @@
         <v>8.488063660477454</v>
       </c>
       <c r="I593" t="n">
-        <v>16.06985403999072</v>
+        <v>16.0262857720453</v>
       </c>
     </row>
     <row r="594">
@@ -20041,7 +20041,7 @@
         <v>10.78779276082328</v>
       </c>
       <c r="I594" t="n">
-        <v>17.99116887978</v>
+        <v>17.93946556572386</v>
       </c>
     </row>
     <row r="595">
@@ -20074,7 +20074,7 @@
         <v>10.90710198586335</v>
       </c>
       <c r="I595" t="n">
-        <v>18.09084609156933</v>
+        <v>18.03872073387031</v>
       </c>
     </row>
     <row r="596">
@@ -20107,7 +20107,7 @@
         <v>10.90541905082464</v>
       </c>
       <c r="I596" t="n">
-        <v>18.08944007898124</v>
+        <v>18.0373206744852</v>
       </c>
     </row>
     <row r="597">
@@ -20140,7 +20140,7 @@
         <v>10.96997690531178</v>
       </c>
       <c r="I597" t="n">
-        <v>18.14337511151723</v>
+        <v>18.0910273405049</v>
       </c>
     </row>
     <row r="598">
@@ -20173,7 +20173,7 @@
         <v>11.05776924307889</v>
       </c>
       <c r="I598" t="n">
-        <v>18.21672145537415</v>
+        <v>18.16406312834208</v>
       </c>
     </row>
     <row r="599">
@@ -20206,7 +20206,7 @@
         <v>10.921581769437</v>
       </c>
       <c r="I599" t="n">
-        <v>18.10294326555943</v>
+        <v>18.05076668717228</v>
       </c>
     </row>
     <row r="600">
@@ -20239,7 +20239,7 @@
         <v>10.92493297587131</v>
       </c>
       <c r="I600" t="n">
-        <v>18.10574303995568</v>
+        <v>18.05355460703363</v>
       </c>
     </row>
     <row r="601">
@@ -20272,7 +20272,7 @@
         <v>11.06417026724276</v>
       </c>
       <c r="I601" t="n">
-        <v>18.22206920816557</v>
+        <v>18.16938823819407</v>
       </c>
     </row>
     <row r="602">
@@ -20305,7 +20305,7 @@
         <v>11.05776924307889</v>
       </c>
       <c r="I602" t="n">
-        <v>18.21672145537415</v>
+        <v>18.16406312834208</v>
       </c>
     </row>
     <row r="603">
@@ -20338,7 +20338,7 @@
         <v>10.92493297587131</v>
       </c>
       <c r="I603" t="n">
-        <v>18.10574303995568</v>
+        <v>18.05355460703363</v>
       </c>
     </row>
     <row r="604">
@@ -20371,7 +20371,7 @@
         <v>11.05776924307889</v>
       </c>
       <c r="I604" t="n">
-        <v>18.21672145537415</v>
+        <v>18.16406312834208</v>
       </c>
     </row>
     <row r="605">
@@ -20404,7 +20404,7 @@
         <v>10.90541905082464</v>
       </c>
       <c r="I605" t="n">
-        <v>18.08944007898124</v>
+        <v>18.0373206744852</v>
       </c>
     </row>
     <row r="606">
@@ -20437,7 +20437,7 @@
         <v>10.96997690531178</v>
       </c>
       <c r="I606" t="n">
-        <v>18.14337511151723</v>
+        <v>18.0910273405049</v>
       </c>
     </row>
     <row r="607">
@@ -20470,7 +20470,7 @@
         <v>11.05776924307889</v>
       </c>
       <c r="I607" t="n">
-        <v>18.21672145537415</v>
+        <v>18.16406312834208</v>
       </c>
     </row>
     <row r="608">
@@ -20503,7 +20503,7 @@
         <v>10.92493297587131</v>
       </c>
       <c r="I608" t="n">
-        <v>18.10574303995568</v>
+        <v>18.05355460703363</v>
       </c>
     </row>
     <row r="609">
@@ -20536,7 +20536,7 @@
         <v>11.05776924307889</v>
       </c>
       <c r="I609" t="n">
-        <v>18.21672145537415</v>
+        <v>18.16406312834208</v>
       </c>
     </row>
     <row r="610">
@@ -20569,7 +20569,7 @@
         <v>10.92493297587131</v>
       </c>
       <c r="I610" t="n">
-        <v>18.10574303995568</v>
+        <v>18.05355460703363</v>
       </c>
     </row>
     <row r="611">
@@ -20602,7 +20602,7 @@
         <v>11.05776924307889</v>
       </c>
       <c r="I611" t="n">
-        <v>18.21672145537415</v>
+        <v>18.16406312834208</v>
       </c>
     </row>
     <row r="612">
@@ -20635,7 +20635,7 @@
         <v>11.17309778397644</v>
       </c>
       <c r="I612" t="n">
-        <v>18.31307299392902</v>
+        <v>18.26000670449913</v>
       </c>
     </row>
     <row r="613">
@@ -20668,7 +20668,7 @@
         <v>11.17309778397644</v>
       </c>
       <c r="I613" t="n">
-        <v>18.31307299392902</v>
+        <v>18.26000670449913</v>
       </c>
     </row>
     <row r="614">
@@ -20701,7 +20701,7 @@
         <v>11.17309778397644</v>
       </c>
       <c r="I614" t="n">
-        <v>18.31307299392902</v>
+        <v>18.26000670449913</v>
       </c>
     </row>
     <row r="615">
@@ -20734,7 +20734,7 @@
         <v>11.17309778397644</v>
       </c>
       <c r="I615" t="n">
-        <v>18.31307299392902</v>
+        <v>18.26000670449913</v>
       </c>
     </row>
     <row r="616">
@@ -20767,7 +20767,7 @@
         <v>9.962406015037594</v>
       </c>
       <c r="I616" t="n">
-        <v>17.30159731110918</v>
+        <v>17.25281371452547</v>
       </c>
     </row>
     <row r="617">
@@ -20800,7 +20800,7 @@
         <v>9.962406015037594</v>
       </c>
       <c r="I617" t="n">
-        <v>17.30159731110918</v>
+        <v>17.25281371452547</v>
       </c>
     </row>
     <row r="618">
@@ -20833,7 +20833,7 @@
         <v>9.962406015037594</v>
       </c>
       <c r="I618" t="n">
-        <v>17.30159731110918</v>
+        <v>17.25281371452547</v>
       </c>
     </row>
     <row r="619">
@@ -20866,7 +20866,7 @@
         <v>10.19203413940256</v>
       </c>
       <c r="I619" t="n">
-        <v>17.49344074297645</v>
+        <v>17.44384486142416</v>
       </c>
     </row>
     <row r="620">
@@ -20899,7 +20899,7 @@
         <v>10.19203413940256</v>
       </c>
       <c r="I620" t="n">
-        <v>17.49344074297645</v>
+        <v>17.44384486142416</v>
       </c>
     </row>
     <row r="621">
@@ -20932,7 +20932,7 @@
         <v>6.645765526403189</v>
       </c>
       <c r="I621" t="n">
-        <v>14.53070112681468</v>
+        <v>14.49364979178459</v>
       </c>
     </row>
     <row r="622">
@@ -20965,7 +20965,7 @@
         <v>6.645765526403189</v>
       </c>
       <c r="I622" t="n">
-        <v>14.53070112681468</v>
+        <v>14.49364979178459</v>
       </c>
     </row>
     <row r="623">
@@ -20998,7 +20998,7 @@
         <v>9.469424460431654</v>
       </c>
       <c r="I623" t="n">
-        <v>16.8897345502021</v>
+        <v>16.84269482322366</v>
       </c>
     </row>
     <row r="624">
@@ -21031,7 +21031,7 @@
         <v>9.469424460431654</v>
       </c>
       <c r="I624" t="n">
-        <v>16.8897345502021</v>
+        <v>16.84269482322366</v>
       </c>
     </row>
     <row r="625">
@@ -21064,7 +21064,7 @@
         <v>9.469424460431654</v>
       </c>
       <c r="I625" t="n">
-        <v>16.8897345502021</v>
+        <v>16.84269482322366</v>
       </c>
     </row>
     <row r="626">
@@ -21097,7 +21097,7 @@
         <v>9.469424460431654</v>
       </c>
       <c r="I626" t="n">
-        <v>16.8897345502021</v>
+        <v>16.84269482322366</v>
       </c>
     </row>
     <row r="627">
@@ -21130,7 +21130,7 @@
         <v>9.458406390025328</v>
       </c>
       <c r="I627" t="n">
-        <v>16.88052947375447</v>
+        <v>16.83352872202351</v>
       </c>
     </row>
     <row r="628">
@@ -21163,7 +21163,7 @@
         <v>9.710843373493978</v>
       </c>
       <c r="I628" t="n">
-        <v>17.091428628084</v>
+        <v>17.04353490748107</v>
       </c>
     </row>
     <row r="629">
@@ -21196,7 +21196,7 @@
         <v>7.060990585345886</v>
       </c>
       <c r="I629" t="n">
-        <v>14.87760201504496</v>
+        <v>14.8390818657096</v>
       </c>
     </row>
     <row r="630">
@@ -21229,7 +21229,7 @@
         <v>7.060990585345886</v>
       </c>
       <c r="I630" t="n">
-        <v>14.87760201504496</v>
+        <v>14.8390818657096</v>
       </c>
     </row>
     <row r="631">
@@ -21262,7 +21262,7 @@
         <v>7.060990585345886</v>
       </c>
       <c r="I631" t="n">
-        <v>14.87760201504496</v>
+        <v>14.8390818657096</v>
       </c>
     </row>
     <row r="632">
@@ -21295,7 +21295,7 @@
         <v>7.060990585345886</v>
       </c>
       <c r="I632" t="n">
-        <v>14.87760201504496</v>
+        <v>14.8390818657096</v>
       </c>
     </row>
     <row r="633">
@@ -21328,7 +21328,7 @@
         <v>7.060990585345886</v>
       </c>
       <c r="I633" t="n">
-        <v>14.87760201504496</v>
+        <v>14.8390818657096</v>
       </c>
     </row>
     <row r="634">
@@ -21361,7 +21361,7 @@
         <v>7.060990585345886</v>
       </c>
       <c r="I634" t="n">
-        <v>14.87760201504496</v>
+        <v>14.8390818657096</v>
       </c>
     </row>
     <row r="635">
@@ -21394,7 +21394,7 @@
         <v>7.060990585345886</v>
       </c>
       <c r="I635" t="n">
-        <v>14.87760201504496</v>
+        <v>14.8390818657096</v>
       </c>
     </row>
     <row r="636">
@@ -21427,7 +21427,7 @@
         <v>7.078763708873379</v>
       </c>
       <c r="I636" t="n">
-        <v>14.89245061872512</v>
+        <v>14.85386759886323</v>
       </c>
     </row>
     <row r="637">
@@ -21460,7 +21460,7 @@
         <v>7.078763708873379</v>
       </c>
       <c r="I637" t="n">
-        <v>14.89245061872512</v>
+        <v>14.85386759886323</v>
       </c>
     </row>
     <row r="638">
@@ -21493,7 +21493,7 @@
         <v>7.078763708873379</v>
       </c>
       <c r="I638" t="n">
-        <v>14.89245061872512</v>
+        <v>14.85386759886323</v>
       </c>
     </row>
     <row r="639">
@@ -21526,7 +21526,7 @@
         <v>7.174549230623997</v>
       </c>
       <c r="I639" t="n">
-        <v>14.97247488956152</v>
+        <v>14.93355303864511</v>
       </c>
     </row>
     <row r="640">
@@ -21559,7 +21559,7 @@
         <v>7.174549230623997</v>
       </c>
       <c r="I640" t="n">
-        <v>14.97247488956152</v>
+        <v>14.93355303864511</v>
       </c>
     </row>
     <row r="641">
@@ -21592,7 +21592,7 @@
         <v>7.174549230623997</v>
       </c>
       <c r="I641" t="n">
-        <v>14.97247488956152</v>
+        <v>14.93355303864511</v>
       </c>
     </row>
     <row r="642">
@@ -21625,7 +21625,7 @@
         <v>7.174549230623997</v>
       </c>
       <c r="I642" t="n">
-        <v>14.97247488956152</v>
+        <v>14.93355303864511</v>
       </c>
     </row>
     <row r="643">
@@ -21658,7 +21658,7 @@
         <v>7.174549230623997</v>
       </c>
       <c r="I643" t="n">
-        <v>14.97247488956152</v>
+        <v>14.93355303864511</v>
       </c>
     </row>
     <row r="644">
@@ -21691,7 +21691,7 @@
         <v>7.174549230623997</v>
       </c>
       <c r="I644" t="n">
-        <v>14.97247488956152</v>
+        <v>14.93355303864511</v>
       </c>
     </row>
     <row r="645">
@@ -21724,7 +21724,7 @@
         <v>7.174549230623997</v>
       </c>
       <c r="I645" t="n">
-        <v>14.97247488956152</v>
+        <v>14.93355303864511</v>
       </c>
     </row>
     <row r="646">
@@ -21757,7 +21757,7 @@
         <v>7.174549230623997</v>
       </c>
       <c r="I646" t="n">
-        <v>14.97247488956152</v>
+        <v>14.93355303864511</v>
       </c>
     </row>
     <row r="647">
@@ -21790,7 +21790,7 @@
         <v>7.174549230623997</v>
       </c>
       <c r="I647" t="n">
-        <v>14.97247488956152</v>
+        <v>14.93355303864511</v>
       </c>
     </row>
     <row r="648">
@@ -21823,7 +21823,7 @@
         <v>7.279093338247489</v>
       </c>
       <c r="I648" t="n">
-        <v>15.05981654443702</v>
+        <v>15.02052487990387</v>
       </c>
     </row>
     <row r="649">
@@ -21856,7 +21856,7 @@
         <v>7.279093338247489</v>
       </c>
       <c r="I649" t="n">
-        <v>15.05981654443702</v>
+        <v>15.02052487990387</v>
       </c>
     </row>
     <row r="650">
@@ -21889,7 +21889,7 @@
         <v>7.279093338247489</v>
       </c>
       <c r="I650" t="n">
-        <v>15.05981654443702</v>
+        <v>15.02052487990387</v>
       </c>
     </row>
     <row r="651">
@@ -21922,7 +21922,7 @@
         <v>7.279093338247489</v>
       </c>
       <c r="I651" t="n">
-        <v>15.05981654443702</v>
+        <v>15.02052487990387</v>
       </c>
     </row>
     <row r="652">
@@ -21955,7 +21955,7 @@
         <v>7.279093338247489</v>
       </c>
       <c r="I652" t="n">
-        <v>15.05981654443702</v>
+        <v>15.02052487990387</v>
       </c>
     </row>
     <row r="653">
@@ -21988,7 +21988,7 @@
         <v>7.279093338247489</v>
       </c>
       <c r="I653" t="n">
-        <v>15.05981654443702</v>
+        <v>15.02052487990387</v>
       </c>
     </row>
     <row r="654">
@@ -22021,7 +22021,7 @@
         <v>7.279093338247489</v>
       </c>
       <c r="I654" t="n">
-        <v>15.05981654443702</v>
+        <v>15.02052487990387</v>
       </c>
     </row>
     <row r="655">
@@ -22054,7 +22054,7 @@
         <v>7.279093338247489</v>
       </c>
       <c r="I655" t="n">
-        <v>15.05981654443702</v>
+        <v>15.02052487990387</v>
       </c>
     </row>
     <row r="656">
@@ -22087,7 +22087,7 @@
         <v>7.115671641791045</v>
       </c>
       <c r="I656" t="n">
-        <v>14.92328545018853</v>
+        <v>14.88457187245524</v>
       </c>
     </row>
     <row r="657">
@@ -22120,7 +22120,7 @@
         <v>7.134328358208955</v>
       </c>
       <c r="I657" t="n">
-        <v>14.93887225391688</v>
+        <v>14.90009268004156</v>
       </c>
     </row>
     <row r="658">
@@ -22153,7 +22153,7 @@
         <v>8.565965583173996</v>
       </c>
       <c r="I658" t="n">
-        <v>16.13493741007221</v>
+        <v>16.09109357239418</v>
       </c>
     </row>
     <row r="659">
@@ -22186,7 +22186,7 @@
         <v>9.554373739226113</v>
       </c>
       <c r="I659" t="n">
-        <v>16.96070565282138</v>
+        <v>16.91336542684071</v>
       </c>
     </row>
     <row r="660">
@@ -22219,7 +22219,7 @@
         <v>9.97751124437781</v>
       </c>
       <c r="I660" t="n">
-        <v>17.31421701544105</v>
+        <v>17.2653799857216</v>
       </c>
     </row>
     <row r="661">
@@ -22252,7 +22252,7 @@
         <v>10.14513375071144</v>
       </c>
       <c r="I661" t="n">
-        <v>17.45425768755893</v>
+        <v>17.40482771112327</v>
       </c>
     </row>
     <row r="662">
@@ -22285,7 +22285,7 @@
         <v>7.172980700500357</v>
       </c>
       <c r="I662" t="n">
-        <v>14.97116445686632</v>
+        <v>14.93224815445772</v>
       </c>
     </row>
     <row r="663">
@@ -22318,7 +22318,7 @@
         <v>7.220090687129403</v>
       </c>
       <c r="I663" t="n">
-        <v>15.01052262144277</v>
+        <v>14.97143967248721</v>
       </c>
     </row>
     <row r="664">
@@ -22351,7 +22351,7 @@
         <v>10.72036905606813</v>
       </c>
       <c r="I664" t="n">
-        <v>17.9348395649576</v>
+        <v>17.88337475505703</v>
       </c>
     </row>
     <row r="665">
@@ -22384,7 +22384,7 @@
         <v>9.792542389228702</v>
       </c>
       <c r="I665" t="n">
-        <v>17.15968428971985</v>
+        <v>17.11150156757316</v>
       </c>
     </row>
     <row r="666">
@@ -22417,7 +22417,7 @@
         <v>6.791671641791045</v>
       </c>
       <c r="I666" t="n">
-        <v>14.65259878192047</v>
+        <v>14.6150313195881</v>
       </c>
     </row>
     <row r="667">
@@ -22450,7 +22450,7 @@
         <v>7.210031347962381</v>
       </c>
       <c r="I667" t="n">
-        <v>15.00211851957826</v>
+        <v>14.9630711544608</v>
       </c>
     </row>
     <row r="668">
@@ -22483,7 +22483,7 @@
         <v>7.227446882619296</v>
       </c>
       <c r="I668" t="n">
-        <v>15.01666837467822</v>
+        <v>14.97755940396667</v>
       </c>
     </row>
     <row r="669">
@@ -22516,7 +22516,7 @@
         <v>9.859050445103856</v>
       </c>
       <c r="I669" t="n">
-        <v>17.21524862323167</v>
+        <v>17.16683063593955</v>
       </c>
     </row>
     <row r="670">
@@ -22549,7 +22549,7 @@
         <v>9.859050445103856</v>
       </c>
       <c r="I670" t="n">
-        <v>17.21524862323167</v>
+        <v>17.16683063593955</v>
       </c>
     </row>
     <row r="671">
@@ -22582,7 +22582,7 @@
         <v>9.84464393783596</v>
       </c>
       <c r="I671" t="n">
-        <v>17.20321266812758</v>
+        <v>17.15484564231648</v>
       </c>
     </row>
     <row r="672">
@@ -22615,7 +22615,7 @@
         <v>7.342342342342342</v>
       </c>
       <c r="I672" t="n">
-        <v>15.11265809440525</v>
+        <v>15.0731426932743</v>
       </c>
     </row>
     <row r="673">
@@ -22648,7 +22648,7 @@
         <v>6.94574959261271</v>
       </c>
       <c r="I673" t="n">
-        <v>14.78132361883864</v>
+        <v>14.7432111222088</v>
       </c>
     </row>
     <row r="674">
@@ -22681,7 +22681,7 @@
         <v>6.94574959261271</v>
       </c>
       <c r="I674" t="n">
-        <v>14.78132361883864</v>
+        <v>14.7432111222088</v>
       </c>
     </row>
     <row r="675">
@@ -22714,7 +22714,7 @@
         <v>7.339980701190094</v>
       </c>
       <c r="I675" t="n">
-        <v>15.11068505497579</v>
+        <v>15.07117800789822</v>
       </c>
     </row>
     <row r="676">
@@ -22747,7 +22747,7 @@
         <v>7.423540315106581</v>
       </c>
       <c r="I676" t="n">
-        <v>15.18049515834869</v>
+        <v>15.14069252805999</v>
       </c>
     </row>
     <row r="677">
@@ -22780,7 +22780,7 @@
         <v>9.718781873816116</v>
       </c>
       <c r="I677" t="n">
-        <v>17.09806086945204</v>
+        <v>17.05013906725195</v>
       </c>
     </row>
     <row r="678">
@@ -22813,7 +22813,7 @@
         <v>9.718781873816116</v>
       </c>
       <c r="I678" t="n">
-        <v>17.09806086945204</v>
+        <v>17.05013906725195</v>
       </c>
     </row>
     <row r="679">
@@ -22846,7 +22846,7 @@
         <v>9.814658803706823</v>
       </c>
       <c r="I679" t="n">
-        <v>17.17816150746404</v>
+        <v>17.12990055086289</v>
       </c>
     </row>
     <row r="680">
@@ -22879,7 +22879,7 @@
         <v>9.814658803706823</v>
       </c>
       <c r="I680" t="n">
-        <v>17.17816150746404</v>
+        <v>17.12990055086289</v>
       </c>
     </row>
     <row r="681">
@@ -22912,7 +22912,7 @@
         <v>9.519806520430004</v>
       </c>
       <c r="I681" t="n">
-        <v>16.93182637724356</v>
+        <v>16.88460842910805</v>
       </c>
     </row>
     <row r="682">
@@ -22945,7 +22945,7 @@
         <v>7.423540315106581</v>
       </c>
       <c r="I682" t="n">
-        <v>15.18049515834869</v>
+        <v>15.14069252805999</v>
       </c>
     </row>
     <row r="683">
@@ -22978,7 +22978,7 @@
         <v>7.493277561995818</v>
       </c>
       <c r="I683" t="n">
-        <v>15.23875732814695</v>
+        <v>15.19870800979443</v>
       </c>
     </row>
     <row r="684">
@@ -23011,7 +23011,7 @@
         <v>7.493277561995818</v>
       </c>
       <c r="I684" t="n">
-        <v>15.23875732814695</v>
+        <v>15.19870800979443</v>
       </c>
     </row>
     <row r="685">
@@ -23044,7 +23044,7 @@
         <v>7.346413637825668</v>
       </c>
       <c r="I685" t="n">
-        <v>15.11605946912722</v>
+        <v>15.07652966622326</v>
       </c>
     </row>
     <row r="686">
@@ -23077,7 +23077,7 @@
         <v>7.420451034908867</v>
       </c>
       <c r="I686" t="n">
-        <v>15.17791421092874</v>
+        <v>15.13812250863884</v>
       </c>
     </row>
     <row r="687">
@@ -23110,7 +23110,7 @@
         <v>7.691172128727487</v>
       </c>
       <c r="I687" t="n">
-        <v>15.40408887424864</v>
+        <v>15.36333952499892</v>
       </c>
     </row>
     <row r="688">
@@ -23143,7 +23143,7 @@
         <v>7.691172128727487</v>
       </c>
       <c r="I688" t="n">
-        <v>15.40408887424864</v>
+        <v>15.36333952499892</v>
       </c>
     </row>
     <row r="689">
@@ -23176,7 +23176,7 @@
         <v>7.724775946805436</v>
       </c>
       <c r="I689" t="n">
-        <v>15.43216327411471</v>
+        <v>15.391295054947</v>
       </c>
     </row>
     <row r="690">
@@ -23209,7 +23209,7 @@
         <v>7.724775946805436</v>
       </c>
       <c r="I690" t="n">
-        <v>15.43216327411471</v>
+        <v>15.391295054947</v>
       </c>
     </row>
     <row r="691">
@@ -23242,7 +23242,7 @@
         <v>7.724775946805436</v>
       </c>
       <c r="I691" t="n">
-        <v>15.43216327411471</v>
+        <v>15.391295054947</v>
       </c>
     </row>
     <row r="692">
@@ -23275,7 +23275,7 @@
         <v>7.724775946805436</v>
       </c>
       <c r="I692" t="n">
-        <v>15.43216327411471</v>
+        <v>15.391295054947</v>
       </c>
     </row>
     <row r="693">
@@ -23308,7 +23308,7 @@
         <v>7.758571833380561</v>
       </c>
       <c r="I693" t="n">
-        <v>15.46039813812146</v>
+        <v>15.41941036961396</v>
       </c>
     </row>
     <row r="694">
@@ -23341,7 +23341,7 @@
         <v>7.493277561995818</v>
       </c>
       <c r="I694" t="n">
-        <v>15.23875732814695</v>
+        <v>15.19870800979443</v>
       </c>
     </row>
     <row r="695">
@@ -23374,7 +23374,7 @@
         <v>7.493277561995818</v>
       </c>
       <c r="I695" t="n">
-        <v>15.23875732814695</v>
+        <v>15.19870800979443</v>
       </c>
     </row>
     <row r="696">
@@ -23407,7 +23407,7 @@
         <v>7.478338810875411</v>
       </c>
       <c r="I696" t="n">
-        <v>15.22627670848994</v>
+        <v>15.18628023437425</v>
       </c>
     </row>
     <row r="697">
@@ -23440,7 +23440,7 @@
         <v>7.478338810875411</v>
       </c>
       <c r="I697" t="n">
-        <v>15.22627670848994</v>
+        <v>15.18628023437425</v>
       </c>
     </row>
     <row r="698">
@@ -23473,7 +23473,7 @@
         <v>7.478338810875411</v>
       </c>
       <c r="I698" t="n">
-        <v>15.22627670848994</v>
+        <v>15.18628023437425</v>
       </c>
     </row>
     <row r="699">
@@ -23506,7 +23506,7 @@
         <v>7.589056711313765</v>
       </c>
       <c r="I699" t="n">
-        <v>15.31877627511739</v>
+        <v>15.27838814825216</v>
       </c>
     </row>
     <row r="700">
@@ -23539,7 +23539,7 @@
         <v>7.589056711313765</v>
       </c>
       <c r="I700" t="n">
-        <v>15.31877627511739</v>
+        <v>15.27838814825216</v>
       </c>
     </row>
     <row r="701">
@@ -23572,7 +23572,7 @@
         <v>8.143659473839788</v>
       </c>
       <c r="I701" t="n">
-        <v>15.78212063931627</v>
+        <v>15.7397706644031</v>
       </c>
     </row>
     <row r="702">
@@ -23605,7 +23605,7 @@
         <v>8.143659473839788</v>
       </c>
       <c r="I702" t="n">
-        <v>15.78212063931627</v>
+        <v>15.7397706644031</v>
       </c>
     </row>
     <row r="703">
@@ -23638,7 +23638,7 @@
         <v>8.008785596613157</v>
       </c>
       <c r="I703" t="n">
-        <v>15.6694398971469</v>
+        <v>15.62756702417161</v>
       </c>
     </row>
     <row r="704">
@@ -23671,7 +23671,7 @@
         <v>8.008785596613157</v>
       </c>
       <c r="I704" t="n">
-        <v>15.6694398971469</v>
+        <v>15.62756702417161</v>
       </c>
     </row>
     <row r="705">
@@ -23704,7 +23704,7 @@
         <v>8.372952984680401</v>
       </c>
       <c r="I705" t="n">
-        <v>15.97368451741791</v>
+        <v>15.93052344119577</v>
       </c>
     </row>
     <row r="706">
@@ -23737,7 +23737,7 @@
         <v>8.372952984680401</v>
       </c>
       <c r="I706" t="n">
-        <v>15.97368451741791</v>
+        <v>15.93052344119577</v>
       </c>
     </row>
     <row r="707">
@@ -23770,7 +23770,7 @@
         <v>10.6499847421422</v>
       </c>
       <c r="I707" t="n">
-        <v>17.8760368012695</v>
+        <v>17.8248209683633</v>
       </c>
     </row>
     <row r="708">
@@ -23803,7 +23803,7 @@
         <v>11.04184377066213</v>
       </c>
       <c r="I708" t="n">
-        <v>18.20341647676586</v>
+        <v>18.15081448439182</v>
       </c>
     </row>
     <row r="709">
@@ -23836,7 +23836,7 @@
         <v>7.203065134099616</v>
       </c>
       <c r="I709" t="n">
-        <v>14.99629857753828</v>
+        <v>14.95727585465846</v>
       </c>
     </row>
     <row r="710">
@@ -23869,7 +23869,7 @@
         <v>7.203065134099616</v>
       </c>
       <c r="I710" t="n">
-        <v>14.99629857753828</v>
+        <v>14.95727585465846</v>
       </c>
     </row>
     <row r="711">
@@ -23902,7 +23902,7 @@
         <v>7.339780682387674</v>
       </c>
       <c r="I711" t="n">
-        <v>15.11051794873129</v>
+        <v>15.07101160919888</v>
       </c>
     </row>
     <row r="712">
@@ -23935,7 +23935,7 @@
         <v>7.330331296236732</v>
       </c>
       <c r="I712" t="n">
-        <v>15.10262343374865</v>
+        <v>15.06315052041067</v>
       </c>
     </row>
     <row r="713">
@@ -23968,7 +23968,7 @@
         <v>7.330331296236732</v>
       </c>
       <c r="I713" t="n">
-        <v>15.10262343374865</v>
+        <v>15.06315052041067</v>
       </c>
     </row>
     <row r="714">
@@ -24001,7 +24001,7 @@
         <v>7.43147200281903</v>
       </c>
       <c r="I714" t="n">
-        <v>15.18712170810371</v>
+        <v>15.14729102031673</v>
       </c>
     </row>
     <row r="715">
@@ -24034,7 +24034,7 @@
         <v>7.410677143144929</v>
       </c>
       <c r="I715" t="n">
-        <v>15.16974858686209</v>
+        <v>15.12999145867058</v>
       </c>
     </row>
     <row r="716">
@@ -24067,7 +24067,7 @@
         <v>7.485140759902306</v>
       </c>
       <c r="I716" t="n">
-        <v>15.2319594150326</v>
+        <v>15.19193887974858</v>
       </c>
     </row>
     <row r="717">
@@ -24100,7 +24100,7 @@
         <v>7.488784545419692</v>
       </c>
       <c r="I717" t="n">
-        <v>15.23500362540786</v>
+        <v>15.19497020062168</v>
       </c>
     </row>
     <row r="718">
@@ -24133,7 +24133,7 @@
         <v>7.398826073524869</v>
       </c>
       <c r="I718" t="n">
-        <v>15.15984757898904</v>
+        <v>15.12013237269078</v>
       </c>
     </row>
     <row r="719">
@@ -24166,7 +24166,7 @@
         <v>7.398826073524869</v>
       </c>
       <c r="I719" t="n">
-        <v>15.15984757898904</v>
+        <v>15.12013237269078</v>
       </c>
     </row>
     <row r="720">
@@ -24199,7 +24199,7 @@
         <v>7.467514172069787</v>
       </c>
       <c r="I720" t="n">
-        <v>15.21723323499149</v>
+        <v>15.17727505187963</v>
       </c>
     </row>
     <row r="721">
@@ -24232,7 +24232,7 @@
         <v>7.565735996473276</v>
       </c>
       <c r="I721" t="n">
-        <v>15.29929292140813</v>
+        <v>15.25898728908129</v>
       </c>
     </row>
     <row r="722">
@@ -24265,7 +24265,7 @@
         <v>7.553127828497364</v>
       </c>
       <c r="I722" t="n">
-        <v>15.28875939368478</v>
+        <v>15.24849836140576</v>
       </c>
     </row>
     <row r="723">
@@ -24298,7 +24298,7 @@
         <v>7.553127828497364</v>
       </c>
       <c r="I723" t="n">
-        <v>15.28875939368478</v>
+        <v>15.24849836140576</v>
       </c>
     </row>
     <row r="724">
@@ -24331,7 +24331,7 @@
         <v>7.553127828497364</v>
       </c>
       <c r="I724" t="n">
-        <v>15.28875939368478</v>
+        <v>15.24849836140576</v>
       </c>
     </row>
     <row r="725">
@@ -24364,7 +24364,7 @@
         <v>7.637731831634986</v>
       </c>
       <c r="I725" t="n">
-        <v>15.35944203483128</v>
+        <v>15.31888172492579</v>
       </c>
     </row>
     <row r="726">
@@ -24397,7 +24397,7 @@
         <v>7.637731831634986</v>
       </c>
       <c r="I726" t="n">
-        <v>15.35944203483128</v>
+        <v>15.31888172492579</v>
       </c>
     </row>
     <row r="727">
@@ -24430,7 +24430,7 @@
         <v>7.637731831634986</v>
       </c>
       <c r="I727" t="n">
-        <v>15.35944203483128</v>
+        <v>15.31888172492579</v>
       </c>
     </row>
     <row r="728">
@@ -24463,7 +24463,7 @@
         <v>7.637731831634986</v>
       </c>
       <c r="I728" t="n">
-        <v>15.35944203483128</v>
+        <v>15.31888172492579</v>
       </c>
     </row>
     <row r="729">
@@ -24496,7 +24496,7 @@
         <v>7.460412309530923</v>
       </c>
       <c r="I729" t="n">
-        <v>15.21129996490154</v>
+        <v>15.17136690387003</v>
       </c>
     </row>
     <row r="730">
@@ -24529,7 +24529,7 @@
         <v>7.460412309530923</v>
       </c>
       <c r="I730" t="n">
-        <v>15.21129996490154</v>
+        <v>15.17136690387003</v>
       </c>
     </row>
     <row r="731">
@@ -24562,7 +24562,7 @@
         <v>7.460412309530923</v>
       </c>
       <c r="I731" t="n">
-        <v>15.21129996490154</v>
+        <v>15.17136690387003</v>
       </c>
     </row>
     <row r="732">
@@ -24595,7 +24595,7 @@
         <v>7.460412309530923</v>
       </c>
       <c r="I732" t="n">
-        <v>15.21129996490154</v>
+        <v>15.17136690387003</v>
       </c>
     </row>
     <row r="733">
@@ -24628,7 +24628,7 @@
         <v>7.557182067703569</v>
       </c>
       <c r="I733" t="n">
-        <v>15.29214651869432</v>
+        <v>15.25187114497705</v>
       </c>
     </row>
     <row r="734">
@@ -24661,7 +24661,7 @@
         <v>7.557182067703569</v>
       </c>
       <c r="I734" t="n">
-        <v>15.29214651869432</v>
+        <v>15.25187114497705</v>
       </c>
     </row>
     <row r="735">
@@ -24694,7 +24694,7 @@
         <v>7.460412309530923</v>
       </c>
       <c r="I735" t="n">
-        <v>15.21129996490154</v>
+        <v>15.17136690387003</v>
       </c>
     </row>
     <row r="736">
@@ -24727,7 +24727,7 @@
         <v>7.460412309530923</v>
       </c>
       <c r="I736" t="n">
-        <v>15.21129996490154</v>
+        <v>15.17136690387003</v>
       </c>
     </row>
     <row r="737">
@@ -24760,7 +24760,7 @@
         <v>7.460412309530923</v>
       </c>
       <c r="I737" t="n">
-        <v>15.21129996490154</v>
+        <v>15.17136690387003</v>
       </c>
     </row>
     <row r="738">
@@ -24793,7 +24793,7 @@
         <v>7.460412309530923</v>
       </c>
       <c r="I738" t="n">
-        <v>15.21129996490154</v>
+        <v>15.17136690387003</v>
       </c>
     </row>
     <row r="739">
@@ -24826,7 +24826,7 @@
         <v>7.557182067703569</v>
       </c>
       <c r="I739" t="n">
-        <v>15.29214651869432</v>
+        <v>15.25187114497705</v>
       </c>
     </row>
     <row r="740">
@@ -24859,7 +24859,7 @@
         <v>7.557182067703569</v>
       </c>
       <c r="I740" t="n">
-        <v>15.29214651869432</v>
+        <v>15.25187114497705</v>
       </c>
     </row>
     <row r="741">
@@ -24892,7 +24892,7 @@
         <v>7.629955784473299</v>
       </c>
       <c r="I741" t="n">
-        <v>15.35294551539149</v>
+        <v>15.31241271242245</v>
       </c>
     </row>
     <row r="742">
@@ -24925,7 +24925,7 @@
         <v>7.629955784473299</v>
       </c>
       <c r="I742" t="n">
-        <v>15.35294551539149</v>
+        <v>15.31241271242245</v>
       </c>
     </row>
     <row r="743">
@@ -24958,7 +24958,7 @@
         <v>7.629955784473299</v>
       </c>
       <c r="I743" t="n">
-        <v>15.35294551539149</v>
+        <v>15.31241271242245</v>
       </c>
     </row>
     <row r="744">
@@ -24991,7 +24991,7 @@
         <v>7.754076675471145</v>
       </c>
       <c r="I744" t="n">
-        <v>15.45664264639973</v>
+        <v>15.41567077903331</v>
       </c>
     </row>
     <row r="745">
@@ -25024,7 +25024,7 @@
         <v>7.754076675471145</v>
       </c>
       <c r="I745" t="n">
-        <v>15.45664264639973</v>
+        <v>15.41567077903331</v>
       </c>
     </row>
     <row r="746">
@@ -25057,7 +25057,7 @@
         <v>7.754076675471145</v>
       </c>
       <c r="I746" t="n">
-        <v>15.45664264639973</v>
+        <v>15.41567077903331</v>
       </c>
     </row>
     <row r="747">
@@ -25090,7 +25090,7 @@
         <v>7.824676487070331</v>
       </c>
       <c r="I747" t="n">
-        <v>15.51562544819645</v>
+        <v>15.47440384153566</v>
       </c>
     </row>
     <row r="748">
@@ -25123,7 +25123,7 @@
         <v>7.824676487070331</v>
       </c>
       <c r="I748" t="n">
-        <v>15.51562544819645</v>
+        <v>15.47440384153566</v>
       </c>
     </row>
     <row r="749">
@@ -25156,7 +25156,7 @@
         <v>7.549159304645198</v>
       </c>
       <c r="I749" t="n">
-        <v>15.28544387979749</v>
+        <v>15.2451968857478</v>
       </c>
     </row>
     <row r="750">
@@ -25189,7 +25189,7 @@
         <v>7.549159304645198</v>
       </c>
       <c r="I750" t="n">
-        <v>15.28544387979749</v>
+        <v>15.2451968857478</v>
       </c>
     </row>
     <row r="751">
@@ -25222,7 +25222,7 @@
         <v>7.598436191008099</v>
       </c>
       <c r="I751" t="n">
-        <v>15.32661238656353</v>
+        <v>15.28619108079048</v>
       </c>
     </row>
     <row r="752">
@@ -25255,7 +25255,7 @@
         <v>7.598436191008099</v>
       </c>
       <c r="I752" t="n">
-        <v>15.32661238656353</v>
+        <v>15.28619108079048</v>
       </c>
     </row>
     <row r="753">
@@ -25288,7 +25288,7 @@
         <v>7.549159304645198</v>
       </c>
       <c r="I753" t="n">
-        <v>15.28544387979749</v>
+        <v>15.2451968857478</v>
       </c>
     </row>
     <row r="754">
@@ -25321,7 +25321,7 @@
         <v>7.647705413575158</v>
       </c>
       <c r="I754" t="n">
-        <v>15.3677744905908</v>
+        <v>15.32717890020424</v>
       </c>
     </row>
     <row r="755">
@@ -25354,7 +25354,7 @@
         <v>7.549159304645198</v>
       </c>
       <c r="I755" t="n">
-        <v>15.28544387979749</v>
+        <v>15.2451968857478</v>
       </c>
     </row>
     <row r="756">
@@ -25387,7 +25387,7 @@
         <v>7.549159304645198</v>
       </c>
       <c r="I756" t="n">
-        <v>15.28544387979749</v>
+        <v>15.2451968857478</v>
       </c>
     </row>
     <row r="757">
@@ -25420,7 +25420,7 @@
         <v>7.598436191008099</v>
       </c>
       <c r="I757" t="n">
-        <v>15.32661238656353</v>
+        <v>15.28619108079048</v>
       </c>
     </row>
     <row r="758">
@@ -25453,7 +25453,7 @@
         <v>7.598436191008099</v>
       </c>
       <c r="I758" t="n">
-        <v>15.32661238656353</v>
+        <v>15.28619108079048</v>
       </c>
     </row>
     <row r="759">
@@ -25486,7 +25486,7 @@
         <v>7.549159304645198</v>
       </c>
       <c r="I759" t="n">
-        <v>15.28544387979749</v>
+        <v>15.2451968857478</v>
       </c>
     </row>
     <row r="760">
@@ -25519,7 +25519,7 @@
         <v>7.647705413575158</v>
       </c>
       <c r="I760" t="n">
-        <v>15.3677744905908</v>
+        <v>15.32717890020424</v>
       </c>
     </row>
     <row r="761">
@@ -25552,7 +25552,7 @@
         <v>7.892687505432471</v>
       </c>
       <c r="I761" t="n">
-        <v>15.57244543574573</v>
+        <v>15.53098324737019</v>
       </c>
     </row>
     <row r="762">
@@ -25585,7 +25585,7 @@
         <v>14.23334052188915</v>
       </c>
       <c r="I762" t="n">
-        <v>20.8697609902782</v>
+        <v>20.80586941895786</v>
       </c>
     </row>
     <row r="763">
@@ -25618,7 +25618,7 @@
         <v>14.23334052188915</v>
       </c>
       <c r="I763" t="n">
-        <v>20.8697609902782</v>
+        <v>20.80586941895786</v>
       </c>
     </row>
     <row r="764">
@@ -25651,7 +25651,7 @@
         <v>13.8235928401984</v>
       </c>
       <c r="I764" t="n">
-        <v>20.52743619155155</v>
+        <v>20.46499405889937</v>
       </c>
     </row>
     <row r="765">
@@ -25684,7 +25684,7 @@
         <v>14.02818068794032</v>
       </c>
       <c r="I765" t="n">
-        <v>20.69835965721018</v>
+        <v>20.63519381689398</v>
       </c>
     </row>
   </sheetData>

--- a/test_env/database_creation/rawdata/emissions/icao_cruise_emissions.xlsx
+++ b/test_env/database_creation/rawdata/emissions/icao_cruise_emissions.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -505,7 +505,7 @@
         <v>15.92248062015504</v>
       </c>
       <c r="I2" t="n">
-        <v>22.21109088795982</v>
+        <v>22.39930546925957</v>
       </c>
     </row>
     <row r="3">
@@ -538,7 +538,7 @@
         <v>14.66400199850112</v>
       </c>
       <c r="I3" t="n">
-        <v>21.1641432847127</v>
+        <v>21.3258022372695</v>
       </c>
     </row>
     <row r="4">
@@ -571,7 +571,7 @@
         <v>15.1585623678647</v>
       </c>
       <c r="I4" t="n">
-        <v>21.57557561614613</v>
+        <v>21.74767047228828</v>
       </c>
     </row>
     <row r="5">
@@ -604,7 +604,7 @@
         <v>16.43835616438356</v>
       </c>
       <c r="I5" t="n">
-        <v>22.64025563920053</v>
+        <v>22.83935590357378</v>
       </c>
     </row>
     <row r="6">
@@ -637,7 +637,7 @@
         <v>10.28493150684931</v>
       </c>
       <c r="I6" t="n">
-        <v>17.52112760149052</v>
+        <v>17.59038214747691</v>
       </c>
     </row>
     <row r="7">
@@ -670,7 +670,7 @@
         <v>10.22465753424658</v>
       </c>
       <c r="I7" t="n">
-        <v>17.47098476229656</v>
+        <v>17.53896744461221</v>
       </c>
     </row>
     <row r="8">
@@ -703,7 +703,7 @@
         <v>15.37037037037037</v>
       </c>
       <c r="I8" t="n">
-        <v>21.75178193126052</v>
+        <v>21.92834622739358</v>
       </c>
     </row>
     <row r="9">
@@ -736,7 +736,7 @@
         <v>17.53451676528599</v>
       </c>
       <c r="I9" t="n">
-        <v>23.55216839968946</v>
+        <v>23.77439915945558</v>
       </c>
     </row>
     <row r="10">
@@ -769,7 +769,7 @@
         <v>17.53451676528599</v>
       </c>
       <c r="I10" t="n">
-        <v>23.55216839968946</v>
+        <v>23.77439915945558</v>
       </c>
     </row>
     <row r="11">
@@ -802,7 +802,7 @@
         <v>10.90617848970252</v>
       </c>
       <c r="I11" t="n">
-        <v>18.03795246329697</v>
+        <v>18.12031617454884</v>
       </c>
     </row>
     <row r="12">
@@ -835,7 +835,7 @@
         <v>10.15081967213115</v>
       </c>
       <c r="I12" t="n">
-        <v>17.40955791607088</v>
+        <v>17.47598251800298</v>
       </c>
     </row>
     <row r="13">
@@ -868,7 +868,7 @@
         <v>10.14792899408284</v>
       </c>
       <c r="I13" t="n">
-        <v>17.40715311681378</v>
+        <v>17.47351672146571</v>
       </c>
     </row>
     <row r="14">
@@ -901,7 +901,7 @@
         <v>10.61106155218555</v>
       </c>
       <c r="I14" t="n">
-        <v>17.79244017163407</v>
+        <v>17.86857650985504</v>
       </c>
     </row>
     <row r="15">
@@ -934,7 +934,7 @@
         <v>10.61106155218555</v>
       </c>
       <c r="I15" t="n">
-        <v>17.79244017163407</v>
+        <v>17.86857650985504</v>
       </c>
     </row>
     <row r="16">
@@ -967,7 +967,7 @@
         <v>10.79427083333333</v>
       </c>
       <c r="I16" t="n">
-        <v>17.94485477327285</v>
+        <v>18.02485707915406</v>
       </c>
     </row>
     <row r="17">
@@ -1000,7 +1000,7 @@
         <v>10.79427083333333</v>
       </c>
       <c r="I17" t="n">
-        <v>17.94485477327285</v>
+        <v>18.02485707915406</v>
       </c>
     </row>
     <row r="18">
@@ -1033,7 +1033,7 @@
         <v>9.931350114416475</v>
       </c>
       <c r="I18" t="n">
-        <v>17.22697783605879</v>
+        <v>17.28877132865397</v>
       </c>
     </row>
     <row r="19">
@@ -1066,7 +1066,7 @@
         <v>9.931350114416475</v>
       </c>
       <c r="I19" t="n">
-        <v>17.22697783605879</v>
+        <v>17.28877132865397</v>
       </c>
     </row>
     <row r="20">
@@ -1099,7 +1099,7 @@
         <v>13.14102564102564</v>
       </c>
       <c r="I20" t="n">
-        <v>19.8971559717574</v>
+        <v>20.02667802978337</v>
       </c>
     </row>
     <row r="21">
@@ -1132,7 +1132,7 @@
         <v>9.961517317207257</v>
       </c>
       <c r="I21" t="n">
-        <v>17.25207439321522</v>
+        <v>17.31450445525524</v>
       </c>
     </row>
     <row r="22">
@@ -1165,7 +1165,7 @@
         <v>9.961517317207257</v>
       </c>
       <c r="I22" t="n">
-        <v>17.25207439321522</v>
+        <v>17.31450445525524</v>
       </c>
     </row>
     <row r="23">
@@ -1198,7 +1198,7 @@
         <v>10.35581000848176</v>
       </c>
       <c r="I23" t="n">
-        <v>17.58009251049177</v>
+        <v>17.65084269028776</v>
       </c>
     </row>
     <row r="24">
@@ -1231,7 +1231,7 @@
         <v>10.35581000848176</v>
       </c>
       <c r="I24" t="n">
-        <v>17.58009251049177</v>
+        <v>17.65084269028776</v>
       </c>
     </row>
     <row r="25">
@@ -1264,7 +1264,7 @@
         <v>10.35800636267232</v>
       </c>
       <c r="I25" t="n">
-        <v>17.58191969111774</v>
+        <v>17.65271621700613</v>
       </c>
     </row>
     <row r="26">
@@ -1297,7 +1297,7 @@
         <v>8.951804625027018</v>
       </c>
       <c r="I26" t="n">
-        <v>16.41207896948921</v>
+        <v>16.45320270583628</v>
       </c>
     </row>
     <row r="27">
@@ -1330,7 +1330,7 @@
         <v>9.61783439490446</v>
       </c>
       <c r="I27" t="n">
-        <v>16.96615931639889</v>
+        <v>17.02133719637327</v>
       </c>
     </row>
     <row r="28">
@@ -1363,7 +1363,7 @@
         <v>9.221116399826915</v>
       </c>
       <c r="I28" t="n">
-        <v>16.63612355181388</v>
+        <v>16.68293013678836</v>
       </c>
     </row>
     <row r="29">
@@ -1396,7 +1396,7 @@
         <v>17.08732230925442</v>
       </c>
       <c r="I29" t="n">
-        <v>23.18014049562197</v>
+        <v>23.39293483768028</v>
       </c>
     </row>
     <row r="30">
@@ -1429,7 +1429,7 @@
         <v>9.880348078317622</v>
       </c>
       <c r="I30" t="n">
-        <v>17.18454846257905</v>
+        <v>17.24526574210834</v>
       </c>
     </row>
     <row r="31">
@@ -1462,7 +1462,7 @@
         <v>9.072209127919434</v>
       </c>
       <c r="I31" t="n">
-        <v>16.51224531602413</v>
+        <v>16.55590975288274</v>
       </c>
     </row>
     <row r="32">
@@ -1495,7 +1495,7 @@
         <v>15.8856592259515</v>
       </c>
       <c r="I32" t="n">
-        <v>22.18045860724698</v>
+        <v>22.36789620651664</v>
       </c>
     </row>
     <row r="33">
@@ -1528,7 +1528,7 @@
         <v>9.072209127919434</v>
       </c>
       <c r="I33" t="n">
-        <v>16.51224531602413</v>
+        <v>16.55590975288274</v>
       </c>
     </row>
     <row r="34">
@@ -1561,7 +1561,7 @@
         <v>9.258605125789867</v>
       </c>
       <c r="I34" t="n">
-        <v>16.66731099601863</v>
+        <v>16.71490864464059</v>
       </c>
     </row>
     <row r="35">
@@ -1594,7 +1594,7 @@
         <v>9.763313609467454</v>
       </c>
       <c r="I35" t="n">
-        <v>17.08718569888033</v>
+        <v>17.14543339024862</v>
       </c>
     </row>
     <row r="36">
@@ -1627,7 +1627,7 @@
         <v>17.49332583953913</v>
       </c>
       <c r="I36" t="n">
-        <v>23.51790103889033</v>
+        <v>23.73926261350472</v>
       </c>
     </row>
     <row r="37">
@@ -1660,7 +1660,7 @@
         <v>16.12403100775194</v>
       </c>
       <c r="I37" t="n">
-        <v>22.37876373642727</v>
+        <v>22.57123130794388</v>
       </c>
     </row>
     <row r="38">
@@ -1693,7 +1693,7 @@
         <v>16.8015587529976</v>
       </c>
       <c r="I38" t="n">
-        <v>22.94240942481104</v>
+        <v>23.14917376303961</v>
       </c>
     </row>
     <row r="39">
@@ -1726,7 +1726,7 @@
         <v>9.205662603224537</v>
       </c>
       <c r="I39" t="n">
-        <v>16.62326730218394</v>
+        <v>16.66974779080829</v>
       </c>
     </row>
     <row r="40">
@@ -1759,7 +1759,7 @@
         <v>9.553764497739337</v>
       </c>
       <c r="I40" t="n">
-        <v>16.91285858953461</v>
+        <v>16.96668450661232</v>
       </c>
     </row>
     <row r="41">
@@ -1792,7 +1792,7 @@
         <v>9.51203984571022</v>
       </c>
       <c r="I41" t="n">
-        <v>16.8781472136824</v>
+        <v>16.9310926832502</v>
       </c>
     </row>
     <row r="42">
@@ -1825,7 +1825,7 @@
         <v>9.51203984571022</v>
       </c>
       <c r="I42" t="n">
-        <v>16.8781472136824</v>
+        <v>16.9310926832502</v>
       </c>
     </row>
     <row r="43">
@@ -1858,7 +1858,7 @@
         <v>9.252850963429021</v>
       </c>
       <c r="I43" t="n">
-        <v>16.66252402038891</v>
+        <v>16.71000024827574</v>
       </c>
     </row>
     <row r="44">
@@ -1891,7 +1891,7 @@
         <v>9.598579040852576</v>
       </c>
       <c r="I44" t="n">
-        <v>16.95014049301372</v>
+        <v>17.00491205855039</v>
       </c>
     </row>
     <row r="45">
@@ -1924,7 +1924,7 @@
         <v>9.806430446194225</v>
       </c>
       <c r="I45" t="n">
-        <v>17.12305525446433</v>
+        <v>17.18221277035326</v>
       </c>
     </row>
     <row r="46">
@@ -1957,7 +1957,7 @@
         <v>9.176706827309237</v>
       </c>
       <c r="I46" t="n">
-        <v>16.59917854956386</v>
+        <v>16.64504803151559</v>
       </c>
     </row>
     <row r="47">
@@ -1990,7 +1990,7 @@
         <v>9.641114982578395</v>
       </c>
       <c r="I47" t="n">
-        <v>16.9855267931665</v>
+        <v>17.04119592554083</v>
       </c>
     </row>
     <row r="48">
@@ -2023,7 +2023,7 @@
         <v>9.369994660971702</v>
       </c>
       <c r="I48" t="n">
-        <v>16.75997765310667</v>
+        <v>16.80992577403006</v>
       </c>
     </row>
     <row r="49">
@@ -2056,7 +2056,7 @@
         <v>9.73970473970474</v>
       </c>
       <c r="I49" t="n">
-        <v>17.06754511922475</v>
+        <v>17.12529463098976</v>
       </c>
     </row>
     <row r="50">
@@ -2089,7 +2089,7 @@
         <v>9.324009324009324</v>
       </c>
       <c r="I50" t="n">
-        <v>16.72172174832698</v>
+        <v>16.77069951543189</v>
       </c>
     </row>
     <row r="51">
@@ -2122,7 +2122,7 @@
         <v>13.63636363636364</v>
       </c>
       <c r="I51" t="n">
-        <v>20.30923522212623</v>
+        <v>20.44920959271448</v>
       </c>
     </row>
     <row r="52">
@@ -2155,7 +2155,7 @@
         <v>9.616239442880428</v>
       </c>
       <c r="I52" t="n">
-        <v>16.96483245142866</v>
+        <v>17.01997667572301</v>
       </c>
     </row>
     <row r="53">
@@ -2188,7 +2188,7 @@
         <v>9.65581743359521</v>
       </c>
       <c r="I53" t="n">
-        <v>16.99775798691827</v>
+        <v>17.05373736121813</v>
       </c>
     </row>
     <row r="54">
@@ -2221,7 +2221,7 @@
         <v>9.65581743359521</v>
       </c>
       <c r="I54" t="n">
-        <v>16.99775798691827</v>
+        <v>17.05373736121813</v>
       </c>
     </row>
     <row r="55">
@@ -2254,7 +2254,7 @@
         <v>9.651946107784433</v>
       </c>
       <c r="I55" t="n">
-        <v>16.99453737179677</v>
+        <v>17.05043505580074</v>
       </c>
     </row>
     <row r="56">
@@ -2287,7 +2287,7 @@
         <v>9.369994660971702</v>
       </c>
       <c r="I56" t="n">
-        <v>16.75997765310667</v>
+        <v>16.80992577403006</v>
       </c>
     </row>
     <row r="57">
@@ -2320,7 +2320,7 @@
         <v>9.854851031321621</v>
       </c>
       <c r="I57" t="n">
-        <v>17.16333707941924</v>
+        <v>17.22351633621026</v>
       </c>
     </row>
     <row r="58">
@@ -2353,7 +2353,7 @@
         <v>9.983163315836387</v>
       </c>
       <c r="I58" t="n">
-        <v>17.2700820303691</v>
+        <v>17.33296885273343</v>
       </c>
     </row>
     <row r="59">
@@ -2386,7 +2386,7 @@
         <v>9.947984395318596</v>
       </c>
       <c r="I59" t="n">
-        <v>17.24081614862331</v>
+        <v>17.30296064740998</v>
       </c>
     </row>
     <row r="60">
@@ -2419,7 +2419,7 @@
         <v>9.947984395318596</v>
       </c>
       <c r="I60" t="n">
-        <v>17.24081614862331</v>
+        <v>17.30296064740998</v>
       </c>
     </row>
     <row r="61">
@@ -2452,7 +2452,7 @@
         <v>9.114208633093526</v>
       </c>
       <c r="I61" t="n">
-        <v>16.54718534640923</v>
+        <v>16.5917360305569</v>
       </c>
     </row>
     <row r="62">
@@ -2485,7 +2485,7 @@
         <v>11.97305389221557</v>
       </c>
       <c r="I62" t="n">
-        <v>18.92550241957387</v>
+        <v>19.030378668279</v>
       </c>
     </row>
     <row r="63">
@@ -2518,7 +2518,7 @@
         <v>11.73559101269945</v>
       </c>
       <c r="I63" t="n">
-        <v>18.72795342009795</v>
+        <v>18.82781887564366</v>
       </c>
     </row>
     <row r="64">
@@ -2551,7 +2551,7 @@
         <v>11.73559101269945</v>
       </c>
       <c r="I64" t="n">
-        <v>18.72795342009795</v>
+        <v>18.82781887564366</v>
       </c>
     </row>
     <row r="65">
@@ -2584,7 +2584,7 @@
         <v>16.48166362231277</v>
       </c>
       <c r="I65" t="n">
-        <v>22.6762837754768</v>
+        <v>22.87629788674007</v>
       </c>
     </row>
     <row r="66">
@@ -2617,7 +2617,7 @@
         <v>10.11611704598235</v>
       </c>
       <c r="I66" t="n">
-        <v>17.3806882708916</v>
+        <v>17.4463805997119</v>
       </c>
     </row>
     <row r="67">
@@ -2650,7 +2650,7 @@
         <v>11.66442953020134</v>
       </c>
       <c r="I67" t="n">
-        <v>18.66875309498874</v>
+        <v>18.76711694543962</v>
       </c>
     </row>
     <row r="68">
@@ -2683,7 +2683,7 @@
         <v>10.1937984496124</v>
       </c>
       <c r="I68" t="n">
-        <v>17.44531261805808</v>
+        <v>17.51264413127097</v>
       </c>
     </row>
     <row r="69">
@@ -2716,7 +2716,7 @@
         <v>10.1937984496124</v>
       </c>
       <c r="I69" t="n">
-        <v>17.44531261805808</v>
+        <v>17.51264413127097</v>
       </c>
     </row>
     <row r="70">
@@ -2749,7 +2749,7 @@
         <v>10.27298850574713</v>
       </c>
       <c r="I70" t="n">
-        <v>17.5111920363054</v>
+        <v>17.58019456855244</v>
       </c>
     </row>
     <row r="71">
@@ -2782,7 +2782,7 @@
         <v>10.26315789473684</v>
       </c>
       <c r="I71" t="n">
-        <v>17.50301380072906</v>
+        <v>17.57180889357124</v>
       </c>
     </row>
     <row r="72">
@@ -2815,7 +2815,7 @@
         <v>10.41108545034642</v>
       </c>
       <c r="I72" t="n">
-        <v>17.62607699555403</v>
+        <v>17.69799356315154</v>
       </c>
     </row>
     <row r="73">
@@ -2848,7 +2848,7 @@
         <v>10.34894398530762</v>
       </c>
       <c r="I73" t="n">
-        <v>17.57438056085486</v>
+        <v>17.64498585812428</v>
       </c>
     </row>
     <row r="74">
@@ -2881,7 +2881,7 @@
         <v>9.195849546044098</v>
       </c>
       <c r="I74" t="n">
-        <v>16.61510366990699</v>
+        <v>16.66137708953642</v>
       </c>
     </row>
     <row r="75">
@@ -2914,7 +2914,7 @@
         <v>11.7784911717496</v>
       </c>
       <c r="I75" t="n">
-        <v>18.76364271821051</v>
+        <v>18.86441342608005</v>
       </c>
     </row>
     <row r="76">
@@ -2947,7 +2947,7 @@
         <v>11.7784911717496</v>
       </c>
       <c r="I76" t="n">
-        <v>18.76364271821051</v>
+        <v>18.86441342608005</v>
       </c>
     </row>
     <row r="77">
@@ -2980,7 +2980,7 @@
         <v>10.24157660521297</v>
       </c>
       <c r="I77" t="n">
-        <v>17.48505999606903</v>
+        <v>17.55339969403796</v>
       </c>
     </row>
     <row r="78">
@@ -3013,7 +3013,7 @@
         <v>10.28293016497136</v>
       </c>
       <c r="I78" t="n">
-        <v>17.51946265458848</v>
+        <v>17.58867496951034</v>
       </c>
     </row>
     <row r="79">
@@ -3046,7 +3046,7 @@
         <v>9.790209790209792</v>
       </c>
       <c r="I79" t="n">
-        <v>17.10956104279176</v>
+        <v>17.16837628054352</v>
       </c>
     </row>
     <row r="80">
@@ -3079,7 +3079,7 @@
         <v>9.098176004650824</v>
       </c>
       <c r="I80" t="n">
-        <v>16.53384755772294</v>
+        <v>16.57805993137302</v>
       </c>
     </row>
     <row r="81">
@@ -3112,7 +3112,7 @@
         <v>10.16205266711681</v>
       </c>
       <c r="I81" t="n">
-        <v>17.41890281631406</v>
+        <v>17.48556444988053</v>
       </c>
     </row>
     <row r="82">
@@ -3145,7 +3145,7 @@
         <v>9.424989191526157</v>
       </c>
       <c r="I82" t="n">
-        <v>16.8057284437558</v>
+        <v>16.85683702486592</v>
       </c>
     </row>
     <row r="83">
@@ -3178,7 +3178,7 @@
         <v>10.06090133982948</v>
       </c>
       <c r="I83" t="n">
-        <v>17.33475348088112</v>
+        <v>17.39928068240554</v>
       </c>
     </row>
     <row r="84">
@@ -3211,7 +3211,7 @@
         <v>10.85757575757576</v>
       </c>
       <c r="I84" t="n">
-        <v>17.99751910746889</v>
+        <v>18.0788572342666</v>
       </c>
     </row>
     <row r="85">
@@ -3244,7 +3244,7 @@
         <v>10.41666666666667</v>
       </c>
       <c r="I85" t="n">
-        <v>17.63072009472882</v>
+        <v>17.70275443366227</v>
       </c>
     </row>
     <row r="86">
@@ -3277,7 +3277,7 @@
         <v>10.19353128313892</v>
       </c>
       <c r="I86" t="n">
-        <v>17.44509035818471</v>
+        <v>17.51241623381779</v>
       </c>
     </row>
     <row r="87">
@@ -3310,7 +3310,7 @@
         <v>10.19353128313892</v>
       </c>
       <c r="I87" t="n">
-        <v>17.44509035818471</v>
+        <v>17.51241623381779</v>
       </c>
     </row>
     <row r="88">
@@ -3343,7 +3343,7 @@
         <v>9.942758566611777</v>
       </c>
       <c r="I88" t="n">
-        <v>17.23646870183681</v>
+        <v>17.29850292845467</v>
       </c>
     </row>
     <row r="89">
@@ -3376,7 +3376,7 @@
         <v>9.941978986984475</v>
       </c>
       <c r="I89" t="n">
-        <v>17.23582015762772</v>
+        <v>17.29783793404387</v>
       </c>
     </row>
     <row r="90">
@@ -3409,7 +3409,7 @@
         <v>11.55161290322581</v>
       </c>
       <c r="I90" t="n">
-        <v>18.5748992184221</v>
+        <v>18.67088248297311</v>
       </c>
     </row>
     <row r="91">
@@ -3442,7 +3442,7 @@
         <v>9.497129418274886</v>
       </c>
       <c r="I91" t="n">
-        <v>16.8657430011688</v>
+        <v>16.91837384022277</v>
       </c>
     </row>
     <row r="92">
@@ -3475,7 +3475,7 @@
         <v>10.85930408472012</v>
       </c>
       <c r="I92" t="n">
-        <v>17.99895692924058</v>
+        <v>18.08033152611669</v>
       </c>
     </row>
     <row r="93">
@@ -3508,7 +3508,7 @@
         <v>10.23255813953488</v>
       </c>
       <c r="I93" t="n">
-        <v>17.47755739660951</v>
+        <v>17.54570679255642</v>
       </c>
     </row>
     <row r="94">
@@ -3541,7 +3541,7 @@
         <v>10.23255813953488</v>
       </c>
       <c r="I94" t="n">
-        <v>17.47755739660951</v>
+        <v>17.54570679255642</v>
       </c>
     </row>
     <row r="95">
@@ -3574,7 +3574,7 @@
         <v>11.51983151983152</v>
       </c>
       <c r="I95" t="n">
-        <v>18.54845979974625</v>
+        <v>18.64377243342293</v>
       </c>
     </row>
     <row r="96">
@@ -3607,7 +3607,7 @@
         <v>10.95279217040875</v>
       </c>
       <c r="I96" t="n">
-        <v>18.07673109684244</v>
+        <v>18.16007842082946</v>
       </c>
     </row>
     <row r="97">
@@ -3640,7 +3640,7 @@
         <v>8.850540216086435</v>
       </c>
       <c r="I97" t="n">
-        <v>16.3278355597003</v>
+        <v>16.366822477827</v>
       </c>
     </row>
     <row r="98">
@@ -3673,7 +3673,7 @@
         <v>10.95567069660334</v>
       </c>
       <c r="I98" t="n">
-        <v>18.07912578678667</v>
+        <v>18.16253385163304</v>
       </c>
     </row>
     <row r="99">
@@ -3706,7 +3706,7 @@
         <v>10.9596104268118</v>
       </c>
       <c r="I99" t="n">
-        <v>18.08240330857228</v>
+        <v>18.16589450714135</v>
       </c>
     </row>
     <row r="100">
@@ -3739,7 +3739,7 @@
         <v>9.626446280991736</v>
       </c>
       <c r="I100" t="n">
-        <v>16.97332367608159</v>
+        <v>17.02868327868976</v>
       </c>
     </row>
     <row r="101">
@@ -3772,7 +3772,7 @@
         <v>10.34647550776583</v>
       </c>
       <c r="I101" t="n">
-        <v>17.57232699665315</v>
+        <v>17.64288020565342</v>
       </c>
     </row>
     <row r="102">
@@ -3805,7 +3805,7 @@
         <v>10.34647550776583</v>
       </c>
       <c r="I102" t="n">
-        <v>17.57232699665315</v>
+        <v>17.64288020565342</v>
       </c>
     </row>
     <row r="103">
@@ -3838,7 +3838,7 @@
         <v>10.34647550776583</v>
       </c>
       <c r="I103" t="n">
-        <v>17.57232699665315</v>
+        <v>17.64288020565342</v>
       </c>
     </row>
     <row r="104">
@@ -3871,7 +3871,7 @@
         <v>10.16205266711681</v>
       </c>
       <c r="I104" t="n">
-        <v>17.41890281631406</v>
+        <v>17.48556444988053</v>
       </c>
     </row>
     <row r="105">
@@ -3904,7 +3904,7 @@
         <v>10.16205266711681</v>
       </c>
       <c r="I105" t="n">
-        <v>17.41890281631406</v>
+        <v>17.48556444988053</v>
       </c>
     </row>
     <row r="106">
@@ -3937,7 +3937,7 @@
         <v>10.23255813953488</v>
       </c>
       <c r="I106" t="n">
-        <v>17.47755739660951</v>
+        <v>17.54570679255642</v>
       </c>
     </row>
     <row r="107">
@@ -3970,7 +3970,7 @@
         <v>10.23255813953488</v>
       </c>
       <c r="I107" t="n">
-        <v>17.47755739660951</v>
+        <v>17.54570679255642</v>
       </c>
     </row>
     <row r="108">
@@ -4003,7 +4003,7 @@
         <v>10.22222222222222</v>
       </c>
       <c r="I108" t="n">
-        <v>17.4689587889958</v>
+        <v>17.5368900828803</v>
       </c>
     </row>
     <row r="109">
@@ -4036,7 +4036,7 @@
         <v>10.24157660521297</v>
       </c>
       <c r="I109" t="n">
-        <v>17.48505999606903</v>
+        <v>17.55339969403796</v>
       </c>
     </row>
     <row r="110">
@@ -4069,7 +4069,7 @@
         <v>9.437976716178243</v>
       </c>
       <c r="I110" t="n">
-        <v>16.81653296404931</v>
+        <v>16.86791559978144</v>
       </c>
     </row>
     <row r="111">
@@ -4102,7 +4102,7 @@
         <v>11.54193548387097</v>
       </c>
       <c r="I111" t="n">
-        <v>18.56684842532572</v>
+        <v>18.66262748302636</v>
       </c>
     </row>
     <row r="112">
@@ -4135,7 +4135,7 @@
         <v>10.85757575757576</v>
       </c>
       <c r="I112" t="n">
-        <v>17.99751910746889</v>
+        <v>18.0788572342666</v>
       </c>
     </row>
     <row r="113">
@@ -4168,7 +4168,7 @@
         <v>9.731772738356499</v>
       </c>
       <c r="I113" t="n">
-        <v>17.0609463660496</v>
+        <v>17.11852850168333</v>
       </c>
     </row>
     <row r="114">
@@ -4201,7 +4201,7 @@
         <v>9.731772738356499</v>
       </c>
       <c r="I114" t="n">
-        <v>17.0609463660496</v>
+        <v>17.11852850168333</v>
       </c>
     </row>
     <row r="115">
@@ -4234,7 +4234,7 @@
         <v>8.985422740524781</v>
       </c>
       <c r="I115" t="n">
-        <v>16.44004639367939</v>
+        <v>16.48187951847283</v>
       </c>
     </row>
     <row r="116">
@@ -4267,7 +4267,7 @@
         <v>10.85930408472012</v>
       </c>
       <c r="I116" t="n">
-        <v>17.99895692924058</v>
+        <v>18.08033152611669</v>
       </c>
     </row>
     <row r="117">
@@ -4300,7 +4300,7 @@
         <v>9.282296650717702</v>
       </c>
       <c r="I117" t="n">
-        <v>16.6870203377696</v>
+        <v>16.73511791013243</v>
       </c>
     </row>
     <row r="118">
@@ -4333,7 +4333,7 @@
         <v>15.7124243121024</v>
       </c>
       <c r="I118" t="n">
-        <v>22.03634183423841</v>
+        <v>22.22012393870797</v>
       </c>
     </row>
     <row r="119">
@@ -4366,7 +4366,7 @@
         <v>8.769792935444579</v>
       </c>
       <c r="I119" t="n">
-        <v>16.26066066258078</v>
+        <v>16.29794370209577</v>
       </c>
     </row>
     <row r="120">
@@ -4399,7 +4399,7 @@
         <v>9.711649365628602</v>
       </c>
       <c r="I120" t="n">
-        <v>17.04420542465877</v>
+        <v>17.10136292946761</v>
       </c>
     </row>
     <row r="121">
@@ -4432,7 +4432,7 @@
         <v>9.224392300126457</v>
       </c>
       <c r="I121" t="n">
-        <v>16.63884882335054</v>
+        <v>16.68572453432419</v>
       </c>
     </row>
     <row r="122">
@@ -4465,7 +4465,7 @@
         <v>9.403131115459882</v>
       </c>
       <c r="I122" t="n">
-        <v>16.78754437614001</v>
+        <v>16.83819172180039</v>
       </c>
     </row>
     <row r="123">
@@ -4498,7 +4498,7 @@
         <v>8.972073677956033</v>
       </c>
       <c r="I123" t="n">
-        <v>16.42894110446631</v>
+        <v>16.47049254569076</v>
       </c>
     </row>
     <row r="124">
@@ -4531,7 +4531,7 @@
         <v>11.80126535169334</v>
       </c>
       <c r="I124" t="n">
-        <v>18.78258890664609</v>
+        <v>18.88384018101642</v>
       </c>
     </row>
     <row r="125">
@@ -4564,7 +4564,7 @@
         <v>11.78372352285396</v>
       </c>
       <c r="I125" t="n">
-        <v>18.76799559107922</v>
+        <v>18.86887670874913</v>
       </c>
     </row>
     <row r="126">
@@ -4597,7 +4597,7 @@
         <v>10.40621266427718</v>
       </c>
       <c r="I126" t="n">
-        <v>17.62202325033456</v>
+        <v>17.69383699544819</v>
       </c>
     </row>
     <row r="127">
@@ -4630,7 +4630,7 @@
         <v>10.40621266427718</v>
       </c>
       <c r="I127" t="n">
-        <v>17.62202325033456</v>
+        <v>17.69383699544819</v>
       </c>
     </row>
     <row r="128">
@@ -4663,7 +4663,7 @@
         <v>10.40621266427718</v>
       </c>
       <c r="I128" t="n">
-        <v>17.62202325033456</v>
+        <v>17.69383699544819</v>
       </c>
     </row>
     <row r="129">
@@ -4696,7 +4696,7 @@
         <v>11.33246244284781</v>
       </c>
       <c r="I129" t="n">
-        <v>18.39258460036231</v>
+        <v>18.48394348896882</v>
       </c>
     </row>
     <row r="130">
@@ -4729,7 +4729,7 @@
         <v>9.620155038759689</v>
       </c>
       <c r="I130" t="n">
-        <v>16.96808989549687</v>
+        <v>17.0233167442464</v>
       </c>
     </row>
     <row r="131">
@@ -4762,7 +4762,7 @@
         <v>9.126289161315432</v>
       </c>
       <c r="I131" t="n">
-        <v>16.55723532250756</v>
+        <v>16.60204092240586</v>
       </c>
     </row>
     <row r="132">
@@ -4795,7 +4795,7 @@
         <v>10.85757575757576</v>
       </c>
       <c r="I132" t="n">
-        <v>17.99751910746889</v>
+        <v>18.0788572342666</v>
       </c>
     </row>
     <row r="133">
@@ -4828,7 +4828,7 @@
         <v>10.85757575757576</v>
       </c>
       <c r="I133" t="n">
-        <v>17.99751910746889</v>
+        <v>18.0788572342666</v>
       </c>
     </row>
     <row r="134">
@@ -4861,7 +4861,7 @@
         <v>7.933451668221067</v>
       </c>
       <c r="I134" t="n">
-        <v>15.56489557754058</v>
+        <v>15.58453066673473</v>
       </c>
     </row>
     <row r="135">
@@ -4894,7 +4894,7 @@
         <v>13.91355140186916</v>
       </c>
       <c r="I135" t="n">
-        <v>20.53983196151625</v>
+        <v>20.68565537496164</v>
       </c>
     </row>
     <row r="136">
@@ -4927,7 +4927,7 @@
         <v>10.39426523297491</v>
       </c>
       <c r="I136" t="n">
-        <v>17.61208399959828</v>
+        <v>17.68364563748924</v>
       </c>
     </row>
     <row r="137">
@@ -4960,7 +4960,7 @@
         <v>10.39426523297491</v>
       </c>
       <c r="I137" t="n">
-        <v>17.61208399959828</v>
+        <v>17.68364563748924</v>
       </c>
     </row>
     <row r="138">
@@ -4993,7 +4993,7 @@
         <v>10.39426523297491</v>
       </c>
       <c r="I138" t="n">
-        <v>17.61208399959828</v>
+        <v>17.68364563748924</v>
       </c>
     </row>
     <row r="139">
@@ -5026,7 +5026,7 @@
         <v>10.39426523297491</v>
       </c>
       <c r="I139" t="n">
-        <v>17.61208399959828</v>
+        <v>17.68364563748924</v>
       </c>
     </row>
     <row r="140">
@@ -5059,7 +5059,7 @@
         <v>9.92440868080956</v>
       </c>
       <c r="I140" t="n">
-        <v>17.22120315133009</v>
+        <v>17.28285017013491</v>
       </c>
     </row>
     <row r="141">
@@ -5092,7 +5092,7 @@
         <v>9.92440868080956</v>
       </c>
       <c r="I141" t="n">
-        <v>17.22120315133009</v>
+        <v>17.28285017013491</v>
       </c>
     </row>
     <row r="142">
@@ -5125,7 +5125,7 @@
         <v>10.95279217040875</v>
       </c>
       <c r="I142" t="n">
-        <v>18.07673109684244</v>
+        <v>18.16007842082946</v>
       </c>
     </row>
     <row r="143">
@@ -5158,7 +5158,7 @@
         <v>10.95279217040875</v>
       </c>
       <c r="I143" t="n">
-        <v>18.07673109684244</v>
+        <v>18.16007842082946</v>
       </c>
     </row>
     <row r="144">
@@ -5191,7 +5191,7 @@
         <v>10.95279217040875</v>
       </c>
       <c r="I144" t="n">
-        <v>18.07673109684244</v>
+        <v>18.16007842082946</v>
       </c>
     </row>
     <row r="145">
@@ -5224,7 +5224,7 @@
         <v>9.889737065309584</v>
       </c>
       <c r="I145" t="n">
-        <v>17.19235930438361</v>
+        <v>17.25327470444394</v>
       </c>
     </row>
     <row r="146">
@@ -5257,7 +5257,7 @@
         <v>8.578968737312222</v>
       </c>
       <c r="I146" t="n">
-        <v>16.10191109509614</v>
+        <v>16.13516748173553</v>
       </c>
     </row>
     <row r="147">
@@ -5290,7 +5290,7 @@
         <v>8.578968737312222</v>
       </c>
       <c r="I147" t="n">
-        <v>16.10191109509614</v>
+        <v>16.13516748173553</v>
       </c>
     </row>
     <row r="148">
@@ -5323,7 +5323,7 @@
         <v>10.95567069660334</v>
       </c>
       <c r="I148" t="n">
-        <v>18.07912578678667</v>
+        <v>18.16253385163304</v>
       </c>
     </row>
     <row r="149">
@@ -5356,7 +5356,7 @@
         <v>10.95567069660334</v>
       </c>
       <c r="I149" t="n">
-        <v>18.07912578678667</v>
+        <v>18.16253385163304</v>
       </c>
     </row>
     <row r="150">
@@ -5389,7 +5389,7 @@
         <v>10.9596104268118</v>
       </c>
       <c r="I150" t="n">
-        <v>18.08240330857228</v>
+        <v>18.16589450714135</v>
       </c>
     </row>
     <row r="151">
@@ -5422,7 +5422,7 @@
         <v>10.95567069660334</v>
       </c>
       <c r="I151" t="n">
-        <v>18.07912578678667</v>
+        <v>18.16253385163304</v>
       </c>
     </row>
     <row r="152">
@@ -5455,7 +5455,7 @@
         <v>10.9596104268118</v>
       </c>
       <c r="I152" t="n">
-        <v>18.08240330857228</v>
+        <v>18.16589450714135</v>
       </c>
     </row>
     <row r="153">
@@ -5488,7 +5488,7 @@
         <v>9.781659388646288</v>
       </c>
       <c r="I153" t="n">
-        <v>17.10244783302429</v>
+        <v>17.16108264555021</v>
       </c>
     </row>
     <row r="154">
@@ -5521,7 +5521,7 @@
         <v>9.781659388646288</v>
       </c>
       <c r="I154" t="n">
-        <v>17.10244783302429</v>
+        <v>17.16108264555021</v>
       </c>
     </row>
     <row r="155">
@@ -5554,7 +5554,7 @@
         <v>9.781659388646288</v>
       </c>
       <c r="I155" t="n">
-        <v>17.10244783302429</v>
+        <v>17.16108264555021</v>
       </c>
     </row>
     <row r="156">
@@ -5587,7 +5587,7 @@
         <v>7.814649716581365</v>
       </c>
       <c r="I156" t="n">
-        <v>15.46606241789039</v>
+        <v>15.48319062260721</v>
       </c>
     </row>
     <row r="157">
@@ -5620,7 +5620,7 @@
         <v>10.9596104268118</v>
       </c>
       <c r="I157" t="n">
-        <v>18.08240330857228</v>
+        <v>18.16589450714135</v>
       </c>
     </row>
     <row r="158">
@@ -5653,7 +5653,7 @@
         <v>10.85930408472012</v>
       </c>
       <c r="I158" t="n">
-        <v>17.99895692924058</v>
+        <v>18.08033152611669</v>
       </c>
     </row>
     <row r="159">
@@ -5686,7 +5686,7 @@
         <v>10.85930408472012</v>
       </c>
       <c r="I159" t="n">
-        <v>17.99895692924058</v>
+        <v>18.08033152611669</v>
       </c>
     </row>
     <row r="160">
@@ -5719,7 +5719,7 @@
         <v>15.8856592259515</v>
       </c>
       <c r="I160" t="n">
-        <v>22.18045860724698</v>
+        <v>22.36789620651664</v>
       </c>
     </row>
     <row r="161">
@@ -5752,7 +5752,7 @@
         <v>15.8856592259515</v>
       </c>
       <c r="I161" t="n">
-        <v>22.18045860724698</v>
+        <v>22.36789620651664</v>
       </c>
     </row>
     <row r="162">
@@ -5785,7 +5785,7 @@
         <v>9.105098855359001</v>
       </c>
       <c r="I162" t="n">
-        <v>16.5396067830541</v>
+        <v>16.58396523836985</v>
       </c>
     </row>
     <row r="163">
@@ -5818,7 +5818,7 @@
         <v>9.105098855359001</v>
       </c>
       <c r="I163" t="n">
-        <v>16.5396067830541</v>
+        <v>16.58396523836985</v>
       </c>
     </row>
     <row r="164">
@@ -5851,7 +5851,7 @@
         <v>9.827650805545151</v>
       </c>
       <c r="I164" t="n">
-        <v>17.14070879579608</v>
+        <v>17.2003140904355</v>
       </c>
     </row>
     <row r="165">
@@ -5884,7 +5884,7 @@
         <v>8.774014656367598</v>
       </c>
       <c r="I165" t="n">
-        <v>16.26417277675251</v>
+        <v>16.30154490038189</v>
       </c>
     </row>
     <row r="166">
@@ -5917,7 +5917,7 @@
         <v>17.57396449704142</v>
       </c>
       <c r="I166" t="n">
-        <v>23.58498557075956</v>
+        <v>23.80804873188811</v>
       </c>
     </row>
     <row r="167">
@@ -5950,7 +5950,7 @@
         <v>8.951157812804048</v>
       </c>
       <c r="I167" t="n">
-        <v>16.41154087651335</v>
+        <v>16.45265096423345</v>
       </c>
     </row>
     <row r="168">
@@ -5983,7 +5983,7 @@
         <v>8.951157812804048</v>
       </c>
       <c r="I168" t="n">
-        <v>16.41154087651335</v>
+        <v>16.45265096423345</v>
       </c>
     </row>
     <row r="169">
@@ -6016,7 +6016,7 @@
         <v>9.492089925062448</v>
       </c>
       <c r="I169" t="n">
-        <v>16.86155056972852</v>
+        <v>16.91407506854874</v>
       </c>
     </row>
     <row r="170">
@@ -6049,7 +6049,7 @@
         <v>9.131767109295199</v>
       </c>
       <c r="I170" t="n">
-        <v>16.56179251117128</v>
+        <v>16.60671370330159</v>
       </c>
     </row>
     <row r="171">
@@ -6082,7 +6082,7 @@
         <v>9.131767109295199</v>
       </c>
       <c r="I171" t="n">
-        <v>16.56179251117128</v>
+        <v>16.60671370330159</v>
       </c>
     </row>
     <row r="172">
@@ -6115,7 +6115,7 @@
         <v>11.09257265877288</v>
       </c>
       <c r="I172" t="n">
-        <v>18.19301662188473</v>
+        <v>18.27931350630976</v>
       </c>
     </row>
     <row r="173">
@@ -6148,7 +6148,7 @@
         <v>11.09257265877288</v>
       </c>
       <c r="I173" t="n">
-        <v>18.19301662188473</v>
+        <v>18.27931350630976</v>
       </c>
     </row>
     <row r="174">
@@ -6181,7 +6181,7 @@
         <v>14.02818068794032</v>
       </c>
       <c r="I174" t="n">
-        <v>20.63519381689398</v>
+        <v>20.78343606583773</v>
       </c>
     </row>
     <row r="175">
@@ -6214,7 +6214,7 @@
         <v>7.847595807220896</v>
       </c>
       <c r="I175" t="n">
-        <v>15.49347077432801</v>
+        <v>15.51129418684296</v>
       </c>
     </row>
     <row r="176">
@@ -6247,7 +6247,7 @@
         <v>9.55023923444976</v>
       </c>
       <c r="I176" t="n">
-        <v>16.90992586911463</v>
+        <v>16.96367739829132</v>
       </c>
     </row>
     <row r="177">
@@ -6280,7 +6280,7 @@
         <v>12.33766233766234</v>
       </c>
       <c r="I177" t="n">
-        <v>19.22882575897433</v>
+        <v>19.34139574704637</v>
       </c>
     </row>
     <row r="178">
@@ -6313,7 +6313,7 @@
         <v>12.33766233766234</v>
       </c>
       <c r="I178" t="n">
-        <v>19.22882575897433</v>
+        <v>19.34139574704637</v>
       </c>
     </row>
     <row r="179">
@@ -6346,7 +6346,7 @@
         <v>8.413298713027771</v>
       </c>
       <c r="I179" t="n">
-        <v>15.96408766935804</v>
+        <v>15.99384819076537</v>
       </c>
     </row>
     <row r="180">
@@ -6379,7 +6379,7 @@
         <v>9.972573175666561</v>
       </c>
       <c r="I180" t="n">
-        <v>17.26127193087429</v>
+        <v>17.3239352867245</v>
       </c>
     </row>
     <row r="181">
@@ -6412,7 +6412,7 @@
         <v>8.379309379113339</v>
       </c>
       <c r="I181" t="n">
-        <v>15.93581142289236</v>
+        <v>15.96485472263448</v>
       </c>
     </row>
     <row r="182">
@@ -6445,7 +6445,7 @@
         <v>14.23334052188915</v>
       </c>
       <c r="I182" t="n">
-        <v>20.80586941895786</v>
+        <v>20.95844082239781</v>
       </c>
     </row>
     <row r="183">
@@ -6478,7 +6478,7 @@
         <v>9.499458874458874</v>
       </c>
       <c r="I183" t="n">
-        <v>16.86768091137779</v>
+        <v>16.92036090515917</v>
       </c>
     </row>
     <row r="184">
@@ -6511,7 +6511,7 @@
         <v>9.37582650092568</v>
       </c>
       <c r="I184" t="n">
-        <v>16.76482924991355</v>
+        <v>16.81490043067605</v>
       </c>
     </row>
     <row r="185">
@@ -6544,7 +6544,7 @@
         <v>9.37582650092568</v>
       </c>
       <c r="I185" t="n">
-        <v>16.76482924991355</v>
+        <v>16.81490043067605</v>
       </c>
     </row>
     <row r="186">
@@ -6577,7 +6577,7 @@
         <v>13.00595238095238</v>
       </c>
       <c r="I186" t="n">
-        <v>19.78478646188791</v>
+        <v>19.91145828846308</v>
       </c>
     </row>
     <row r="187">
@@ -6610,7 +6610,7 @@
         <v>10.35573122529644</v>
       </c>
       <c r="I187" t="n">
-        <v>17.58002696955557</v>
+        <v>17.65077548691806</v>
       </c>
     </row>
     <row r="188">
@@ -6643,7 +6643,7 @@
         <v>10.03263234227701</v>
       </c>
       <c r="I188" t="n">
-        <v>17.31123606967961</v>
+        <v>17.37516675649887</v>
       </c>
     </row>
     <row r="189">
@@ -6676,7 +6676,7 @@
         <v>11.54791154791155</v>
       </c>
       <c r="I189" t="n">
-        <v>18.57182000435493</v>
+        <v>18.66772516522116</v>
       </c>
     </row>
     <row r="190">
@@ -6709,7 +6709,7 @@
         <v>7.697813997026595</v>
       </c>
       <c r="I190" t="n">
-        <v>15.36886499676871</v>
+        <v>15.38352780720785</v>
       </c>
     </row>
     <row r="191">
@@ -6742,7 +6742,7 @@
         <v>10.1835893593106</v>
       </c>
       <c r="I191" t="n">
-        <v>17.43681951977346</v>
+        <v>17.50393560714821</v>
       </c>
     </row>
     <row r="192">
@@ -6775,7 +6775,7 @@
         <v>8.700480192076832</v>
       </c>
       <c r="I192" t="n">
-        <v>16.2029983318151</v>
+        <v>16.23881877717207</v>
       </c>
     </row>
     <row r="193">
@@ -6808,7 +6808,7 @@
         <v>9.55621301775148</v>
       </c>
       <c r="I193" t="n">
-        <v>16.91489555076232</v>
+        <v>16.96877313497787</v>
       </c>
     </row>
     <row r="194">
@@ -6841,7 +6841,7 @@
         <v>9.55621301775148</v>
       </c>
       <c r="I194" t="n">
-        <v>16.91489555076232</v>
+        <v>16.96877313497787</v>
       </c>
     </row>
     <row r="195">
@@ -6874,7 +6874,7 @@
         <v>7.716428084526244</v>
       </c>
       <c r="I195" t="n">
-        <v>15.38435034070629</v>
+        <v>15.39940593397742</v>
       </c>
     </row>
     <row r="196">
@@ -6907,7 +6907,7 @@
         <v>8.830188679245282</v>
       </c>
       <c r="I196" t="n">
-        <v>16.31090480509579</v>
+        <v>16.34946227782119</v>
       </c>
     </row>
     <row r="197">
@@ -6940,7 +6940,7 @@
         <v>16.12403100775194</v>
       </c>
       <c r="I197" t="n">
-        <v>22.37876373642727</v>
+        <v>22.57123130794388</v>
       </c>
     </row>
     <row r="198">
@@ -6973,7 +6973,7 @@
         <v>11.26593536910762</v>
       </c>
       <c r="I198" t="n">
-        <v>18.33723971074329</v>
+        <v>18.42719478664992</v>
       </c>
     </row>
     <row r="199">
@@ -7006,7 +7006,7 @@
         <v>12.7007299270073</v>
       </c>
       <c r="I199" t="n">
-        <v>19.53086723662921</v>
+        <v>19.65109844988643</v>
       </c>
     </row>
     <row r="200">
@@ -7039,7 +7039,7 @@
         <v>8.069616250537553</v>
       </c>
       <c r="I200" t="n">
-        <v>15.67817297506683</v>
+        <v>15.70068132411119</v>
       </c>
     </row>
     <row r="201">
@@ -7072,7 +7072,7 @@
         <v>10.34082668600435</v>
       </c>
       <c r="I201" t="n">
-        <v>17.56762765547834</v>
+        <v>17.63806166657493</v>
       </c>
     </row>
     <row r="202">
@@ -7105,7 +7105,7 @@
         <v>9.227799227799228</v>
       </c>
       <c r="I202" t="n">
-        <v>16.64168309856195</v>
+        <v>16.68863070039244</v>
       </c>
     </row>
     <row r="203">
@@ -7138,7 +7138,7 @@
         <v>9.227799227799228</v>
       </c>
       <c r="I203" t="n">
-        <v>16.64168309856195</v>
+        <v>16.68863070039244</v>
       </c>
     </row>
     <row r="204">
@@ -7171,7 +7171,7 @@
         <v>8.801749271137027</v>
       </c>
       <c r="I204" t="n">
-        <v>16.28724562674791</v>
+        <v>16.32520298887119</v>
       </c>
     </row>
     <row r="205">
@@ -7204,7 +7204,7 @@
         <v>10.42272126816381</v>
       </c>
       <c r="I205" t="n">
-        <v>17.63575701026872</v>
+        <v>17.70791910961605</v>
       </c>
     </row>
     <row r="206">
@@ -7237,7 +7237,7 @@
         <v>10.42272126816381</v>
       </c>
       <c r="I206" t="n">
-        <v>17.63575701026872</v>
+        <v>17.70791910961605</v>
       </c>
     </row>
     <row r="207">
@@ -7270,7 +7270,7 @@
         <v>8.192584963954687</v>
       </c>
       <c r="I207" t="n">
-        <v>15.7804725275354</v>
+        <v>15.80557568545796</v>
       </c>
     </row>
     <row r="208">
@@ -7303,7 +7303,7 @@
         <v>9.23444976076555</v>
       </c>
       <c r="I208" t="n">
-        <v>16.64721577860085</v>
+        <v>16.69430371581834</v>
       </c>
     </row>
     <row r="209">
@@ -7336,7 +7336,7 @@
         <v>9.23444976076555</v>
       </c>
       <c r="I209" t="n">
-        <v>16.64721577860085</v>
+        <v>16.69430371581834</v>
       </c>
     </row>
     <row r="210">
@@ -7369,7 +7369,7 @@
         <v>9.887640449438203</v>
       </c>
       <c r="I210" t="n">
-        <v>17.19061509759002</v>
+        <v>17.25148625617359</v>
       </c>
     </row>
     <row r="211">
@@ -7402,7 +7402,7 @@
         <v>11.53036153036153</v>
       </c>
       <c r="I211" t="n">
-        <v>18.55721987647451</v>
+        <v>18.65275470784727</v>
       </c>
     </row>
     <row r="212">
@@ -7435,7 +7435,7 @@
         <v>8.792609111181905</v>
       </c>
       <c r="I212" t="n">
-        <v>16.27964178795903</v>
+        <v>16.31740628014376</v>
       </c>
     </row>
     <row r="213">
@@ -7468,7 +7468,7 @@
         <v>10.59667031231012</v>
       </c>
       <c r="I213" t="n">
-        <v>17.78046787918819</v>
+        <v>17.85630054246649</v>
       </c>
     </row>
     <row r="214">
@@ -7501,7 +7501,7 @@
         <v>10.56218057921635</v>
       </c>
       <c r="I214" t="n">
-        <v>17.7517753429958</v>
+        <v>17.82688022549839</v>
       </c>
     </row>
     <row r="215">
@@ -7534,7 +7534,7 @@
         <v>9.940594059405941</v>
       </c>
       <c r="I215" t="n">
-        <v>17.23466801520426</v>
+        <v>17.29665656774488</v>
       </c>
     </row>
     <row r="216">
@@ -7567,7 +7567,7 @@
         <v>9.940594059405941</v>
       </c>
       <c r="I216" t="n">
-        <v>17.23466801520426</v>
+        <v>17.29665656774488</v>
       </c>
     </row>
     <row r="217">
@@ -7600,7 +7600,7 @@
         <v>9.940594059405941</v>
       </c>
       <c r="I217" t="n">
-        <v>17.23466801520426</v>
+        <v>17.29665656774488</v>
       </c>
     </row>
     <row r="218">
@@ -7633,7 +7633,7 @@
         <v>9.940594059405941</v>
       </c>
       <c r="I218" t="n">
-        <v>17.23466801520426</v>
+        <v>17.29665656774488</v>
       </c>
     </row>
     <row r="219">
@@ -7666,7 +7666,7 @@
         <v>9.940594059405941</v>
       </c>
       <c r="I219" t="n">
-        <v>17.23466801520426</v>
+        <v>17.29665656774488</v>
       </c>
     </row>
     <row r="220">
@@ -7699,7 +7699,7 @@
         <v>8.917627213944336</v>
       </c>
       <c r="I220" t="n">
-        <v>16.38364625875219</v>
+        <v>16.42404880474729</v>
       </c>
     </row>
     <row r="221">
@@ -7732,7 +7732,7 @@
         <v>7.882480300093149</v>
       </c>
       <c r="I221" t="n">
-        <v>15.52249171721467</v>
+        <v>15.54105124047927</v>
       </c>
     </row>
     <row r="222">
@@ -7765,7 +7765,7 @@
         <v>8.176882787649774</v>
       </c>
       <c r="I222" t="n">
-        <v>15.76740964703403</v>
+        <v>15.79218146745333</v>
       </c>
     </row>
     <row r="223">
@@ -7798,7 +7798,7 @@
         <v>9.995069033530573</v>
       </c>
       <c r="I223" t="n">
-        <v>17.27998657891715</v>
+        <v>17.34312462828969</v>
       </c>
     </row>
     <row r="224">
@@ -7831,7 +7831,7 @@
         <v>9.995069033530573</v>
       </c>
       <c r="I224" t="n">
-        <v>17.27998657891715</v>
+        <v>17.34312462828969</v>
       </c>
     </row>
     <row r="225">
@@ -7864,7 +7864,7 @@
         <v>10.06967022758941</v>
       </c>
       <c r="I225" t="n">
-        <v>17.34204845265533</v>
+        <v>17.40676068976464</v>
       </c>
     </row>
     <row r="226">
@@ -7897,7 +7897,7 @@
         <v>10.17395182872435</v>
       </c>
       <c r="I226" t="n">
-        <v>17.42880191075342</v>
+        <v>17.49571463298565</v>
       </c>
     </row>
     <row r="227">
@@ -7930,7 +7930,7 @@
         <v>10.24739583333333</v>
       </c>
       <c r="I227" t="n">
-        <v>17.48990110089873</v>
+        <v>17.55836359257975</v>
       </c>
     </row>
     <row r="228">
@@ -7963,7 +7963,7 @@
         <v>10.24739583333333</v>
       </c>
       <c r="I228" t="n">
-        <v>17.48990110089873</v>
+        <v>17.55836359257975</v>
       </c>
     </row>
     <row r="229">
@@ -7996,7 +7996,7 @@
         <v>10.18166455428813</v>
       </c>
       <c r="I229" t="n">
-        <v>17.43521824505148</v>
+        <v>17.50229371639454</v>
       </c>
     </row>
     <row r="230">
@@ -8029,7 +8029,7 @@
         <v>10.17395182872435</v>
       </c>
       <c r="I230" t="n">
-        <v>17.42880191075342</v>
+        <v>17.49571463298565</v>
       </c>
     </row>
     <row r="231">
@@ -8062,7 +8062,7 @@
         <v>10.17395182872435</v>
       </c>
       <c r="I231" t="n">
-        <v>17.42880191075342</v>
+        <v>17.49571463298565</v>
       </c>
     </row>
     <row r="232">
@@ -8095,7 +8095,7 @@
         <v>10.24739583333333</v>
       </c>
       <c r="I232" t="n">
-        <v>17.48990110089873</v>
+        <v>17.55836359257975</v>
       </c>
     </row>
     <row r="233">
@@ -8128,7 +8128,7 @@
         <v>10.24739583333333</v>
       </c>
       <c r="I233" t="n">
-        <v>17.48990110089873</v>
+        <v>17.55836359257975</v>
       </c>
     </row>
     <row r="234">
@@ -8161,7 +8161,7 @@
         <v>10.24739583333333</v>
       </c>
       <c r="I234" t="n">
-        <v>17.48990110089873</v>
+        <v>17.55836359257975</v>
       </c>
     </row>
     <row r="235">
@@ -8194,7 +8194,7 @@
         <v>10.18166455428813</v>
       </c>
       <c r="I235" t="n">
-        <v>17.43521824505148</v>
+        <v>17.50229371639454</v>
       </c>
     </row>
     <row r="236">
@@ -8227,7 +8227,7 @@
         <v>8.36376028430943</v>
       </c>
       <c r="I236" t="n">
-        <v>15.92287589323178</v>
+        <v>15.95159108570072</v>
       </c>
     </row>
     <row r="237">
@@ -8260,7 +8260,7 @@
         <v>9.228896103896103</v>
       </c>
       <c r="I237" t="n">
-        <v>16.64259560655448</v>
+        <v>16.68956635397831</v>
       </c>
     </row>
     <row r="238">
@@ -8293,7 +8293,7 @@
         <v>9.228896103896103</v>
       </c>
       <c r="I238" t="n">
-        <v>16.64259560655448</v>
+        <v>16.68956635397831</v>
       </c>
     </row>
     <row r="239">
@@ -8326,7 +8326,7 @@
         <v>10.07976794778825</v>
       </c>
       <c r="I239" t="n">
-        <v>17.35044890044882</v>
+        <v>17.41537421333403</v>
       </c>
     </row>
     <row r="240">
@@ -8359,7 +8359,7 @@
         <v>8.255999250093737</v>
       </c>
       <c r="I240" t="n">
-        <v>15.83322784156501</v>
+        <v>15.85966912809042</v>
       </c>
     </row>
     <row r="241">
@@ -8392,7 +8392,7 @@
         <v>8.062015503875969</v>
       </c>
       <c r="I241" t="n">
-        <v>15.67184979772928</v>
+        <v>15.69419776057157</v>
       </c>
     </row>
     <row r="242">
@@ -8425,7 +8425,7 @@
         <v>9.969446990528567</v>
       </c>
       <c r="I242" t="n">
-        <v>17.25867120966917</v>
+        <v>17.32126859871591</v>
       </c>
     </row>
     <row r="243">
@@ -8458,7 +8458,7 @@
         <v>11.17699377408835</v>
       </c>
       <c r="I243" t="n">
-        <v>18.26324783822977</v>
+        <v>18.35132612422795</v>
       </c>
     </row>
     <row r="244">
@@ -8491,7 +8491,7 @@
         <v>10.32303370786517</v>
       </c>
       <c r="I244" t="n">
-        <v>17.55282540496974</v>
+        <v>17.62288395977047</v>
       </c>
     </row>
     <row r="245">
@@ -8524,7 +8524,7 @@
         <v>8.152325257588414</v>
       </c>
       <c r="I245" t="n">
-        <v>15.74697986237418</v>
+        <v>15.77123348515394</v>
       </c>
     </row>
     <row r="246">
@@ -8557,7 +8557,7 @@
         <v>9.800187324383391</v>
       </c>
       <c r="I246" t="n">
-        <v>17.11786150599362</v>
+        <v>17.17688728343094</v>
       </c>
     </row>
     <row r="247">
@@ -8590,7 +8590,7 @@
         <v>9.800187324383391</v>
       </c>
       <c r="I247" t="n">
-        <v>17.11786150599362</v>
+        <v>17.17688728343094</v>
       </c>
     </row>
     <row r="248">
@@ -8623,7 +8623,7 @@
         <v>9.868354430379746</v>
       </c>
       <c r="I248" t="n">
-        <v>17.17457076351711</v>
+        <v>17.23503496058919</v>
       </c>
     </row>
     <row r="249">
@@ -8656,7 +8656,7 @@
         <v>10.09293680297398</v>
       </c>
       <c r="I249" t="n">
-        <v>17.36140427238521</v>
+        <v>17.42660746621592</v>
       </c>
     </row>
     <row r="250">
@@ -8689,7 +8689,7 @@
         <v>10.09293680297398</v>
       </c>
       <c r="I250" t="n">
-        <v>17.36140427238521</v>
+        <v>17.42660746621592</v>
       </c>
     </row>
     <row r="251">
@@ -8722,7 +8722,7 @@
         <v>10.09293680297398</v>
       </c>
       <c r="I251" t="n">
-        <v>17.36140427238521</v>
+        <v>17.42660746621592</v>
       </c>
     </row>
     <row r="252">
@@ -8755,7 +8755,7 @@
         <v>10.09293680297398</v>
       </c>
       <c r="I252" t="n">
-        <v>17.36140427238521</v>
+        <v>17.42660746621592</v>
       </c>
     </row>
     <row r="253">
@@ -8788,7 +8788,7 @@
         <v>10.09293680297398</v>
       </c>
       <c r="I253" t="n">
-        <v>17.36140427238521</v>
+        <v>17.42660746621592</v>
       </c>
     </row>
     <row r="254">
@@ -8821,7 +8821,7 @@
         <v>10.86229460520576</v>
       </c>
       <c r="I254" t="n">
-        <v>18.00144478894754</v>
+        <v>18.08288248991649</v>
       </c>
     </row>
     <row r="255">
@@ -8854,7 +8854,7 @@
         <v>10.86229460520576</v>
       </c>
       <c r="I255" t="n">
-        <v>18.00144478894754</v>
+        <v>18.08288248991649</v>
       </c>
     </row>
     <row r="256">
@@ -8887,7 +8887,7 @@
         <v>10.58047198299966</v>
       </c>
       <c r="I256" t="n">
-        <v>17.766992241417</v>
+        <v>17.84248309768164</v>
       </c>
     </row>
     <row r="257">
@@ -8920,7 +8920,7 @@
         <v>9.195814648729447</v>
       </c>
       <c r="I257" t="n">
-        <v>16.61507463829747</v>
+        <v>16.66134732154559</v>
       </c>
     </row>
     <row r="258">
@@ -8953,7 +8953,7 @@
         <v>8.505354648455688</v>
       </c>
       <c r="I258" t="n">
-        <v>16.04067040926527</v>
+        <v>16.07237343744446</v>
       </c>
     </row>
     <row r="259">
@@ -8986,7 +8986,7 @@
         <v>9.20569031867514</v>
       </c>
       <c r="I259" t="n">
-        <v>16.62329035909097</v>
+        <v>16.66977143254942</v>
       </c>
     </row>
     <row r="260">
@@ -9019,7 +9019,7 @@
         <v>10.00848176420695</v>
       </c>
       <c r="I260" t="n">
-        <v>17.29114483460225</v>
+        <v>17.35456591102835</v>
       </c>
     </row>
     <row r="261">
@@ -9052,7 +9052,7 @@
         <v>9.217413837781811</v>
       </c>
       <c r="I261" t="n">
-        <v>16.63304333384887</v>
+        <v>16.67977178967489</v>
       </c>
     </row>
     <row r="262">
@@ -9085,7 +9085,7 @@
         <v>9.966389010667836</v>
       </c>
       <c r="I262" t="n">
-        <v>17.25612722947683</v>
+        <v>17.3186600909452</v>
       </c>
     </row>
     <row r="263">
@@ -9118,7 +9118,7 @@
         <v>9.966389010667836</v>
       </c>
       <c r="I263" t="n">
-        <v>17.25612722947683</v>
+        <v>17.3186600909452</v>
       </c>
     </row>
     <row r="264">
@@ -9151,7 +9151,7 @@
         <v>11.47771147771148</v>
       </c>
       <c r="I264" t="n">
-        <v>18.51341949283321</v>
+        <v>18.60784333572559</v>
       </c>
     </row>
     <row r="265">
@@ -9184,7 +9184,7 @@
         <v>11.47771147771148</v>
       </c>
       <c r="I265" t="n">
-        <v>18.51341949283321</v>
+        <v>18.60784333572559</v>
       </c>
     </row>
     <row r="266">
@@ -9217,7 +9217,7 @@
         <v>11.47771147771148</v>
       </c>
       <c r="I266" t="n">
-        <v>18.51341949283321</v>
+        <v>18.60784333572559</v>
       </c>
     </row>
     <row r="267">
@@ -9250,7 +9250,7 @@
         <v>10.77579637250419</v>
       </c>
       <c r="I267" t="n">
-        <v>17.9294855868969</v>
+        <v>18.00909805626077</v>
       </c>
     </row>
     <row r="268">
@@ -9283,7 +9283,7 @@
         <v>9.191621949108534</v>
       </c>
       <c r="I268" t="n">
-        <v>16.6115866673906</v>
+        <v>16.65777087891369</v>
       </c>
     </row>
     <row r="269">
@@ -9316,7 +9316,7 @@
         <v>10.11441647597254</v>
       </c>
       <c r="I269" t="n">
-        <v>17.37927354070446</v>
+        <v>17.44492998516005</v>
       </c>
     </row>
     <row r="270">
@@ -9349,7 +9349,7 @@
         <v>9.443943492636008</v>
       </c>
       <c r="I270" t="n">
-        <v>16.82149681659641</v>
+        <v>16.87300535951336</v>
       </c>
     </row>
     <row r="271">
@@ -9382,7 +9382,7 @@
         <v>9.508742714404663</v>
       </c>
       <c r="I271" t="n">
-        <v>16.87540427974729</v>
+        <v>16.92828017531251</v>
       </c>
     </row>
     <row r="272">
@@ -9415,7 +9415,7 @@
         <v>9.508742714404663</v>
       </c>
       <c r="I272" t="n">
-        <v>16.87540427974729</v>
+        <v>16.92828017531251</v>
       </c>
     </row>
     <row r="273">
@@ -9448,7 +9448,7 @@
         <v>9.508742714404663</v>
       </c>
       <c r="I273" t="n">
-        <v>16.87540427974729</v>
+        <v>16.92828017531251</v>
       </c>
     </row>
     <row r="274">
@@ -9481,7 +9481,7 @@
         <v>9.508742714404663</v>
       </c>
       <c r="I274" t="n">
-        <v>16.87540427974729</v>
+        <v>16.92828017531251</v>
       </c>
     </row>
     <row r="275">
@@ -9514,7 +9514,7 @@
         <v>9.401846647932558</v>
       </c>
       <c r="I275" t="n">
-        <v>16.78647580796885</v>
+        <v>16.83709604959886</v>
       </c>
     </row>
     <row r="276">
@@ -9547,7 +9547,7 @@
         <v>9.401846647932558</v>
       </c>
       <c r="I276" t="n">
-        <v>16.78647580796885</v>
+        <v>16.83709604959886</v>
       </c>
     </row>
     <row r="277">
@@ -9580,7 +9580,7 @@
         <v>9.222198414398973</v>
       </c>
       <c r="I277" t="n">
-        <v>16.63702369627673</v>
+        <v>16.68385311324595</v>
       </c>
     </row>
     <row r="278">
@@ -9613,7 +9613,7 @@
         <v>9.284633671925654</v>
       </c>
       <c r="I278" t="n">
-        <v>16.68896454143767</v>
+        <v>16.7371114281603</v>
       </c>
     </row>
     <row r="279">
@@ -9646,7 +9646,7 @@
         <v>16.17348418914998</v>
       </c>
       <c r="I279" t="n">
-        <v>22.41990459400464</v>
+        <v>22.613415695624</v>
       </c>
     </row>
     <row r="280">
@@ -9679,7 +9679,7 @@
         <v>16.70454545454545</v>
       </c>
       <c r="I280" t="n">
-        <v>22.86170257882259</v>
+        <v>23.0664198031054</v>
       </c>
     </row>
     <row r="281">
@@ -9712,7 +9712,7 @@
         <v>10.06539955037809</v>
       </c>
       <c r="I281" t="n">
-        <v>17.33849561099898</v>
+        <v>17.40311773094893</v>
       </c>
     </row>
     <row r="282">
@@ -9745,7 +9745,7 @@
         <v>10.06539955037809</v>
       </c>
       <c r="I282" t="n">
-        <v>17.33849561099898</v>
+        <v>17.40311773094893</v>
       </c>
     </row>
     <row r="283">
@@ -9778,7 +9778,7 @@
         <v>9.616279069767442</v>
       </c>
       <c r="I283" t="n">
-        <v>16.96486541764173</v>
+        <v>17.02001047811786</v>
       </c>
     </row>
     <row r="284">
@@ -9811,7 +9811,7 @@
         <v>9.163346613545817</v>
       </c>
       <c r="I284" t="n">
-        <v>16.58806398350147</v>
+        <v>16.63365154657868</v>
       </c>
     </row>
     <row r="285">
@@ -9844,7 +9844,7 @@
         <v>10.74262461851475</v>
       </c>
       <c r="I285" t="n">
-        <v>17.90188949766885</v>
+        <v>17.98080199742773</v>
       </c>
     </row>
     <row r="286">
@@ -9877,7 +9877,7 @@
         <v>10.36752136752137</v>
       </c>
       <c r="I286" t="n">
-        <v>17.58983536910399</v>
+        <v>17.66083267467342</v>
       </c>
     </row>
     <row r="287">
@@ -9910,7 +9910,7 @@
         <v>10.36752136752137</v>
       </c>
       <c r="I287" t="n">
-        <v>17.58983536910399</v>
+        <v>17.66083267467342</v>
       </c>
     </row>
     <row r="288">
@@ -9943,7 +9943,7 @@
         <v>10.36752136752137</v>
       </c>
       <c r="I288" t="n">
-        <v>17.58983536910399</v>
+        <v>17.66083267467342</v>
       </c>
     </row>
     <row r="289">
@@ -9976,7 +9976,7 @@
         <v>10.36752136752137</v>
       </c>
       <c r="I289" t="n">
-        <v>17.58983536910399</v>
+        <v>17.66083267467342</v>
       </c>
     </row>
     <row r="290">
@@ -10009,7 +10009,7 @@
         <v>10.36752136752137</v>
       </c>
       <c r="I290" t="n">
-        <v>17.58983536910399</v>
+        <v>17.66083267467342</v>
       </c>
     </row>
     <row r="291">
@@ -10042,7 +10042,7 @@
         <v>10.36752136752137</v>
       </c>
       <c r="I291" t="n">
-        <v>17.58983536910399</v>
+        <v>17.66083267467342</v>
       </c>
     </row>
     <row r="292">
@@ -10075,7 +10075,7 @@
         <v>10.36752136752137</v>
       </c>
       <c r="I292" t="n">
-        <v>17.58983536910399</v>
+        <v>17.66083267467342</v>
       </c>
     </row>
     <row r="293">
@@ -10108,7 +10108,7 @@
         <v>10.36752136752137</v>
       </c>
       <c r="I293" t="n">
-        <v>17.58983536910399</v>
+        <v>17.66083267467342</v>
       </c>
     </row>
     <row r="294">
@@ -10141,7 +10141,7 @@
         <v>10.36752136752137</v>
       </c>
       <c r="I294" t="n">
-        <v>17.58983536910399</v>
+        <v>17.66083267467342</v>
       </c>
     </row>
     <row r="295">
@@ -10174,7 +10174,7 @@
         <v>10.36752136752137</v>
       </c>
       <c r="I295" t="n">
-        <v>17.58983536910399</v>
+        <v>17.66083267467342</v>
       </c>
     </row>
     <row r="296">
@@ -10207,7 +10207,7 @@
         <v>10.36752136752137</v>
       </c>
       <c r="I296" t="n">
-        <v>17.58983536910399</v>
+        <v>17.66083267467342</v>
       </c>
     </row>
     <row r="297">
@@ -10240,7 +10240,7 @@
         <v>9.397212963334807</v>
       </c>
       <c r="I297" t="n">
-        <v>16.78262097491858</v>
+        <v>16.8331434394344</v>
       </c>
     </row>
     <row r="298">
@@ -10273,7 +10273,7 @@
         <v>11.03480937721999</v>
       </c>
       <c r="I298" t="n">
-        <v>18.14496246495515</v>
+        <v>18.23004046474161</v>
       </c>
     </row>
     <row r="299">
@@ -10306,7 +10306,7 @@
         <v>11.03480937721999</v>
       </c>
       <c r="I299" t="n">
-        <v>18.14496246495515</v>
+        <v>18.23004046474161</v>
       </c>
     </row>
     <row r="300">
@@ -10339,7 +10339,7 @@
         <v>10.07868115399026</v>
       </c>
       <c r="I300" t="n">
-        <v>17.34954478007486</v>
+        <v>17.41444716011709</v>
       </c>
     </row>
     <row r="301">
@@ -10372,7 +10372,7 @@
         <v>10.19579405366207</v>
       </c>
       <c r="I301" t="n">
-        <v>17.44697279157305</v>
+        <v>17.51434641477443</v>
       </c>
     </row>
     <row r="302">
@@ -10405,7 +10405,7 @@
         <v>9.674418604651162</v>
       </c>
       <c r="I302" t="n">
-        <v>17.01323258546888</v>
+        <v>17.06960447004603</v>
       </c>
     </row>
     <row r="303">
@@ -10438,7 +10438,7 @@
         <v>9.917572124391159</v>
       </c>
       <c r="I303" t="n">
-        <v>17.21551571553773</v>
+        <v>17.27701847360502</v>
       </c>
     </row>
     <row r="304">
@@ -10471,7 +10471,7 @@
         <v>9.917572124391159</v>
       </c>
       <c r="I304" t="n">
-        <v>17.21551571553773</v>
+        <v>17.27701847360502</v>
       </c>
     </row>
     <row r="305">
@@ -10504,7 +10504,7 @@
         <v>9.625315899351719</v>
       </c>
       <c r="I305" t="n">
-        <v>16.97238329431553</v>
+        <v>17.02771904431735</v>
       </c>
     </row>
     <row r="306">
@@ -10537,7 +10537,7 @@
         <v>10.36752136752137</v>
       </c>
       <c r="I306" t="n">
-        <v>17.58983536910399</v>
+        <v>17.66083267467342</v>
       </c>
     </row>
     <row r="307">
@@ -10570,7 +10570,7 @@
         <v>9.52991452991453</v>
       </c>
       <c r="I307" t="n">
-        <v>16.89301743671559</v>
+        <v>16.94634008668952</v>
       </c>
     </row>
     <row r="308">
@@ -10603,7 +10603,7 @@
         <v>9.496056261413528</v>
       </c>
       <c r="I308" t="n">
-        <v>16.86485022557089</v>
+        <v>16.91745841953999</v>
       </c>
     </row>
     <row r="309">
@@ -10636,7 +10636,7 @@
         <v>9.47120110084529</v>
       </c>
       <c r="I309" t="n">
-        <v>16.8441728375426</v>
+        <v>16.89625655345937</v>
       </c>
     </row>
     <row r="310">
@@ -10669,7 +10669,7 @@
         <v>9.975359342915811</v>
       </c>
       <c r="I310" t="n">
-        <v>17.26358978600005</v>
+        <v>17.3263119338089</v>
       </c>
     </row>
     <row r="311">
@@ -10702,7 +10702,7 @@
         <v>10.65074135090609</v>
       </c>
       <c r="I311" t="n">
-        <v>17.82545040275998</v>
+        <v>17.90242403927531</v>
       </c>
     </row>
     <row r="312">
@@ -10735,7 +10735,7 @@
         <v>10.65074135090609</v>
       </c>
       <c r="I312" t="n">
-        <v>17.82545040275998</v>
+        <v>17.90242403927531</v>
       </c>
     </row>
     <row r="313">
@@ -10768,7 +10768,7 @@
         <v>10.65074135090609</v>
       </c>
       <c r="I313" t="n">
-        <v>17.82545040275998</v>
+        <v>17.90242403927531</v>
       </c>
     </row>
     <row r="314">
@@ -10801,7 +10801,7 @@
         <v>10.65074135090609</v>
       </c>
       <c r="I314" t="n">
-        <v>17.82545040275998</v>
+        <v>17.90242403927531</v>
       </c>
     </row>
     <row r="315">
@@ -10834,7 +10834,7 @@
         <v>10.65074135090609</v>
       </c>
       <c r="I315" t="n">
-        <v>17.82545040275998</v>
+        <v>17.90242403927531</v>
       </c>
     </row>
     <row r="316">
@@ -10867,7 +10867,7 @@
         <v>10.65074135090609</v>
       </c>
       <c r="I316" t="n">
-        <v>17.82545040275998</v>
+        <v>17.90242403927531</v>
       </c>
     </row>
     <row r="317">
@@ -10900,7 +10900,7 @@
         <v>10.65074135090609</v>
       </c>
       <c r="I317" t="n">
-        <v>17.82545040275998</v>
+        <v>17.90242403927531</v>
       </c>
     </row>
     <row r="318">
@@ -10933,7 +10933,7 @@
         <v>10.65074135090609</v>
       </c>
       <c r="I318" t="n">
-        <v>17.82545040275998</v>
+        <v>17.90242403927531</v>
       </c>
     </row>
     <row r="319">
@@ -10966,7 +10966,7 @@
         <v>10.65074135090609</v>
       </c>
       <c r="I319" t="n">
-        <v>17.82545040275998</v>
+        <v>17.90242403927531</v>
       </c>
     </row>
     <row r="320">
@@ -10999,7 +10999,7 @@
         <v>10.65074135090609</v>
       </c>
       <c r="I320" t="n">
-        <v>17.82545040275998</v>
+        <v>17.90242403927531</v>
       </c>
     </row>
     <row r="321">
@@ -11032,7 +11032,7 @@
         <v>10.65074135090609</v>
       </c>
       <c r="I321" t="n">
-        <v>17.82545040275998</v>
+        <v>17.90242403927531</v>
       </c>
     </row>
     <row r="322">
@@ -11065,7 +11065,7 @@
         <v>10.65074135090609</v>
       </c>
       <c r="I322" t="n">
-        <v>17.82545040275998</v>
+        <v>17.90242403927531</v>
       </c>
     </row>
     <row r="323">
@@ -11098,7 +11098,7 @@
         <v>10.65074135090609</v>
       </c>
       <c r="I323" t="n">
-        <v>17.82545040275998</v>
+        <v>17.90242403927531</v>
       </c>
     </row>
     <row r="324">
@@ -11131,7 +11131,7 @@
         <v>9.594996567767522</v>
       </c>
       <c r="I324" t="n">
-        <v>16.94716017889033</v>
+        <v>17.00185614932067</v>
       </c>
     </row>
     <row r="325">
@@ -11164,7 +11164,7 @@
         <v>9.525682372374735</v>
       </c>
       <c r="I325" t="n">
-        <v>16.88949664016282</v>
+        <v>16.94272998579541</v>
       </c>
     </row>
     <row r="326">
@@ -11197,7 +11197,7 @@
         <v>9.545115585384041</v>
       </c>
       <c r="I326" t="n">
-        <v>16.90566342713354</v>
+        <v>16.9593068402723</v>
       </c>
     </row>
     <row r="327">
@@ -11230,7 +11230,7 @@
         <v>9.525682372374735</v>
       </c>
       <c r="I327" t="n">
-        <v>16.88949664016282</v>
+        <v>16.94272998579541</v>
       </c>
     </row>
     <row r="328">
@@ -11263,7 +11263,7 @@
         <v>9.298765904525016</v>
       </c>
       <c r="I328" t="n">
-        <v>16.70072136177124</v>
+        <v>16.74916645802701</v>
       </c>
     </row>
     <row r="329">
@@ -11296,7 +11296,7 @@
         <v>10.36258158085569</v>
       </c>
       <c r="I329" t="n">
-        <v>17.58572588506414</v>
+        <v>17.65661895434501</v>
       </c>
     </row>
     <row r="330">
@@ -11329,7 +11329,7 @@
         <v>11.86688311688312</v>
       </c>
       <c r="I330" t="n">
-        <v>18.83717732858177</v>
+        <v>18.93981322799167</v>
       </c>
     </row>
     <row r="331">
@@ -11362,7 +11362,7 @@
         <v>9.650632153811628</v>
       </c>
       <c r="I331" t="n">
-        <v>16.99344427340087</v>
+        <v>17.04931423116994</v>
       </c>
     </row>
     <row r="332">
@@ -11395,7 +11395,7 @@
         <v>9.655688622754491</v>
       </c>
       <c r="I332" t="n">
-        <v>16.99765082721079</v>
+        <v>17.05362748342486</v>
       </c>
     </row>
     <row r="333">
@@ -11428,7 +11428,7 @@
         <v>10.08430349257326</v>
       </c>
       <c r="I333" t="n">
-        <v>17.35422208948866</v>
+        <v>17.4192431086031</v>
       </c>
     </row>
     <row r="334">
@@ -11461,7 +11461,7 @@
         <v>17.08732230925442</v>
       </c>
       <c r="I334" t="n">
-        <v>23.18014049562197</v>
+        <v>23.39293483768028</v>
       </c>
     </row>
     <row r="335">
@@ -11494,7 +11494,7 @@
         <v>9.484140815615197</v>
       </c>
       <c r="I335" t="n">
-        <v>16.85493758406428</v>
+        <v>16.90729434574881</v>
       </c>
     </row>
     <row r="336">
@@ -11527,7 +11527,7 @@
         <v>11.02265768524189</v>
       </c>
       <c r="I336" t="n">
-        <v>18.13485328664018</v>
+        <v>18.21967486902295</v>
       </c>
     </row>
     <row r="337">
@@ -11560,7 +11560,7 @@
         <v>9.71426431487099</v>
       </c>
       <c r="I337" t="n">
-        <v>17.04638084090726</v>
+        <v>17.10359352473947</v>
       </c>
     </row>
     <row r="338">
@@ -11593,7 +11593,7 @@
         <v>9.71426431487099</v>
       </c>
       <c r="I338" t="n">
-        <v>17.04638084090726</v>
+        <v>17.10359352473947</v>
       </c>
     </row>
     <row r="339">
@@ -11626,7 +11626,7 @@
         <v>9.71426431487099</v>
       </c>
       <c r="I339" t="n">
-        <v>17.04638084090726</v>
+        <v>17.10359352473947</v>
       </c>
     </row>
     <row r="340">
@@ -11659,7 +11659,7 @@
         <v>7.218562874251497</v>
       </c>
       <c r="I340" t="n">
-        <v>14.97016866159898</v>
+        <v>14.97471861459892</v>
       </c>
     </row>
     <row r="341">
@@ -11692,7 +11692,7 @@
         <v>7.218562874251497</v>
       </c>
       <c r="I341" t="n">
-        <v>14.97016866159898</v>
+        <v>14.97471861459892</v>
       </c>
     </row>
     <row r="342">
@@ -11725,7 +11725,7 @@
         <v>11.03250478011472</v>
       </c>
       <c r="I342" t="n">
-        <v>18.14304523539376</v>
+        <v>18.22807460501355</v>
       </c>
     </row>
     <row r="343">
@@ -11758,7 +11758,7 @@
         <v>9.755823533817692</v>
       </c>
       <c r="I343" t="n">
-        <v>17.0809545904493</v>
+        <v>17.13904423092599</v>
       </c>
     </row>
     <row r="344">
@@ -11791,7 +11791,7 @@
         <v>10.11673151750973</v>
       </c>
       <c r="I344" t="n">
-        <v>17.38119945914842</v>
+        <v>17.44690475416256</v>
       </c>
     </row>
     <row r="345">
@@ -11824,7 +11824,7 @@
         <v>9.451438848920862</v>
       </c>
       <c r="I345" t="n">
-        <v>16.8277323180685</v>
+        <v>16.8793990233057</v>
       </c>
     </row>
     <row r="346">
@@ -11857,7 +11857,7 @@
         <v>8.454598370197905</v>
       </c>
       <c r="I346" t="n">
-        <v>15.99844548549033</v>
+        <v>16.02907748643187</v>
       </c>
     </row>
     <row r="347">
@@ -11890,7 +11890,7 @@
         <v>9.73847977478145</v>
       </c>
       <c r="I347" t="n">
-        <v>17.06652605217948</v>
+        <v>17.12424971550085</v>
       </c>
     </row>
     <row r="348">
@@ -11923,7 +11923,7 @@
         <v>9.880059970014992</v>
       </c>
       <c r="I348" t="n">
-        <v>17.18430878087789</v>
+        <v>17.24501998092598</v>
       </c>
     </row>
     <row r="349">
@@ -11956,7 +11956,7 @@
         <v>9.880059970014992</v>
       </c>
       <c r="I349" t="n">
-        <v>17.18430878087789</v>
+        <v>17.24501998092598</v>
       </c>
     </row>
     <row r="350">
@@ -11989,7 +11989,7 @@
         <v>11.33246244284781</v>
       </c>
       <c r="I350" t="n">
-        <v>18.39258460036231</v>
+        <v>18.48394348896882</v>
       </c>
     </row>
     <row r="351">
@@ -12022,7 +12022,7 @@
         <v>7.35605170387779</v>
       </c>
       <c r="I351" t="n">
-        <v>15.08454772070554</v>
+        <v>15.09199887699415</v>
       </c>
     </row>
     <row r="352">
@@ -12055,7 +12055,7 @@
         <v>17.63110307414105</v>
       </c>
       <c r="I352" t="n">
-        <v>23.63252002650486</v>
+        <v>23.85678889014932</v>
       </c>
     </row>
     <row r="353">
@@ -12088,7 +12088,7 @@
         <v>9.909443725743856</v>
       </c>
       <c r="I353" t="n">
-        <v>17.20875357644724</v>
+        <v>17.27008481413029</v>
       </c>
     </row>
     <row r="354">
@@ -12121,7 +12121,7 @@
         <v>9.852126371408653</v>
       </c>
       <c r="I354" t="n">
-        <v>17.16107039318678</v>
+        <v>17.22119215590849</v>
       </c>
     </row>
     <row r="355">
@@ -12154,7 +12154,7 @@
         <v>9.852126371408653</v>
       </c>
       <c r="I355" t="n">
-        <v>17.16107039318678</v>
+        <v>17.22119215590849</v>
       </c>
     </row>
     <row r="356">
@@ -12187,7 +12187,7 @@
         <v>10.8843537414966</v>
       </c>
       <c r="I356" t="n">
-        <v>18.01979612163769</v>
+        <v>18.10169930070347</v>
       </c>
     </row>
     <row r="357">
@@ -12220,7 +12220,7 @@
         <v>10.8843537414966</v>
       </c>
       <c r="I357" t="n">
-        <v>18.01979612163769</v>
+        <v>18.10169930070347</v>
       </c>
     </row>
     <row r="358">
@@ -12253,7 +12253,7 @@
         <v>7.218562874251497</v>
       </c>
       <c r="I358" t="n">
-        <v>14.97016866159898</v>
+        <v>14.97471861459892</v>
       </c>
     </row>
     <row r="359">
@@ -12286,7 +12286,7 @@
         <v>9.594502884289108</v>
       </c>
       <c r="I359" t="n">
-        <v>16.94674947605788</v>
+        <v>17.00143502908823</v>
       </c>
     </row>
     <row r="360">
@@ -12319,7 +12319,7 @@
         <v>9.597556210705786</v>
       </c>
       <c r="I360" t="n">
-        <v>16.94928958497898</v>
+        <v>17.00403956739363</v>
       </c>
     </row>
     <row r="361">
@@ -12352,7 +12352,7 @@
         <v>11.33246244284781</v>
       </c>
       <c r="I361" t="n">
-        <v>18.39258460036231</v>
+        <v>18.48394348896882</v>
       </c>
     </row>
     <row r="362">
@@ -12385,7 +12385,7 @@
         <v>9.639771460423633</v>
       </c>
       <c r="I362" t="n">
-        <v>16.98440909654803</v>
+        <v>17.04004987875818</v>
       </c>
     </row>
     <row r="363">
@@ -12418,7 +12418,7 @@
         <v>9.625292740046838</v>
       </c>
       <c r="I363" t="n">
-        <v>16.97236402773578</v>
+        <v>17.02769928904443</v>
       </c>
     </row>
     <row r="364">
@@ -12451,7 +12451,7 @@
         <v>17.49332583953913</v>
       </c>
       <c r="I364" t="n">
-        <v>23.51790103889033</v>
+        <v>23.73926261350472</v>
       </c>
     </row>
     <row r="365">
@@ -12484,7 +12484,7 @@
         <v>7.322635135135135</v>
       </c>
       <c r="I365" t="n">
-        <v>15.0567479663419</v>
+        <v>15.06349398709772</v>
       </c>
     </row>
     <row r="366">
@@ -12517,7 +12517,7 @@
         <v>7.322635135135135</v>
       </c>
       <c r="I366" t="n">
-        <v>15.0567479663419</v>
+        <v>15.06349398709772</v>
       </c>
     </row>
     <row r="367">
@@ -12550,7 +12550,7 @@
         <v>7.322635135135135</v>
       </c>
       <c r="I367" t="n">
-        <v>15.0567479663419</v>
+        <v>15.06349398709772</v>
       </c>
     </row>
     <row r="368">
@@ -12583,7 +12583,7 @@
         <v>7.322635135135135</v>
       </c>
       <c r="I368" t="n">
-        <v>15.0567479663419</v>
+        <v>15.06349398709772</v>
       </c>
     </row>
     <row r="369">
@@ -12616,7 +12616,7 @@
         <v>10.04350978970268</v>
       </c>
       <c r="I369" t="n">
-        <v>17.3202851844725</v>
+        <v>17.3844454003839</v>
       </c>
     </row>
     <row r="370">
@@ -12649,7 +12649,7 @@
         <v>10.04350978970268</v>
       </c>
       <c r="I370" t="n">
-        <v>17.3202851844725</v>
+        <v>17.3844454003839</v>
       </c>
     </row>
     <row r="371">
@@ -12682,7 +12682,7 @@
         <v>9.67338531705164</v>
       </c>
       <c r="I371" t="n">
-        <v>17.01237297771936</v>
+        <v>17.06872305850786</v>
       </c>
     </row>
     <row r="372">
@@ -12715,7 +12715,7 @@
         <v>9.674157303370787</v>
       </c>
       <c r="I372" t="n">
-        <v>17.01301520493932</v>
+        <v>17.06938157570028</v>
       </c>
     </row>
     <row r="373">
@@ -12748,7 +12748,7 @@
         <v>10.43461970775572</v>
       </c>
       <c r="I373" t="n">
-        <v>17.64565550405224</v>
+        <v>17.7180686768298</v>
       </c>
     </row>
     <row r="374">
@@ -12781,7 +12781,7 @@
         <v>10.8824874256973</v>
       </c>
       <c r="I374" t="n">
-        <v>18.01824350499458</v>
+        <v>18.10010730223168</v>
       </c>
     </row>
     <row r="375">
@@ -12814,7 +12814,7 @@
         <v>10.8824874256973</v>
       </c>
       <c r="I375" t="n">
-        <v>18.01824350499458</v>
+        <v>18.10010730223168</v>
       </c>
     </row>
     <row r="376">
@@ -12847,7 +12847,7 @@
         <v>7.441946185035016</v>
       </c>
       <c r="I376" t="n">
-        <v>15.15600465261713</v>
+        <v>15.16526830052334</v>
       </c>
     </row>
     <row r="377">
@@ -12880,7 +12880,7 @@
         <v>7.322635135135135</v>
       </c>
       <c r="I377" t="n">
-        <v>15.0567479663419</v>
+        <v>15.06349398709772</v>
       </c>
     </row>
     <row r="378">
@@ -12913,7 +12913,7 @@
         <v>7.322635135135135</v>
       </c>
       <c r="I378" t="n">
-        <v>15.0567479663419</v>
+        <v>15.06349398709772</v>
       </c>
     </row>
     <row r="379">
@@ -12946,7 +12946,7 @@
         <v>9.523381294964029</v>
       </c>
       <c r="I379" t="n">
-        <v>16.88758233868914</v>
+        <v>16.94076712842545</v>
       </c>
     </row>
     <row r="380">
@@ -12979,7 +12979,7 @@
         <v>11.04080987029421</v>
       </c>
       <c r="I380" t="n">
-        <v>18.14995436687089</v>
+        <v>18.23515898530913</v>
       </c>
     </row>
     <row r="381">
@@ -13012,7 +13012,7 @@
         <v>11.04080987029421</v>
       </c>
       <c r="I381" t="n">
-        <v>18.14995436687089</v>
+        <v>18.23515898530913</v>
       </c>
     </row>
     <row r="382">
@@ -13045,7 +13045,7 @@
         <v>12.02726830060055</v>
       </c>
       <c r="I382" t="n">
-        <v>18.97060421466478</v>
+        <v>19.07662446190657</v>
       </c>
     </row>
     <row r="383">
@@ -13078,7 +13078,7 @@
         <v>10.27406886858749</v>
       </c>
       <c r="I383" t="n">
-        <v>17.51209080666741</v>
+        <v>17.58111613605537</v>
       </c>
     </row>
     <row r="384">
@@ -13111,7 +13111,7 @@
         <v>10.27406886858749</v>
       </c>
       <c r="I384" t="n">
-        <v>17.51209080666741</v>
+        <v>17.58111613605537</v>
       </c>
     </row>
     <row r="385">
@@ -13144,7 +13144,7 @@
         <v>10.86724584666971</v>
       </c>
       <c r="I385" t="n">
-        <v>18.00556380240919</v>
+        <v>18.08710598137869</v>
       </c>
     </row>
     <row r="386">
@@ -13177,7 +13177,7 @@
         <v>11.42898425083081</v>
       </c>
       <c r="I386" t="n">
-        <v>18.47288256791624</v>
+        <v>18.56627819934403</v>
       </c>
     </row>
     <row r="387">
@@ -13210,7 +13210,7 @@
         <v>11.42898425083081</v>
       </c>
       <c r="I387" t="n">
-        <v>18.47288256791624</v>
+        <v>18.56627819934403</v>
       </c>
     </row>
     <row r="388">
@@ -13243,7 +13243,7 @@
         <v>7.437994722955145</v>
       </c>
       <c r="I388" t="n">
-        <v>15.15271737090836</v>
+        <v>15.16189763753325</v>
       </c>
     </row>
     <row r="389">
@@ -13276,7 +13276,7 @@
         <v>7.437994722955145</v>
       </c>
       <c r="I389" t="n">
-        <v>15.15271737090836</v>
+        <v>15.16189763753325</v>
       </c>
     </row>
     <row r="390">
@@ -13309,7 +13309,7 @@
         <v>7.414806110458285</v>
       </c>
       <c r="I390" t="n">
-        <v>15.13342640969655</v>
+        <v>15.14211736472414</v>
       </c>
     </row>
     <row r="391">
@@ -13342,7 +13342,7 @@
         <v>11.3030303030303</v>
       </c>
       <c r="I391" t="n">
-        <v>18.36809955332999</v>
+        <v>18.45883738333077</v>
       </c>
     </row>
     <row r="392">
@@ -13375,7 +13375,7 @@
         <v>11.3030303030303</v>
       </c>
       <c r="I392" t="n">
-        <v>18.36809955332999</v>
+        <v>18.45883738333077</v>
       </c>
     </row>
     <row r="393">
@@ -13408,7 +13408,7 @@
         <v>10.56218057921635</v>
       </c>
       <c r="I393" t="n">
-        <v>17.7517753429958</v>
+        <v>17.82688022549839</v>
       </c>
     </row>
     <row r="394">
@@ -13441,7 +13441,7 @@
         <v>11.32075471698113</v>
       </c>
       <c r="I394" t="n">
-        <v>18.38284476424219</v>
+        <v>18.4739566037402</v>
       </c>
     </row>
     <row r="395">
@@ -13474,7 +13474,7 @@
         <v>11.32075471698113</v>
       </c>
       <c r="I395" t="n">
-        <v>18.38284476424219</v>
+        <v>18.4739566037402</v>
       </c>
     </row>
     <row r="396">
@@ -13507,7 +13507,7 @@
         <v>9.626352015732545</v>
       </c>
       <c r="I396" t="n">
-        <v>16.97324525537147</v>
+        <v>17.0286028688531</v>
       </c>
     </row>
     <row r="397">
@@ -13540,7 +13540,7 @@
         <v>9.626352015732545</v>
       </c>
       <c r="I397" t="n">
-        <v>16.97324525537147</v>
+        <v>17.0286028688531</v>
       </c>
     </row>
     <row r="398">
@@ -13573,7 +13573,7 @@
         <v>11.3429327064355</v>
       </c>
       <c r="I398" t="n">
-        <v>18.40129497269592</v>
+        <v>18.4928747982559</v>
       </c>
     </row>
     <row r="399">
@@ -13606,7 +13606,7 @@
         <v>11.3429327064355</v>
       </c>
       <c r="I399" t="n">
-        <v>18.40129497269592</v>
+        <v>18.4928747982559</v>
       </c>
     </row>
     <row r="400">
@@ -13639,7 +13639,7 @@
         <v>18.30276414363214</v>
       </c>
       <c r="I400" t="n">
-        <v>24.19128513764671</v>
+        <v>24.42972697308075</v>
       </c>
     </row>
     <row r="401">
@@ -13672,7 +13672,7 @@
         <v>7.437994722955145</v>
       </c>
       <c r="I401" t="n">
-        <v>15.15271737090836</v>
+        <v>15.16189763753325</v>
       </c>
     </row>
     <row r="402">
@@ -13705,7 +13705,7 @@
         <v>11.32075471698113</v>
       </c>
       <c r="I402" t="n">
-        <v>18.38284476424219</v>
+        <v>18.4739566037402</v>
       </c>
     </row>
     <row r="403">
@@ -13738,7 +13738,7 @@
         <v>9.763313609467454</v>
       </c>
       <c r="I403" t="n">
-        <v>17.08718569888033</v>
+        <v>17.14543339024862</v>
       </c>
     </row>
     <row r="404">
@@ -13771,7 +13771,7 @@
         <v>8.030684680558736</v>
       </c>
       <c r="I404" t="n">
-        <v>15.64578520686907</v>
+        <v>15.66747204627396</v>
       </c>
     </row>
     <row r="405">
@@ -13804,7 +13804,7 @@
         <v>10.35573122529644</v>
       </c>
       <c r="I405" t="n">
-        <v>17.58002696955557</v>
+        <v>17.65077548691806</v>
       </c>
     </row>
     <row r="406">
@@ -13837,7 +13837,7 @@
         <v>7.493549576115002</v>
       </c>
       <c r="I406" t="n">
-        <v>15.19893430249836</v>
+        <v>15.20928685288715</v>
       </c>
     </row>
     <row r="407">
@@ -13870,7 +13870,7 @@
         <v>11.17351463198345</v>
       </c>
       <c r="I407" t="n">
-        <v>18.26035348672836</v>
+        <v>18.3483583580459</v>
       </c>
     </row>
     <row r="408">
@@ -13903,7 +13903,7 @@
         <v>11.17351463198345</v>
       </c>
       <c r="I408" t="n">
-        <v>18.26035348672836</v>
+        <v>18.3483583580459</v>
       </c>
     </row>
     <row r="409">
@@ -13936,7 +13936,7 @@
         <v>9.694926140012846</v>
       </c>
       <c r="I409" t="n">
-        <v>17.03029311762731</v>
+        <v>17.08709773938896</v>
       </c>
     </row>
     <row r="410">
@@ -13969,7 +13969,7 @@
         <v>11.57286363010871</v>
       </c>
       <c r="I410" t="n">
-        <v>18.59257802296793</v>
+        <v>18.68900970706608</v>
       </c>
     </row>
     <row r="411">
@@ -14002,7 +14002,7 @@
         <v>11.57286363010871</v>
       </c>
       <c r="I411" t="n">
-        <v>18.59257802296793</v>
+        <v>18.68900970706608</v>
       </c>
     </row>
     <row r="412">
@@ -14035,7 +14035,7 @@
         <v>7.600671140939597</v>
       </c>
       <c r="I412" t="n">
-        <v>15.28805036980334</v>
+        <v>15.30066333245254</v>
       </c>
     </row>
     <row r="413">
@@ -14068,7 +14068,7 @@
         <v>11.8522233366767</v>
       </c>
       <c r="I413" t="n">
-        <v>18.82498163332946</v>
+        <v>18.92730819122659</v>
       </c>
     </row>
     <row r="414">
@@ -14101,7 +14101,7 @@
         <v>11.8522233366767</v>
       </c>
       <c r="I414" t="n">
-        <v>18.82498163332946</v>
+        <v>18.92730819122659</v>
       </c>
     </row>
     <row r="415">
@@ -14134,7 +14134,7 @@
         <v>11.8522233366767</v>
       </c>
       <c r="I415" t="n">
-        <v>18.82498163332946</v>
+        <v>18.92730819122659</v>
       </c>
     </row>
     <row r="416">
@@ -14167,7 +14167,7 @@
         <v>7.936241610738255</v>
       </c>
       <c r="I416" t="n">
-        <v>15.56721657336943</v>
+        <v>15.58691053418558</v>
       </c>
     </row>
     <row r="417">
@@ -14200,7 +14200,7 @@
         <v>9.412019022913965</v>
       </c>
       <c r="I417" t="n">
-        <v>16.79493836221718</v>
+        <v>16.84577325494161</v>
       </c>
     </row>
     <row r="418">
@@ -14233,7 +14233,7 @@
         <v>10.32526475037822</v>
       </c>
       <c r="I418" t="n">
-        <v>17.55468144334146</v>
+        <v>17.62478707620587</v>
       </c>
     </row>
     <row r="419">
@@ -14266,7 +14266,7 @@
         <v>7.670877874959507</v>
       </c>
       <c r="I419" t="n">
-        <v>15.34645642505865</v>
+        <v>15.36055084629747</v>
       </c>
     </row>
     <row r="420">
@@ -14299,7 +14299,7 @@
         <v>9.746611667648793</v>
       </c>
       <c r="I420" t="n">
-        <v>17.07329109816503</v>
+        <v>17.1311863556035</v>
       </c>
     </row>
     <row r="421">
@@ -14332,7 +14332,7 @@
         <v>7.879604672057502</v>
       </c>
       <c r="I421" t="n">
-        <v>15.52009943829316</v>
+        <v>15.53859828185355</v>
       </c>
     </row>
     <row r="422">
@@ -14365,7 +14365,7 @@
         <v>7.879604672057502</v>
       </c>
       <c r="I422" t="n">
-        <v>15.52009943829316</v>
+        <v>15.53859828185355</v>
       </c>
     </row>
     <row r="423">
@@ -14398,7 +14398,7 @@
         <v>9.615478814597111</v>
       </c>
       <c r="I423" t="n">
-        <v>16.96419967313233</v>
+        <v>17.01932784712439</v>
       </c>
     </row>
     <row r="424">
@@ -14431,7 +14431,7 @@
         <v>9.702852614896988</v>
       </c>
       <c r="I424" t="n">
-        <v>17.03688727325249</v>
+        <v>17.09385915452944</v>
       </c>
     </row>
     <row r="425">
@@ -14464,7 +14464,7 @@
         <v>9.702852614896988</v>
       </c>
       <c r="I425" t="n">
-        <v>17.03688727325249</v>
+        <v>17.09385915452944</v>
       </c>
     </row>
     <row r="426">
@@ -14497,7 +14497,7 @@
         <v>9.702852614896988</v>
       </c>
       <c r="I426" t="n">
-        <v>17.03688727325249</v>
+        <v>17.09385915452944</v>
       </c>
     </row>
     <row r="427">
@@ -14530,7 +14530,7 @@
         <v>8.035284683239775</v>
       </c>
       <c r="I427" t="n">
-        <v>15.64961201941795</v>
+        <v>15.67139592520229</v>
       </c>
     </row>
     <row r="428">
@@ -14563,7 +14563,7 @@
         <v>7.644295302013423</v>
       </c>
       <c r="I428" t="n">
-        <v>15.32434197626693</v>
+        <v>15.33787546867784</v>
       </c>
     </row>
     <row r="429">
@@ -14596,7 +14596,7 @@
         <v>7.95138888888889</v>
       </c>
       <c r="I429" t="n">
-        <v>15.57981782561374</v>
+        <v>15.59983141481936</v>
       </c>
     </row>
     <row r="430">
@@ -14629,7 +14629,7 @@
         <v>7.95138888888889</v>
       </c>
       <c r="I430" t="n">
-        <v>15.57981782561374</v>
+        <v>15.59983141481936</v>
       </c>
     </row>
     <row r="431">
@@ -14662,7 +14662,7 @@
         <v>7.75497512437811</v>
       </c>
       <c r="I431" t="n">
-        <v>15.41641821241327</v>
+        <v>15.43228720120964</v>
       </c>
     </row>
     <row r="432">
@@ -14695,7 +14695,7 @@
         <v>8.053691275167784</v>
       </c>
       <c r="I432" t="n">
-        <v>15.66492474461757</v>
+        <v>15.68709705479214</v>
       </c>
     </row>
     <row r="433">
@@ -14728,7 +14728,7 @@
         <v>8.053691275167784</v>
       </c>
       <c r="I433" t="n">
-        <v>15.66492474461757</v>
+        <v>15.68709705479214</v>
       </c>
     </row>
     <row r="434">
@@ -14761,7 +14761,7 @@
         <v>7.363885624755189</v>
       </c>
       <c r="I434" t="n">
-        <v>15.09106487923767</v>
+        <v>15.09868134202482</v>
       </c>
     </row>
     <row r="435">
@@ -14794,7 +14794,7 @@
         <v>7.363885624755189</v>
       </c>
       <c r="I435" t="n">
-        <v>15.09106487923767</v>
+        <v>15.09868134202482</v>
       </c>
     </row>
     <row r="436">
@@ -14827,7 +14827,7 @@
         <v>7.363885624755189</v>
       </c>
       <c r="I436" t="n">
-        <v>15.09106487923767</v>
+        <v>15.09868134202482</v>
       </c>
     </row>
     <row r="437">
@@ -14860,7 +14860,7 @@
         <v>7.45669001105787</v>
       </c>
       <c r="I437" t="n">
-        <v>15.16827026686891</v>
+        <v>15.17784502977015</v>
       </c>
     </row>
     <row r="438">
@@ -14893,7 +14893,7 @@
         <v>7.45669001105787</v>
       </c>
       <c r="I438" t="n">
-        <v>15.16827026686891</v>
+        <v>15.17784502977015</v>
       </c>
     </row>
     <row r="439">
@@ -14926,7 +14926,7 @@
         <v>7.45669001105787</v>
       </c>
       <c r="I439" t="n">
-        <v>15.16827026686891</v>
+        <v>15.17784502977015</v>
       </c>
     </row>
     <row r="440">
@@ -14959,7 +14959,7 @@
         <v>7.709750566893424</v>
       </c>
       <c r="I440" t="n">
-        <v>15.37879521171082</v>
+        <v>15.39370990018141</v>
       </c>
     </row>
     <row r="441">
@@ -14992,7 +14992,7 @@
         <v>8.136503067484663</v>
       </c>
       <c r="I441" t="n">
-        <v>15.73381714055895</v>
+        <v>15.75773689337933</v>
       </c>
     </row>
     <row r="442">
@@ -15025,7 +15025,7 @@
         <v>8.136503067484663</v>
       </c>
       <c r="I442" t="n">
-        <v>15.73381714055895</v>
+        <v>15.75773689337933</v>
       </c>
     </row>
     <row r="443">
@@ -15058,7 +15058,7 @@
         <v>7.830957794908769</v>
       </c>
       <c r="I443" t="n">
-        <v>15.47962935754647</v>
+        <v>15.49710168513206</v>
       </c>
     </row>
     <row r="444">
@@ -15091,7 +15091,7 @@
         <v>8.175450300200133</v>
       </c>
       <c r="I444" t="n">
-        <v>15.76621793882677</v>
+        <v>15.79095953179187</v>
       </c>
     </row>
     <row r="445">
@@ -15124,7 +15124,7 @@
         <v>8.175450300200133</v>
       </c>
       <c r="I445" t="n">
-        <v>15.76621793882677</v>
+        <v>15.79095953179187</v>
       </c>
     </row>
     <row r="446">
@@ -15157,7 +15157,7 @@
         <v>7.62751677852349</v>
       </c>
       <c r="I446" t="n">
-        <v>15.31038366608863</v>
+        <v>15.32356310859118</v>
       </c>
     </row>
     <row r="447">
@@ -15190,7 +15190,7 @@
         <v>7.62751677852349</v>
       </c>
       <c r="I447" t="n">
-        <v>15.31038366608863</v>
+        <v>15.32356310859118</v>
       </c>
     </row>
     <row r="448">
@@ -15223,7 +15223,7 @@
         <v>7.62751677852349</v>
       </c>
       <c r="I448" t="n">
-        <v>15.31038366608863</v>
+        <v>15.32356310859118</v>
       </c>
     </row>
     <row r="449">
@@ -15256,7 +15256,7 @@
         <v>7.792636618788178</v>
       </c>
       <c r="I449" t="n">
-        <v>15.44774938533022</v>
+        <v>15.46441308342578</v>
       </c>
     </row>
     <row r="450">
@@ -15289,7 +15289,7 @@
         <v>6.585049156000742</v>
       </c>
       <c r="I450" t="n">
-        <v>14.44313891509829</v>
+        <v>14.43432085785479</v>
       </c>
     </row>
     <row r="451">
@@ -15322,7 +15322,7 @@
         <v>6.585049156000742</v>
       </c>
       <c r="I451" t="n">
-        <v>14.44313891509829</v>
+        <v>14.43432085785479</v>
       </c>
     </row>
     <row r="452">
@@ -15355,7 +15355,7 @@
         <v>6.585049156000742</v>
       </c>
       <c r="I452" t="n">
-        <v>14.44313891509829</v>
+        <v>14.43432085785479</v>
       </c>
     </row>
     <row r="453">
@@ -15388,7 +15388,7 @@
         <v>6.585049156000742</v>
       </c>
       <c r="I453" t="n">
-        <v>14.44313891509829</v>
+        <v>14.43432085785479</v>
       </c>
     </row>
     <row r="454">
@@ -15421,7 +15421,7 @@
         <v>6.585049156000742</v>
       </c>
       <c r="I454" t="n">
-        <v>14.44313891509829</v>
+        <v>14.43432085785479</v>
       </c>
     </row>
     <row r="455">
@@ -15454,7 +15454,7 @@
         <v>6.585049156000742</v>
       </c>
       <c r="I455" t="n">
-        <v>14.44313891509829</v>
+        <v>14.43432085785479</v>
       </c>
     </row>
     <row r="456">
@@ -15487,7 +15487,7 @@
         <v>7.78917910447761</v>
       </c>
       <c r="I456" t="n">
-        <v>15.44487302632153</v>
+        <v>15.46146376611265</v>
       </c>
     </row>
     <row r="457">
@@ -15520,7 +15520,7 @@
         <v>7.78917910447761</v>
       </c>
       <c r="I457" t="n">
-        <v>15.44487302632153</v>
+        <v>15.46146376611265</v>
       </c>
     </row>
     <row r="458">
@@ -15553,7 +15553,7 @@
         <v>7.78917910447761</v>
       </c>
       <c r="I458" t="n">
-        <v>15.44487302632153</v>
+        <v>15.46146376611265</v>
       </c>
     </row>
     <row r="459">
@@ -15586,7 +15586,7 @@
         <v>7.712146422628951</v>
       </c>
       <c r="I459" t="n">
-        <v>15.38078836072176</v>
+        <v>15.39575360504156</v>
       </c>
     </row>
     <row r="460">
@@ -15619,7 +15619,7 @@
         <v>7.712146422628951</v>
       </c>
       <c r="I460" t="n">
-        <v>15.38078836072176</v>
+        <v>15.39575360504156</v>
       </c>
     </row>
     <row r="461">
@@ -15652,7 +15652,7 @@
         <v>7.721518987341772</v>
       </c>
       <c r="I461" t="n">
-        <v>15.38858554058126</v>
+        <v>15.40374855889944</v>
       </c>
     </row>
     <row r="462">
@@ -15685,7 +15685,7 @@
         <v>6.584781353135303</v>
       </c>
       <c r="I462" t="n">
-        <v>14.44291612580072</v>
+        <v>14.43409241754866</v>
       </c>
     </row>
     <row r="463">
@@ -15718,7 +15718,7 @@
         <v>6.584781353135303</v>
       </c>
       <c r="I463" t="n">
-        <v>14.44291612580072</v>
+        <v>14.43409241754866</v>
       </c>
     </row>
     <row r="464">
@@ -15751,7 +15751,7 @@
         <v>6.584781353135303</v>
       </c>
       <c r="I464" t="n">
-        <v>14.44291612580072</v>
+        <v>14.43409241754866</v>
       </c>
     </row>
     <row r="465">
@@ -15784,7 +15784,7 @@
         <v>8.131515637530073</v>
       </c>
       <c r="I465" t="n">
-        <v>15.72966802133875</v>
+        <v>15.75348253253167</v>
       </c>
     </row>
     <row r="466">
@@ -15817,7 +15817,7 @@
         <v>8.131515637530073</v>
       </c>
       <c r="I466" t="n">
-        <v>15.72966802133875</v>
+        <v>15.75348253253167</v>
       </c>
     </row>
     <row r="467">
@@ -15850,7 +15850,7 @@
         <v>8.131515637530073</v>
       </c>
       <c r="I467" t="n">
-        <v>15.72966802133875</v>
+        <v>15.75348253253167</v>
       </c>
     </row>
     <row r="468">
@@ -15883,7 +15883,7 @@
         <v>8.131515637530073</v>
       </c>
       <c r="I468" t="n">
-        <v>15.72966802133875</v>
+        <v>15.75348253253167</v>
       </c>
     </row>
     <row r="469">
@@ -15916,7 +15916,7 @@
         <v>8.131515637530073</v>
       </c>
       <c r="I469" t="n">
-        <v>15.72966802133875</v>
+        <v>15.75348253253167</v>
       </c>
     </row>
     <row r="470">
@@ -15949,7 +15949,7 @@
         <v>8.131515637530073</v>
       </c>
       <c r="I470" t="n">
-        <v>15.72966802133875</v>
+        <v>15.75348253253167</v>
       </c>
     </row>
     <row r="471">
@@ -15982,7 +15982,7 @@
         <v>7.696793002915452</v>
       </c>
       <c r="I471" t="n">
-        <v>15.3680156161601</v>
+        <v>15.3826568822201</v>
       </c>
     </row>
     <row r="472">
@@ -16015,7 +16015,7 @@
         <v>7.696793002915452</v>
       </c>
       <c r="I472" t="n">
-        <v>15.3680156161601</v>
+        <v>15.3826568822201</v>
       </c>
     </row>
     <row r="473">
@@ -16048,7 +16048,7 @@
         <v>7.696793002915452</v>
       </c>
       <c r="I473" t="n">
-        <v>15.3680156161601</v>
+        <v>15.3826568822201</v>
       </c>
     </row>
     <row r="474">
@@ -16081,7 +16081,7 @@
         <v>7.880091070073362</v>
       </c>
       <c r="I474" t="n">
-        <v>15.52050408023794</v>
+        <v>15.53901318746503</v>
       </c>
     </row>
     <row r="475">
@@ -16114,7 +16114,7 @@
         <v>8.243865030674845</v>
       </c>
       <c r="I475" t="n">
-        <v>15.82313319893915</v>
+        <v>15.84931843675588</v>
       </c>
     </row>
     <row r="476">
@@ -16147,7 +16147,7 @@
         <v>8.243865030674845</v>
       </c>
       <c r="I476" t="n">
-        <v>15.82313319893915</v>
+        <v>15.84931843675588</v>
       </c>
     </row>
     <row r="477">
@@ -16180,7 +16180,7 @@
         <v>8.243865030674845</v>
       </c>
       <c r="I477" t="n">
-        <v>15.82313319893915</v>
+        <v>15.84931843675588</v>
       </c>
     </row>
     <row r="478">
@@ -16213,7 +16213,7 @@
         <v>8.243865030674845</v>
       </c>
       <c r="I478" t="n">
-        <v>15.82313319893915</v>
+        <v>15.84931843675588</v>
       </c>
     </row>
     <row r="479">
@@ -16246,7 +16246,7 @@
         <v>6.642585410895681</v>
       </c>
       <c r="I479" t="n">
-        <v>14.49100420508065</v>
+        <v>14.48340024190118</v>
       </c>
     </row>
     <row r="480">
@@ -16279,7 +16279,7 @@
         <v>6.642585410895681</v>
       </c>
       <c r="I480" t="n">
-        <v>14.49100420508065</v>
+        <v>14.48340024190118</v>
       </c>
     </row>
     <row r="481">
@@ -16312,7 +16312,7 @@
         <v>6.642585410895681</v>
       </c>
       <c r="I481" t="n">
-        <v>14.49100420508065</v>
+        <v>14.48340024190118</v>
       </c>
     </row>
     <row r="482">
@@ -16345,7 +16345,7 @@
         <v>8.016493384938403</v>
       </c>
       <c r="I482" t="n">
-        <v>15.63397925110547</v>
+        <v>15.65536663466631</v>
       </c>
     </row>
     <row r="483">
@@ -16378,7 +16378,7 @@
         <v>7.786069651741293</v>
       </c>
       <c r="I483" t="n">
-        <v>15.44228622505714</v>
+        <v>15.45881135112147</v>
       </c>
     </row>
     <row r="484">
@@ -16411,7 +16411,7 @@
         <v>7.786069651741293</v>
       </c>
       <c r="I484" t="n">
-        <v>15.44228622505714</v>
+        <v>15.45881135112147</v>
       </c>
     </row>
     <row r="485">
@@ -16444,7 +16444,7 @@
         <v>7.786069651741293</v>
       </c>
       <c r="I485" t="n">
-        <v>15.44228622505714</v>
+        <v>15.45881135112147</v>
       </c>
     </row>
     <row r="486">
@@ -16477,7 +16477,7 @@
         <v>7.786069651741293</v>
       </c>
       <c r="I486" t="n">
-        <v>15.44228622505714</v>
+        <v>15.45881135112147</v>
       </c>
     </row>
     <row r="487">
@@ -16510,7 +16510,7 @@
         <v>7.786069651741293</v>
       </c>
       <c r="I487" t="n">
-        <v>15.44228622505714</v>
+        <v>15.45881135112147</v>
       </c>
     </row>
     <row r="488">
@@ -16543,7 +16543,7 @@
         <v>7.786069651741293</v>
       </c>
       <c r="I488" t="n">
-        <v>15.44228622505714</v>
+        <v>15.45881135112147</v>
       </c>
     </row>
     <row r="489">
@@ -16576,7 +16576,7 @@
         <v>7.786069651741293</v>
       </c>
       <c r="I489" t="n">
-        <v>15.44228622505714</v>
+        <v>15.45881135112147</v>
       </c>
     </row>
     <row r="490">
@@ -16609,7 +16609,7 @@
         <v>7.786069651741293</v>
       </c>
       <c r="I490" t="n">
-        <v>15.44228622505714</v>
+        <v>15.45881135112147</v>
       </c>
     </row>
     <row r="491">
@@ -16642,7 +16642,7 @@
         <v>7.786069651741293</v>
       </c>
       <c r="I491" t="n">
-        <v>15.44228622505714</v>
+        <v>15.45881135112147</v>
       </c>
     </row>
     <row r="492">
@@ -16675,7 +16675,7 @@
         <v>7.939624853458383</v>
       </c>
       <c r="I492" t="n">
-        <v>15.57003114470668</v>
+        <v>15.58979649659461</v>
       </c>
     </row>
     <row r="493">
@@ -16708,7 +16708,7 @@
         <v>6.642863073984888</v>
       </c>
       <c r="I493" t="n">
-        <v>14.4912351972491</v>
+        <v>14.48363709314246</v>
       </c>
     </row>
     <row r="494">
@@ -16741,7 +16741,7 @@
         <v>6.642863073984888</v>
       </c>
       <c r="I494" t="n">
-        <v>14.4912351972491</v>
+        <v>14.48363709314246</v>
       </c>
     </row>
     <row r="495">
@@ -16774,7 +16774,7 @@
         <v>6.642863073984888</v>
       </c>
       <c r="I495" t="n">
-        <v>14.4912351972491</v>
+        <v>14.48363709314246</v>
       </c>
     </row>
     <row r="496">
@@ -16807,7 +16807,7 @@
         <v>6.642863073984888</v>
       </c>
       <c r="I496" t="n">
-        <v>14.4912351972491</v>
+        <v>14.48363709314246</v>
       </c>
     </row>
     <row r="497">
@@ -16840,7 +16840,7 @@
         <v>6.642863073984888</v>
       </c>
       <c r="I497" t="n">
-        <v>14.4912351972491</v>
+        <v>14.48363709314246</v>
       </c>
     </row>
     <row r="498">
@@ -16873,7 +16873,7 @@
         <v>6.642863073984888</v>
       </c>
       <c r="I498" t="n">
-        <v>14.4912351972491</v>
+        <v>14.48363709314246</v>
       </c>
     </row>
     <row r="499">
@@ -16906,7 +16906,7 @@
         <v>7.975086906141367</v>
       </c>
       <c r="I499" t="n">
-        <v>15.59953256842882</v>
+        <v>15.62004621837229</v>
       </c>
     </row>
     <row r="500">
@@ -16939,7 +16939,7 @@
         <v>8.007653671370486</v>
       </c>
       <c r="I500" t="n">
-        <v>15.62662535825892</v>
+        <v>15.64782621171296</v>
       </c>
     </row>
     <row r="501">
@@ -16972,7 +16972,7 @@
         <v>6.764670883911805</v>
       </c>
       <c r="I501" t="n">
-        <v>14.59256897635785</v>
+        <v>14.58754118447007</v>
       </c>
     </row>
     <row r="502">
@@ -17005,7 +17005,7 @@
         <v>6.571845704109423</v>
       </c>
       <c r="I502" t="n">
-        <v>14.43215476163365</v>
+        <v>14.42305809340661</v>
       </c>
     </row>
     <row r="503">
@@ -17038,7 +17038,7 @@
         <v>6.571845704109423</v>
       </c>
       <c r="I503" t="n">
-        <v>14.43215476163365</v>
+        <v>14.42305809340661</v>
       </c>
     </row>
     <row r="504">
@@ -17071,7 +17071,7 @@
         <v>6.571845704109423</v>
       </c>
       <c r="I504" t="n">
-        <v>14.43215476163365</v>
+        <v>14.42305809340661</v>
       </c>
     </row>
     <row r="505">
@@ -17104,7 +17104,7 @@
         <v>8.119223659889093</v>
       </c>
       <c r="I505" t="n">
-        <v>15.71944213723634</v>
+        <v>15.74299727080525</v>
       </c>
     </row>
     <row r="506">
@@ -17137,7 +17137,7 @@
         <v>8.119223659889093</v>
       </c>
       <c r="I506" t="n">
-        <v>15.71944213723634</v>
+        <v>15.74299727080525</v>
       </c>
     </row>
     <row r="507">
@@ -17170,7 +17170,7 @@
         <v>8.181848504052565</v>
       </c>
       <c r="I507" t="n">
-        <v>15.77154070241857</v>
+        <v>15.79641730627952</v>
       </c>
     </row>
     <row r="508">
@@ -17203,7 +17203,7 @@
         <v>8.181848504052565</v>
       </c>
       <c r="I508" t="n">
-        <v>15.77154070241857</v>
+        <v>15.79641730627952</v>
       </c>
     </row>
     <row r="509">
@@ -17236,7 +17236,7 @@
         <v>8.181848504052565</v>
       </c>
       <c r="I509" t="n">
-        <v>15.77154070241857</v>
+        <v>15.79641730627952</v>
       </c>
     </row>
     <row r="510">
@@ -17269,7 +17269,7 @@
         <v>8.164924784158037</v>
       </c>
       <c r="I510" t="n">
-        <v>15.75746160113172</v>
+        <v>15.78198109124061</v>
       </c>
     </row>
     <row r="511">
@@ -17302,7 +17302,7 @@
         <v>11.87800963081862</v>
       </c>
       <c r="I511" t="n">
-        <v>18.84643364561158</v>
+        <v>18.94930432975934</v>
       </c>
     </row>
     <row r="512">
@@ -17335,7 +17335,7 @@
         <v>11.87800963081862</v>
       </c>
       <c r="I512" t="n">
-        <v>18.84643364561158</v>
+        <v>18.94930432975934</v>
       </c>
     </row>
     <row r="513">
@@ -17368,7 +17368,7 @@
         <v>11.87800963081862</v>
       </c>
       <c r="I513" t="n">
-        <v>18.84643364561158</v>
+        <v>18.94930432975934</v>
       </c>
     </row>
     <row r="514">
@@ -17401,7 +17401,7 @@
         <v>7.924970691676436</v>
       </c>
       <c r="I514" t="n">
-        <v>15.55784012350757</v>
+        <v>15.57729625243921</v>
       </c>
     </row>
     <row r="515">
@@ -17434,7 +17434,7 @@
         <v>7.924970691676436</v>
       </c>
       <c r="I515" t="n">
-        <v>15.55784012350757</v>
+        <v>15.57729625243921</v>
       </c>
     </row>
     <row r="516">
@@ -17467,7 +17467,7 @@
         <v>7.924970691676436</v>
       </c>
       <c r="I516" t="n">
-        <v>15.55784012350757</v>
+        <v>15.57729625243921</v>
       </c>
     </row>
     <row r="517">
@@ -17500,7 +17500,7 @@
         <v>6.764522361586198</v>
       </c>
       <c r="I517" t="n">
-        <v>14.59244541836477</v>
+        <v>14.58741449245177</v>
       </c>
     </row>
     <row r="518">
@@ -17533,7 +17533,7 @@
         <v>6.764522361586198</v>
       </c>
       <c r="I518" t="n">
-        <v>14.59244541836477</v>
+        <v>14.58741449245177</v>
       </c>
     </row>
     <row r="519">
@@ -17566,7 +17566,7 @@
         <v>6.764522361586198</v>
       </c>
       <c r="I519" t="n">
-        <v>14.59244541836477</v>
+        <v>14.58741449245177</v>
       </c>
     </row>
     <row r="520">
@@ -17599,7 +17599,7 @@
         <v>6.97565543071161</v>
       </c>
       <c r="I520" t="n">
-        <v>14.76809024608267</v>
+        <v>14.76751451813854</v>
       </c>
     </row>
     <row r="521">
@@ -17632,7 +17632,7 @@
         <v>6.97565543071161</v>
       </c>
       <c r="I521" t="n">
-        <v>14.76809024608267</v>
+        <v>14.76751451813854</v>
       </c>
     </row>
     <row r="522">
@@ -17665,7 +17665,7 @@
         <v>7.954808806488993</v>
       </c>
       <c r="I522" t="n">
-        <v>15.58266290734427</v>
+        <v>15.60274866151206</v>
       </c>
     </row>
     <row r="523">
@@ -17698,7 +17698,7 @@
         <v>7.954808806488993</v>
       </c>
       <c r="I523" t="n">
-        <v>15.58266290734427</v>
+        <v>15.60274866151206</v>
       </c>
     </row>
     <row r="524">
@@ -17731,7 +17731,7 @@
         <v>7.954808806488993</v>
       </c>
       <c r="I524" t="n">
-        <v>15.58266290734427</v>
+        <v>15.60274866151206</v>
       </c>
     </row>
     <row r="525">
@@ -17764,7 +17764,7 @@
         <v>8.237251593550807</v>
       </c>
       <c r="I525" t="n">
-        <v>15.81763137949851</v>
+        <v>15.84367706470151</v>
       </c>
     </row>
     <row r="526">
@@ -17797,7 +17797,7 @@
         <v>6.765067650676507</v>
       </c>
       <c r="I526" t="n">
-        <v>14.59289905269463</v>
+        <v>14.58787963313096</v>
       </c>
     </row>
     <row r="527">
@@ -17830,7 +17830,7 @@
         <v>6.765067650676507</v>
       </c>
       <c r="I527" t="n">
-        <v>14.59289905269463</v>
+        <v>14.58787963313096</v>
       </c>
     </row>
     <row r="528">
@@ -17863,7 +17863,7 @@
         <v>7.989690721649485</v>
       </c>
       <c r="I528" t="n">
-        <v>15.61168170579311</v>
+        <v>15.63250351631729</v>
       </c>
     </row>
     <row r="529">
@@ -17896,7 +17896,7 @@
         <v>7.989690721649485</v>
       </c>
       <c r="I529" t="n">
-        <v>15.61168170579311</v>
+        <v>15.63250351631729</v>
       </c>
     </row>
     <row r="530">
@@ -17929,7 +17929,7 @@
         <v>7.989690721649485</v>
       </c>
       <c r="I530" t="n">
-        <v>15.61168170579311</v>
+        <v>15.63250351631729</v>
       </c>
     </row>
     <row r="531">
@@ -17962,7 +17962,7 @@
         <v>7.989690721649485</v>
       </c>
       <c r="I531" t="n">
-        <v>15.61168170579311</v>
+        <v>15.63250351631729</v>
       </c>
     </row>
     <row r="532">
@@ -17995,7 +17995,7 @@
         <v>7.989690721649485</v>
       </c>
       <c r="I532" t="n">
-        <v>15.61168170579311</v>
+        <v>15.63250351631729</v>
       </c>
     </row>
     <row r="533">
@@ -18028,7 +18028,7 @@
         <v>7.989690721649485</v>
       </c>
       <c r="I533" t="n">
-        <v>15.61168170579311</v>
+        <v>15.63250351631729</v>
       </c>
     </row>
     <row r="534">
@@ -18061,7 +18061,7 @@
         <v>6.571989726544795</v>
       </c>
       <c r="I534" t="n">
-        <v>14.43227457609926</v>
+        <v>14.42318094694356</v>
       </c>
     </row>
     <row r="535">
@@ -18094,7 +18094,7 @@
         <v>6.571989726544795</v>
       </c>
       <c r="I535" t="n">
-        <v>14.43227457609926</v>
+        <v>14.42318094694356</v>
       </c>
     </row>
     <row r="536">
@@ -18127,7 +18127,7 @@
         <v>6.571989726544795</v>
       </c>
       <c r="I536" t="n">
-        <v>14.43227457609926</v>
+        <v>14.42318094694356</v>
       </c>
     </row>
     <row r="537">
@@ -18160,7 +18160,7 @@
         <v>6.945956810631237</v>
       </c>
       <c r="I537" t="n">
-        <v>14.74338351004608</v>
+        <v>14.74218110039639</v>
       </c>
     </row>
     <row r="538">
@@ -18193,7 +18193,7 @@
         <v>6.945956810631237</v>
       </c>
       <c r="I538" t="n">
-        <v>14.74338351004608</v>
+        <v>14.74218110039639</v>
       </c>
     </row>
     <row r="539">
@@ -18226,7 +18226,7 @@
         <v>6.945956810631237</v>
       </c>
       <c r="I539" t="n">
-        <v>14.74338351004608</v>
+        <v>14.74218110039639</v>
       </c>
     </row>
     <row r="540">
@@ -18259,7 +18259,7 @@
         <v>6.764936267179377</v>
       </c>
       <c r="I540" t="n">
-        <v>14.59278975275496</v>
+        <v>14.58776756081891</v>
       </c>
     </row>
     <row r="541">
@@ -18292,7 +18292,7 @@
         <v>6.764936267179377</v>
       </c>
       <c r="I541" t="n">
-        <v>14.59278975275496</v>
+        <v>14.58776756081891</v>
       </c>
     </row>
     <row r="542">
@@ -18325,7 +18325,7 @@
         <v>6.764936267179377</v>
       </c>
       <c r="I542" t="n">
-        <v>14.59278975275496</v>
+        <v>14.58776756081891</v>
       </c>
     </row>
     <row r="543">
@@ -18358,7 +18358,7 @@
         <v>11.08349267049076</v>
       </c>
       <c r="I543" t="n">
-        <v>18.18546284083045</v>
+        <v>18.27156812502194</v>
       </c>
     </row>
     <row r="544">
@@ -18391,7 +18391,7 @@
         <v>7.139303482587064</v>
       </c>
       <c r="I544" t="n">
-        <v>14.90423156206458</v>
+        <v>14.9071090329554</v>
       </c>
     </row>
     <row r="545">
@@ -18424,7 +18424,7 @@
         <v>7.139303482587064</v>
       </c>
       <c r="I545" t="n">
-        <v>14.90423156206458</v>
+        <v>14.9071090329554</v>
       </c>
     </row>
     <row r="546">
@@ -18457,7 +18457,7 @@
         <v>7.139303482587064</v>
       </c>
       <c r="I546" t="n">
-        <v>14.90423156206458</v>
+        <v>14.9071090329554</v>
       </c>
     </row>
     <row r="547">
@@ -18490,7 +18490,7 @@
         <v>7.139303482587064</v>
       </c>
       <c r="I547" t="n">
-        <v>14.90423156206458</v>
+        <v>14.9071090329554</v>
       </c>
     </row>
     <row r="548">
@@ -18523,7 +18523,7 @@
         <v>7.089552238805971</v>
       </c>
       <c r="I548" t="n">
-        <v>14.86284274183438</v>
+        <v>14.86467039309648</v>
       </c>
     </row>
     <row r="549">
@@ -18556,7 +18556,7 @@
         <v>6.945953286257468</v>
       </c>
       <c r="I549" t="n">
-        <v>14.74338057806566</v>
+        <v>14.74217809404684</v>
       </c>
     </row>
     <row r="550">
@@ -18589,7 +18589,7 @@
         <v>6.945953286257468</v>
       </c>
       <c r="I550" t="n">
-        <v>14.74338057806566</v>
+        <v>14.74217809404684</v>
       </c>
     </row>
     <row r="551">
@@ -18622,7 +18622,7 @@
         <v>6.945953286257468</v>
       </c>
       <c r="I551" t="n">
-        <v>14.74338057806566</v>
+        <v>14.74217809404684</v>
       </c>
     </row>
     <row r="552">
@@ -18655,7 +18655,7 @@
         <v>6.945953286257468</v>
       </c>
       <c r="I552" t="n">
-        <v>14.74338057806566</v>
+        <v>14.74217809404684</v>
       </c>
     </row>
     <row r="553">
@@ -18688,7 +18688,7 @@
         <v>6.945953286257468</v>
       </c>
       <c r="I553" t="n">
-        <v>14.74338057806566</v>
+        <v>14.74217809404684</v>
       </c>
     </row>
     <row r="554">
@@ -18721,7 +18721,7 @@
         <v>6.945953286257468</v>
       </c>
       <c r="I554" t="n">
-        <v>14.74338057806566</v>
+        <v>14.74217809404684</v>
       </c>
     </row>
     <row r="555">
@@ -18754,7 +18754,7 @@
         <v>7.260168841135838</v>
       </c>
       <c r="I555" t="n">
-        <v>15.00478130146496</v>
+        <v>15.01020919755512</v>
       </c>
     </row>
     <row r="556">
@@ -18787,7 +18787,7 @@
         <v>7.260168841135838</v>
       </c>
       <c r="I556" t="n">
-        <v>15.00478130146496</v>
+        <v>15.01020919755512</v>
       </c>
     </row>
     <row r="557">
@@ -18820,7 +18820,7 @@
         <v>7.260168841135838</v>
       </c>
       <c r="I557" t="n">
-        <v>15.00478130146496</v>
+        <v>15.01020919755512</v>
       </c>
     </row>
     <row r="558">
@@ -18853,7 +18853,7 @@
         <v>7.260168841135838</v>
       </c>
       <c r="I558" t="n">
-        <v>15.00478130146496</v>
+        <v>15.01020919755512</v>
       </c>
     </row>
     <row r="559">
@@ -18886,7 +18886,7 @@
         <v>7.776814108123736</v>
       </c>
       <c r="I559" t="n">
-        <v>15.43458639683566</v>
+        <v>15.45091621820755</v>
       </c>
     </row>
     <row r="560">
@@ -18919,7 +18919,7 @@
         <v>7.393431167016074</v>
       </c>
       <c r="I560" t="n">
-        <v>15.11564426749619</v>
+        <v>15.12388418183649</v>
       </c>
     </row>
     <row r="561">
@@ -18952,7 +18952,7 @@
         <v>10.0089928057554</v>
       </c>
       <c r="I561" t="n">
-        <v>17.2915699778785</v>
+        <v>17.35500183798372</v>
       </c>
     </row>
     <row r="562">
@@ -18985,7 +18985,7 @@
         <v>7.421383647798743</v>
       </c>
       <c r="I562" t="n">
-        <v>15.13889836355844</v>
+        <v>15.14772811366499</v>
       </c>
     </row>
     <row r="563">
@@ -19018,7 +19018,7 @@
         <v>7.421383647798743</v>
       </c>
       <c r="I563" t="n">
-        <v>15.13889836355844</v>
+        <v>15.14772811366499</v>
       </c>
     </row>
     <row r="564">
@@ -19051,7 +19051,7 @@
         <v>9.933460076045629</v>
       </c>
       <c r="I564" t="n">
-        <v>17.22873314539228</v>
+        <v>17.29057116107806</v>
       </c>
     </row>
     <row r="565">
@@ -19084,7 +19084,7 @@
         <v>7.048658481127786</v>
       </c>
       <c r="I565" t="n">
-        <v>14.82882259969428</v>
+        <v>14.82978733645936</v>
       </c>
     </row>
     <row r="566">
@@ -19117,7 +19117,7 @@
         <v>7.048658481127786</v>
       </c>
       <c r="I566" t="n">
-        <v>14.82882259969428</v>
+        <v>14.82978733645936</v>
       </c>
     </row>
     <row r="567">
@@ -19150,7 +19150,7 @@
         <v>7.048658481127786</v>
       </c>
       <c r="I567" t="n">
-        <v>14.82882259969428</v>
+        <v>14.82978733645936</v>
       </c>
     </row>
     <row r="568">
@@ -19183,7 +19183,7 @@
         <v>7.048658481127786</v>
       </c>
       <c r="I568" t="n">
-        <v>14.82882259969428</v>
+        <v>14.82978733645936</v>
       </c>
     </row>
     <row r="569">
@@ -19216,7 +19216,7 @@
         <v>7.005065200991486</v>
       </c>
       <c r="I569" t="n">
-        <v>14.79255668355469</v>
+        <v>14.79260154218829</v>
       </c>
     </row>
     <row r="570">
@@ -19249,7 +19249,7 @@
         <v>7.005065200991486</v>
       </c>
       <c r="I570" t="n">
-        <v>14.79255668355469</v>
+        <v>14.79260154218829</v>
       </c>
     </row>
     <row r="571">
@@ -19282,7 +19282,7 @@
         <v>7.005065200991486</v>
       </c>
       <c r="I571" t="n">
-        <v>14.79255668355469</v>
+        <v>14.79260154218829</v>
       </c>
     </row>
     <row r="572">
@@ -19315,7 +19315,7 @@
         <v>7.768150582611294</v>
       </c>
       <c r="I572" t="n">
-        <v>15.42737907752577</v>
+        <v>15.44352608660102</v>
       </c>
     </row>
     <row r="573">
@@ -19348,7 +19348,7 @@
         <v>10.0914362176628</v>
       </c>
       <c r="I573" t="n">
-        <v>17.36015591252595</v>
+        <v>17.42532744194398</v>
       </c>
     </row>
     <row r="574">
@@ -19381,7 +19381,7 @@
         <v>10.75421472937001</v>
       </c>
       <c r="I574" t="n">
-        <v>17.91153148806304</v>
+        <v>17.99068855509201</v>
       </c>
     </row>
     <row r="575">
@@ -19414,7 +19414,7 @@
         <v>10.70121398804131</v>
       </c>
       <c r="I575" t="n">
-        <v>17.86743936114914</v>
+        <v>17.94547803968457</v>
       </c>
     </row>
     <row r="576">
@@ -19447,7 +19447,7 @@
         <v>10.70846167784019</v>
       </c>
       <c r="I576" t="n">
-        <v>17.87346882508555</v>
+        <v>17.95166043983795</v>
       </c>
     </row>
     <row r="577">
@@ -19480,7 +19480,7 @@
         <v>10.75421472937001</v>
       </c>
       <c r="I577" t="n">
-        <v>17.91153148806304</v>
+        <v>17.99068855509201</v>
       </c>
     </row>
     <row r="578">
@@ -19513,7 +19513,7 @@
         <v>10.70846167784019</v>
       </c>
       <c r="I578" t="n">
-        <v>17.87346882508555</v>
+        <v>17.95166043983795</v>
       </c>
     </row>
     <row r="579">
@@ -19546,7 +19546,7 @@
         <v>8.376339817387851</v>
       </c>
       <c r="I579" t="n">
-        <v>15.93334099909834</v>
+        <v>15.96232163700628</v>
       </c>
     </row>
     <row r="580">
@@ -19579,7 +19579,7 @@
         <v>10.88757396449704</v>
       </c>
       <c r="I580" t="n">
-        <v>18.0224750743781</v>
+        <v>18.10444620457552</v>
       </c>
     </row>
     <row r="581">
@@ -19612,7 +19612,7 @@
         <v>10.88757396449704</v>
       </c>
       <c r="I581" t="n">
-        <v>18.0224750743781</v>
+        <v>18.10444620457552</v>
       </c>
     </row>
     <row r="582">
@@ -19645,7 +19645,7 @@
         <v>9.473170731707318</v>
       </c>
       <c r="I582" t="n">
-        <v>16.84581140356574</v>
+        <v>16.89793668140102</v>
       </c>
     </row>
     <row r="583">
@@ -19678,7 +19678,7 @@
         <v>9.473170731707318</v>
       </c>
       <c r="I583" t="n">
-        <v>16.84581140356574</v>
+        <v>16.89793668140102</v>
       </c>
     </row>
     <row r="584">
@@ -19711,7 +19711,7 @@
         <v>9.550045913682277</v>
       </c>
       <c r="I584" t="n">
-        <v>16.90976504261294</v>
+        <v>16.96351249245571</v>
       </c>
     </row>
     <row r="585">
@@ -19744,7 +19744,7 @@
         <v>9.510426110607433</v>
       </c>
       <c r="I585" t="n">
-        <v>16.87680472278182</v>
+        <v>16.92971614032081</v>
       </c>
     </row>
     <row r="586">
@@ -19777,7 +19777,7 @@
         <v>9.510426110607433</v>
       </c>
       <c r="I586" t="n">
-        <v>16.87680472278182</v>
+        <v>16.92971614032081</v>
       </c>
     </row>
     <row r="587">
@@ -19810,7 +19810,7 @@
         <v>9.510426110607433</v>
       </c>
       <c r="I587" t="n">
-        <v>16.87680472278182</v>
+        <v>16.92971614032081</v>
       </c>
     </row>
     <row r="588">
@@ -19843,7 +19843,7 @@
         <v>9.550045913682277</v>
       </c>
       <c r="I588" t="n">
-        <v>16.90976504261294</v>
+        <v>16.96351249245571</v>
       </c>
     </row>
     <row r="589">
@@ -19876,7 +19876,7 @@
         <v>9.510426110607433</v>
       </c>
       <c r="I589" t="n">
-        <v>16.87680472278182</v>
+        <v>16.92971614032081</v>
       </c>
     </row>
     <row r="590">
@@ -19909,7 +19909,7 @@
         <v>9.510426110607433</v>
       </c>
       <c r="I590" t="n">
-        <v>16.87680472278182</v>
+        <v>16.92971614032081</v>
       </c>
     </row>
     <row r="591">
@@ -19942,7 +19942,7 @@
         <v>9.510426110607433</v>
       </c>
       <c r="I591" t="n">
-        <v>16.87680472278182</v>
+        <v>16.92971614032081</v>
       </c>
     </row>
     <row r="592">
@@ -19975,7 +19975,7 @@
         <v>10.28007972306724</v>
       </c>
       <c r="I592" t="n">
-        <v>17.5170913283948</v>
+        <v>17.58624349507443</v>
       </c>
     </row>
     <row r="593">
@@ -20008,7 +20008,7 @@
         <v>8.488063660477454</v>
       </c>
       <c r="I593" t="n">
-        <v>16.0262857720453</v>
+        <v>16.05762393661103</v>
       </c>
     </row>
     <row r="594">
@@ -20041,7 +20041,7 @@
         <v>10.78779276082328</v>
       </c>
       <c r="I594" t="n">
-        <v>17.93946556572386</v>
+        <v>18.01933117537075</v>
       </c>
     </row>
     <row r="595">
@@ -20074,7 +20074,7 @@
         <v>10.90710198586335</v>
       </c>
       <c r="I595" t="n">
-        <v>18.03872073387031</v>
+        <v>18.12110393216055</v>
       </c>
     </row>
     <row r="596">
@@ -20107,7 +20107,7 @@
         <v>10.90541905082464</v>
       </c>
       <c r="I596" t="n">
-        <v>18.0373206744852</v>
+        <v>18.11966836053287</v>
       </c>
     </row>
     <row r="597">
@@ -20140,7 +20140,7 @@
         <v>10.96997690531178</v>
       </c>
       <c r="I597" t="n">
-        <v>18.0910273405049</v>
+        <v>18.17473728601944</v>
       </c>
     </row>
     <row r="598">
@@ -20173,7 +20173,7 @@
         <v>11.05776924307889</v>
       </c>
       <c r="I598" t="n">
-        <v>18.16406312834208</v>
+        <v>18.24962561285736</v>
       </c>
     </row>
     <row r="599">
@@ -20206,7 +20206,7 @@
         <v>10.921581769437</v>
       </c>
       <c r="I599" t="n">
-        <v>18.05076668717228</v>
+        <v>18.13345542879893</v>
       </c>
     </row>
     <row r="600">
@@ -20239,7 +20239,7 @@
         <v>10.92493297587131</v>
       </c>
       <c r="I600" t="n">
-        <v>18.05355460703363</v>
+        <v>18.1363140637224</v>
       </c>
     </row>
     <row r="601">
@@ -20272,7 +20272,7 @@
         <v>11.06417026724276</v>
       </c>
       <c r="I601" t="n">
-        <v>18.16938823819407</v>
+        <v>18.25508579311765</v>
       </c>
     </row>
     <row r="602">
@@ -20305,7 +20305,7 @@
         <v>11.05776924307889</v>
       </c>
       <c r="I602" t="n">
-        <v>18.16406312834208</v>
+        <v>18.24962561285736</v>
       </c>
     </row>
     <row r="603">
@@ -20338,7 +20338,7 @@
         <v>10.92493297587131</v>
       </c>
       <c r="I603" t="n">
-        <v>18.05355460703363</v>
+        <v>18.1363140637224</v>
       </c>
     </row>
     <row r="604">
@@ -20371,7 +20371,7 @@
         <v>11.05776924307889</v>
       </c>
       <c r="I604" t="n">
-        <v>18.16406312834208</v>
+        <v>18.24962561285736</v>
       </c>
     </row>
     <row r="605">
@@ -20404,7 +20404,7 @@
         <v>10.90541905082464</v>
       </c>
       <c r="I605" t="n">
-        <v>18.0373206744852</v>
+        <v>18.11966836053287</v>
       </c>
     </row>
     <row r="606">
@@ -20437,7 +20437,7 @@
         <v>10.96997690531178</v>
       </c>
       <c r="I606" t="n">
-        <v>18.0910273405049</v>
+        <v>18.17473728601944</v>
       </c>
     </row>
     <row r="607">
@@ -20470,7 +20470,7 @@
         <v>11.05776924307889</v>
       </c>
       <c r="I607" t="n">
-        <v>18.16406312834208</v>
+        <v>18.24962561285736</v>
       </c>
     </row>
     <row r="608">
@@ -20503,7 +20503,7 @@
         <v>10.92493297587131</v>
       </c>
       <c r="I608" t="n">
-        <v>18.05355460703363</v>
+        <v>18.1363140637224</v>
       </c>
     </row>
     <row r="609">
@@ -20536,7 +20536,7 @@
         <v>11.05776924307889</v>
       </c>
       <c r="I609" t="n">
-        <v>18.16406312834208</v>
+        <v>18.24962561285736</v>
       </c>
     </row>
     <row r="610">
@@ -20569,7 +20569,7 @@
         <v>10.92493297587131</v>
       </c>
       <c r="I610" t="n">
-        <v>18.05355460703363</v>
+        <v>18.1363140637224</v>
       </c>
     </row>
     <row r="611">
@@ -20602,7 +20602,7 @@
         <v>11.05776924307889</v>
       </c>
       <c r="I611" t="n">
-        <v>18.16406312834208</v>
+        <v>18.24962561285736</v>
       </c>
     </row>
     <row r="612">
@@ -20635,7 +20635,7 @@
         <v>11.17309778397644</v>
       </c>
       <c r="I612" t="n">
-        <v>18.26000670449913</v>
+        <v>18.34800277975076</v>
       </c>
     </row>
     <row r="613">
@@ -20668,7 +20668,7 @@
         <v>11.17309778397644</v>
       </c>
       <c r="I613" t="n">
-        <v>18.26000670449913</v>
+        <v>18.34800277975076</v>
       </c>
     </row>
     <row r="614">
@@ -20701,7 +20701,7 @@
         <v>11.17309778397644</v>
       </c>
       <c r="I614" t="n">
-        <v>18.26000670449913</v>
+        <v>18.34800277975076</v>
       </c>
     </row>
     <row r="615">
@@ -20734,7 +20734,7 @@
         <v>11.17309778397644</v>
       </c>
       <c r="I615" t="n">
-        <v>18.26000670449913</v>
+        <v>18.34800277975076</v>
       </c>
     </row>
     <row r="616">
@@ -20767,7 +20767,7 @@
         <v>9.962406015037594</v>
       </c>
       <c r="I616" t="n">
-        <v>17.25281371452547</v>
+        <v>17.31526252931125</v>
       </c>
     </row>
     <row r="617">
@@ -20800,7 +20800,7 @@
         <v>9.962406015037594</v>
       </c>
       <c r="I617" t="n">
-        <v>17.25281371452547</v>
+        <v>17.31526252931125</v>
       </c>
     </row>
     <row r="618">
@@ -20833,7 +20833,7 @@
         <v>9.962406015037594</v>
       </c>
       <c r="I618" t="n">
-        <v>17.25281371452547</v>
+        <v>17.31526252931125</v>
       </c>
     </row>
     <row r="619">
@@ -20866,7 +20866,7 @@
         <v>10.19203413940256</v>
       </c>
       <c r="I619" t="n">
-        <v>17.44384486142416</v>
+        <v>17.51113914526652</v>
       </c>
     </row>
     <row r="620">
@@ -20899,7 +20899,7 @@
         <v>10.19203413940256</v>
       </c>
       <c r="I620" t="n">
-        <v>17.44384486142416</v>
+        <v>17.51113914526652</v>
       </c>
     </row>
     <row r="621">
@@ -20932,7 +20932,7 @@
         <v>6.645765526403189</v>
       </c>
       <c r="I621" t="n">
-        <v>14.49364979178459</v>
+        <v>14.48611293341351</v>
       </c>
     </row>
     <row r="622">
@@ -20965,7 +20965,7 @@
         <v>6.645765526403189</v>
       </c>
       <c r="I622" t="n">
-        <v>14.49364979178459</v>
+        <v>14.48611293341351</v>
       </c>
     </row>
     <row r="623">
@@ -20998,7 +20998,7 @@
         <v>9.469424460431654</v>
       </c>
       <c r="I623" t="n">
-        <v>16.84269482322366</v>
+        <v>16.89474104958564</v>
       </c>
     </row>
     <row r="624">
@@ -21031,7 +21031,7 @@
         <v>9.469424460431654</v>
       </c>
       <c r="I624" t="n">
-        <v>16.84269482322366</v>
+        <v>16.89474104958564</v>
       </c>
     </row>
     <row r="625">
@@ -21064,7 +21064,7 @@
         <v>9.469424460431654</v>
       </c>
       <c r="I625" t="n">
-        <v>16.84269482322366</v>
+        <v>16.89474104958564</v>
       </c>
     </row>
     <row r="626">
@@ -21097,7 +21097,7 @@
         <v>9.469424460431654</v>
       </c>
       <c r="I626" t="n">
-        <v>16.84269482322366</v>
+        <v>16.89474104958564</v>
       </c>
     </row>
     <row r="627">
@@ -21130,7 +21130,7 @@
         <v>9.458406390025328</v>
       </c>
       <c r="I627" t="n">
-        <v>16.83352872202351</v>
+        <v>16.88534245195516</v>
       </c>
     </row>
     <row r="628">
@@ -21163,7 +21163,7 @@
         <v>9.710843373493978</v>
       </c>
       <c r="I628" t="n">
-        <v>17.04353490748107</v>
+        <v>17.10067540474801</v>
       </c>
     </row>
     <row r="629">
@@ -21196,7 +21196,7 @@
         <v>7.060990585345886</v>
       </c>
       <c r="I629" t="n">
-        <v>14.8390818657096</v>
+        <v>14.84030682682462</v>
       </c>
     </row>
     <row r="630">
@@ -21229,7 +21229,7 @@
         <v>7.060990585345886</v>
       </c>
       <c r="I630" t="n">
-        <v>14.8390818657096</v>
+        <v>14.84030682682462</v>
       </c>
     </row>
     <row r="631">
@@ -21262,7 +21262,7 @@
         <v>7.060990585345886</v>
       </c>
       <c r="I631" t="n">
-        <v>14.8390818657096</v>
+        <v>14.84030682682462</v>
       </c>
     </row>
     <row r="632">
@@ -21295,7 +21295,7 @@
         <v>7.060990585345886</v>
       </c>
       <c r="I632" t="n">
-        <v>14.8390818657096</v>
+        <v>14.84030682682462</v>
       </c>
     </row>
     <row r="633">
@@ -21328,7 +21328,7 @@
         <v>7.060990585345886</v>
       </c>
       <c r="I633" t="n">
-        <v>14.8390818657096</v>
+        <v>14.84030682682462</v>
       </c>
     </row>
     <row r="634">
@@ -21361,7 +21361,7 @@
         <v>7.060990585345886</v>
       </c>
       <c r="I634" t="n">
-        <v>14.8390818657096</v>
+        <v>14.84030682682462</v>
       </c>
     </row>
     <row r="635">
@@ -21394,7 +21394,7 @@
         <v>7.060990585345886</v>
       </c>
       <c r="I635" t="n">
-        <v>14.8390818657096</v>
+        <v>14.84030682682462</v>
       </c>
     </row>
     <row r="636">
@@ -21427,7 +21427,7 @@
         <v>7.078763708873379</v>
       </c>
       <c r="I636" t="n">
-        <v>14.85386759886323</v>
+        <v>14.8554675973145</v>
       </c>
     </row>
     <row r="637">
@@ -21460,7 +21460,7 @@
         <v>7.078763708873379</v>
       </c>
       <c r="I637" t="n">
-        <v>14.85386759886323</v>
+        <v>14.8554675973145</v>
       </c>
     </row>
     <row r="638">
@@ -21493,7 +21493,7 @@
         <v>7.078763708873379</v>
       </c>
       <c r="I638" t="n">
-        <v>14.85386759886323</v>
+        <v>14.8554675973145</v>
       </c>
     </row>
     <row r="639">
@@ -21526,7 +21526,7 @@
         <v>7.174549230623997</v>
       </c>
       <c r="I639" t="n">
-        <v>14.93355303864511</v>
+        <v>14.93717424326611</v>
       </c>
     </row>
     <row r="640">
@@ -21559,7 +21559,7 @@
         <v>7.174549230623997</v>
       </c>
       <c r="I640" t="n">
-        <v>14.93355303864511</v>
+        <v>14.93717424326611</v>
       </c>
     </row>
     <row r="641">
@@ -21592,7 +21592,7 @@
         <v>7.174549230623997</v>
       </c>
       <c r="I641" t="n">
-        <v>14.93355303864511</v>
+        <v>14.93717424326611</v>
       </c>
     </row>
     <row r="642">
@@ -21625,7 +21625,7 @@
         <v>7.174549230623997</v>
       </c>
       <c r="I642" t="n">
-        <v>14.93355303864511</v>
+        <v>14.93717424326611</v>
       </c>
     </row>
     <row r="643">
@@ -21658,7 +21658,7 @@
         <v>7.174549230623997</v>
       </c>
       <c r="I643" t="n">
-        <v>14.93355303864511</v>
+        <v>14.93717424326611</v>
       </c>
     </row>
     <row r="644">
@@ -21691,7 +21691,7 @@
         <v>7.174549230623997</v>
       </c>
       <c r="I644" t="n">
-        <v>14.93355303864511</v>
+        <v>14.93717424326611</v>
       </c>
     </row>
     <row r="645">
@@ -21724,7 +21724,7 @@
         <v>7.174549230623997</v>
       </c>
       <c r="I645" t="n">
-        <v>14.93355303864511</v>
+        <v>14.93717424326611</v>
       </c>
     </row>
     <row r="646">
@@ -21757,7 +21757,7 @@
         <v>7.174549230623997</v>
       </c>
       <c r="I646" t="n">
-        <v>14.93355303864511</v>
+        <v>14.93717424326611</v>
       </c>
     </row>
     <row r="647">
@@ -21790,7 +21790,7 @@
         <v>7.174549230623997</v>
       </c>
       <c r="I647" t="n">
-        <v>14.93355303864511</v>
+        <v>14.93717424326611</v>
       </c>
     </row>
     <row r="648">
@@ -21823,7 +21823,7 @@
         <v>7.279093338247489</v>
       </c>
       <c r="I648" t="n">
-        <v>15.02052487990387</v>
+        <v>15.02635210889552</v>
       </c>
     </row>
     <row r="649">
@@ -21856,7 +21856,7 @@
         <v>7.279093338247489</v>
       </c>
       <c r="I649" t="n">
-        <v>15.02052487990387</v>
+        <v>15.02635210889552</v>
       </c>
     </row>
     <row r="650">
@@ -21889,7 +21889,7 @@
         <v>7.279093338247489</v>
       </c>
       <c r="I650" t="n">
-        <v>15.02052487990387</v>
+        <v>15.02635210889552</v>
       </c>
     </row>
     <row r="651">
@@ -21922,7 +21922,7 @@
         <v>7.279093338247489</v>
       </c>
       <c r="I651" t="n">
-        <v>15.02052487990387</v>
+        <v>15.02635210889552</v>
       </c>
     </row>
     <row r="652">
@@ -21955,7 +21955,7 @@
         <v>7.279093338247489</v>
       </c>
       <c r="I652" t="n">
-        <v>15.02052487990387</v>
+        <v>15.02635210889552</v>
       </c>
     </row>
     <row r="653">
@@ -21988,7 +21988,7 @@
         <v>7.279093338247489</v>
       </c>
       <c r="I653" t="n">
-        <v>15.02052487990387</v>
+        <v>15.02635210889552</v>
       </c>
     </row>
     <row r="654">
@@ -22021,7 +22021,7 @@
         <v>7.279093338247489</v>
       </c>
       <c r="I654" t="n">
-        <v>15.02052487990387</v>
+        <v>15.02635210889552</v>
       </c>
     </row>
     <row r="655">
@@ -22054,7 +22054,7 @@
         <v>7.279093338247489</v>
       </c>
       <c r="I655" t="n">
-        <v>15.02052487990387</v>
+        <v>15.02635210889552</v>
       </c>
     </row>
     <row r="656">
@@ -22087,7 +22087,7 @@
         <v>7.115671641791045</v>
       </c>
       <c r="I656" t="n">
-        <v>14.88457187245524</v>
+        <v>14.88695067902241</v>
       </c>
     </row>
     <row r="657">
@@ -22120,7 +22120,7 @@
         <v>7.134328358208955</v>
       </c>
       <c r="I657" t="n">
-        <v>14.90009268004156</v>
+        <v>14.90286516896951</v>
       </c>
     </row>
     <row r="658">
@@ -22153,7 +22153,7 @@
         <v>8.565965583173996</v>
       </c>
       <c r="I658" t="n">
-        <v>16.09109357239418</v>
+        <v>16.12407557460793</v>
       </c>
     </row>
     <row r="659">
@@ -22186,7 +22186,7 @@
         <v>9.554373739226113</v>
       </c>
       <c r="I659" t="n">
-        <v>16.91336542684071</v>
+        <v>16.96720419975122</v>
       </c>
     </row>
     <row r="660">
@@ -22219,7 +22219,7 @@
         <v>9.97751124437781</v>
       </c>
       <c r="I660" t="n">
-        <v>17.2653799857216</v>
+        <v>17.32814754160917</v>
       </c>
     </row>
     <row r="661">
@@ -22252,7 +22252,7 @@
         <v>10.14513375071144</v>
       </c>
       <c r="I661" t="n">
-        <v>17.40482771112327</v>
+        <v>17.4711323322979</v>
       </c>
     </row>
     <row r="662">
@@ -22285,7 +22285,7 @@
         <v>7.172980700500357</v>
       </c>
       <c r="I662" t="n">
-        <v>14.93224815445772</v>
+        <v>14.93583626093711</v>
       </c>
     </row>
     <row r="663">
@@ -22318,7 +22318,7 @@
         <v>7.220090687129403</v>
       </c>
       <c r="I663" t="n">
-        <v>14.97143967248721</v>
+        <v>14.97602186443892</v>
       </c>
     </row>
     <row r="664">
@@ -22351,7 +22351,7 @@
         <v>10.72036905606813</v>
       </c>
       <c r="I664" t="n">
-        <v>17.88337475505703</v>
+        <v>17.96181763185718</v>
       </c>
     </row>
     <row r="665">
@@ -22384,7 +22384,7 @@
         <v>9.792542389228702</v>
       </c>
       <c r="I665" t="n">
-        <v>17.11150156757316</v>
+        <v>17.17036602637047</v>
       </c>
     </row>
     <row r="666">
@@ -22417,7 +22417,7 @@
         <v>6.791671641791045</v>
       </c>
       <c r="I666" t="n">
-        <v>14.6150313195881</v>
+        <v>14.61057328080513</v>
       </c>
     </row>
     <row r="667">
@@ -22450,7 +22450,7 @@
         <v>7.210031347962381</v>
       </c>
       <c r="I667" t="n">
-        <v>14.9630711544608</v>
+        <v>14.96744108052915</v>
       </c>
     </row>
     <row r="668">
@@ -22483,7 +22483,7 @@
         <v>7.227446882619296</v>
       </c>
       <c r="I668" t="n">
-        <v>14.97755940396667</v>
+        <v>14.98229682175458</v>
       </c>
     </row>
     <row r="669">
@@ -22516,7 +22516,7 @@
         <v>9.859050445103856</v>
       </c>
       <c r="I669" t="n">
-        <v>17.16683063593955</v>
+        <v>17.22709850613363</v>
       </c>
     </row>
     <row r="670">
@@ -22549,7 +22549,7 @@
         <v>9.859050445103856</v>
       </c>
       <c r="I670" t="n">
-        <v>17.16683063593955</v>
+        <v>17.22709850613363</v>
       </c>
     </row>
     <row r="671">
@@ -22582,7 +22582,7 @@
         <v>9.84464393783596</v>
       </c>
       <c r="I671" t="n">
-        <v>17.15484564231648</v>
+        <v>17.21480951540493</v>
       </c>
     </row>
     <row r="672">
@@ -22615,7 +22615,7 @@
         <v>7.342342342342342</v>
       </c>
       <c r="I672" t="n">
-        <v>15.0731426932743</v>
+        <v>15.08030456319049</v>
       </c>
     </row>
     <row r="673">
@@ -22648,7 +22648,7 @@
         <v>6.94574959261271</v>
       </c>
       <c r="I673" t="n">
-        <v>14.7432111222088</v>
+        <v>14.74200433997409</v>
       </c>
     </row>
     <row r="674">
@@ -22681,7 +22681,7 @@
         <v>6.94574959261271</v>
       </c>
       <c r="I674" t="n">
-        <v>14.7432111222088</v>
+        <v>14.74200433997409</v>
       </c>
     </row>
     <row r="675">
@@ -22714,7 +22714,7 @@
         <v>7.339980701190094</v>
       </c>
       <c r="I675" t="n">
-        <v>15.07117800789822</v>
+        <v>15.07829004393993</v>
       </c>
     </row>
     <row r="676">
@@ -22747,7 +22747,7 @@
         <v>7.423540315106581</v>
       </c>
       <c r="I676" t="n">
-        <v>15.14069252805999</v>
+        <v>15.14956778681116</v>
       </c>
     </row>
     <row r="677">
@@ -22780,7 +22780,7 @@
         <v>9.718781873816116</v>
       </c>
       <c r="I677" t="n">
-        <v>17.05013906725195</v>
+        <v>17.10744707778746</v>
       </c>
     </row>
     <row r="678">
@@ -22813,7 +22813,7 @@
         <v>9.718781873816116</v>
       </c>
       <c r="I678" t="n">
-        <v>17.05013906725195</v>
+        <v>17.10744707778746</v>
       </c>
     </row>
     <row r="679">
@@ -22846,7 +22846,7 @@
         <v>9.814658803706823</v>
       </c>
       <c r="I679" t="n">
-        <v>17.12990055086289</v>
+        <v>17.18923169640552</v>
       </c>
     </row>
     <row r="680">
@@ -22879,7 +22879,7 @@
         <v>9.814658803706823</v>
       </c>
       <c r="I680" t="n">
-        <v>17.12990055086289</v>
+        <v>17.18923169640552</v>
       </c>
     </row>
     <row r="681">
@@ -22912,7 +22912,7 @@
         <v>9.519806520430004</v>
       </c>
       <c r="I681" t="n">
-        <v>16.88460842910805</v>
+        <v>16.93771778618802</v>
       </c>
     </row>
     <row r="682">
@@ -22945,7 +22945,7 @@
         <v>7.423540315106581</v>
       </c>
       <c r="I682" t="n">
-        <v>15.14069252805999</v>
+        <v>15.14956778681116</v>
       </c>
     </row>
     <row r="683">
@@ -22978,7 +22978,7 @@
         <v>7.493277561995818</v>
       </c>
       <c r="I683" t="n">
-        <v>15.19870800979443</v>
+        <v>15.20905482031142</v>
       </c>
     </row>
     <row r="684">
@@ -23011,7 +23011,7 @@
         <v>7.493277561995818</v>
       </c>
       <c r="I684" t="n">
-        <v>15.19870800979443</v>
+        <v>15.20905482031142</v>
       </c>
     </row>
     <row r="685">
@@ -23044,7 +23044,7 @@
         <v>7.346413637825668</v>
       </c>
       <c r="I685" t="n">
-        <v>15.07652966622326</v>
+        <v>15.08377744607029</v>
       </c>
     </row>
     <row r="686">
@@ -23077,7 +23077,7 @@
         <v>7.420451034908867</v>
       </c>
       <c r="I686" t="n">
-        <v>15.13812250863884</v>
+        <v>15.14693257933151</v>
       </c>
     </row>
     <row r="687">
@@ -23110,7 +23110,7 @@
         <v>7.691172128727487</v>
       </c>
       <c r="I687" t="n">
-        <v>15.36333952499892</v>
+        <v>15.37786218288745</v>
       </c>
     </row>
     <row r="688">
@@ -23143,7 +23143,7 @@
         <v>7.691172128727487</v>
       </c>
       <c r="I688" t="n">
-        <v>15.36333952499892</v>
+        <v>15.37786218288745</v>
       </c>
     </row>
     <row r="689">
@@ -23176,7 +23176,7 @@
         <v>7.724775946805436</v>
       </c>
       <c r="I689" t="n">
-        <v>15.391295054947</v>
+        <v>15.40652679958668</v>
       </c>
     </row>
     <row r="690">
@@ -23209,7 +23209,7 @@
         <v>7.724775946805436</v>
       </c>
       <c r="I690" t="n">
-        <v>15.391295054947</v>
+        <v>15.40652679958668</v>
       </c>
     </row>
     <row r="691">
@@ -23242,7 +23242,7 @@
         <v>7.724775946805436</v>
       </c>
       <c r="I691" t="n">
-        <v>15.391295054947</v>
+        <v>15.40652679958668</v>
       </c>
     </row>
     <row r="692">
@@ -23275,7 +23275,7 @@
         <v>7.724775946805436</v>
       </c>
       <c r="I692" t="n">
-        <v>15.391295054947</v>
+        <v>15.40652679958668</v>
       </c>
     </row>
     <row r="693">
@@ -23308,7 +23308,7 @@
         <v>7.758571833380561</v>
       </c>
       <c r="I693" t="n">
-        <v>15.41941036961396</v>
+        <v>15.43535525391409</v>
       </c>
     </row>
     <row r="694">
@@ -23341,7 +23341,7 @@
         <v>7.493277561995818</v>
       </c>
       <c r="I694" t="n">
-        <v>15.19870800979443</v>
+        <v>15.20905482031142</v>
       </c>
     </row>
     <row r="695">
@@ -23374,7 +23374,7 @@
         <v>7.493277561995818</v>
       </c>
       <c r="I695" t="n">
-        <v>15.19870800979443</v>
+        <v>15.20905482031142</v>
       </c>
     </row>
     <row r="696">
@@ -23407,7 +23407,7 @@
         <v>7.478338810875411</v>
       </c>
       <c r="I696" t="n">
-        <v>15.18628023437425</v>
+        <v>15.19631181670872</v>
       </c>
     </row>
     <row r="697">
@@ -23440,7 +23440,7 @@
         <v>7.478338810875411</v>
       </c>
       <c r="I697" t="n">
-        <v>15.18628023437425</v>
+        <v>15.19631181670872</v>
       </c>
     </row>
     <row r="698">
@@ -23473,7 +23473,7 @@
         <v>7.478338810875411</v>
       </c>
       <c r="I698" t="n">
-        <v>15.18628023437425</v>
+        <v>15.19631181670872</v>
       </c>
     </row>
     <row r="699">
@@ -23506,7 +23506,7 @@
         <v>7.589056711313765</v>
       </c>
       <c r="I699" t="n">
-        <v>15.27838814825216</v>
+        <v>15.29075603047178</v>
       </c>
     </row>
     <row r="700">
@@ -23539,7 +23539,7 @@
         <v>7.589056711313765</v>
       </c>
       <c r="I700" t="n">
-        <v>15.27838814825216</v>
+        <v>15.29075603047178</v>
       </c>
     </row>
     <row r="701">
@@ -23572,7 +23572,7 @@
         <v>8.143659473839788</v>
       </c>
       <c r="I701" t="n">
-        <v>15.7397706644031</v>
+        <v>15.76384142723431</v>
       </c>
     </row>
     <row r="702">
@@ -23605,7 +23605,7 @@
         <v>8.143659473839788</v>
       </c>
       <c r="I702" t="n">
-        <v>15.7397706644031</v>
+        <v>15.76384142723431</v>
       </c>
     </row>
     <row r="703">
@@ -23638,7 +23638,7 @@
         <v>8.008785596613157</v>
       </c>
       <c r="I703" t="n">
-        <v>15.62756702417161</v>
+        <v>15.64879176280415</v>
       </c>
     </row>
     <row r="704">
@@ -23671,7 +23671,7 @@
         <v>8.008785596613157</v>
       </c>
       <c r="I704" t="n">
-        <v>15.62756702417161</v>
+        <v>15.64879176280415</v>
       </c>
     </row>
     <row r="705">
@@ -23704,7 +23704,7 @@
         <v>8.372952984680401</v>
       </c>
       <c r="I705" t="n">
-        <v>15.93052344119577</v>
+        <v>15.95943261227825</v>
       </c>
     </row>
     <row r="706">
@@ -23737,7 +23737,7 @@
         <v>8.372952984680401</v>
       </c>
       <c r="I706" t="n">
-        <v>15.93052344119577</v>
+        <v>15.95943261227825</v>
       </c>
     </row>
     <row r="707">
@@ -23770,7 +23770,7 @@
         <v>10.6499847421422</v>
       </c>
       <c r="I707" t="n">
-        <v>17.8248209683633</v>
+        <v>17.90177863939373</v>
       </c>
     </row>
     <row r="708">
@@ -23803,7 +23803,7 @@
         <v>11.04184377066213</v>
       </c>
       <c r="I708" t="n">
-        <v>18.15081448439182</v>
+        <v>18.23604091954895</v>
       </c>
     </row>
     <row r="709">
@@ -23836,7 +23836,7 @@
         <v>7.203065134099616</v>
       </c>
       <c r="I709" t="n">
-        <v>14.95727585465846</v>
+        <v>14.96149878403897</v>
       </c>
     </row>
     <row r="710">
@@ -23869,7 +23869,7 @@
         <v>7.203065134099616</v>
       </c>
       <c r="I710" t="n">
-        <v>14.95727585465846</v>
+        <v>14.96149878403897</v>
       </c>
     </row>
     <row r="711">
@@ -23902,7 +23902,7 @@
         <v>7.339780682387674</v>
       </c>
       <c r="I711" t="n">
-        <v>15.07101160919888</v>
+        <v>15.07811942456892</v>
       </c>
     </row>
     <row r="712">
@@ -23935,7 +23935,7 @@
         <v>7.330331296236732</v>
       </c>
       <c r="I712" t="n">
-        <v>15.06315052041067</v>
+        <v>15.07005894074439</v>
       </c>
     </row>
     <row r="713">
@@ -23968,7 +23968,7 @@
         <v>7.330331296236732</v>
       </c>
       <c r="I713" t="n">
-        <v>15.06315052041067</v>
+        <v>15.07005894074439</v>
       </c>
     </row>
     <row r="714">
@@ -24001,7 +24001,7 @@
         <v>7.43147200281903</v>
       </c>
       <c r="I714" t="n">
-        <v>15.14729102031673</v>
+        <v>15.15633364858103</v>
       </c>
     </row>
     <row r="715">
@@ -24034,7 +24034,7 @@
         <v>7.410677143144929</v>
       </c>
       <c r="I715" t="n">
-        <v>15.12999145867058</v>
+        <v>15.13859528681245</v>
       </c>
     </row>
     <row r="716">
@@ -24067,7 +24067,7 @@
         <v>7.485140759902306</v>
       </c>
       <c r="I716" t="n">
-        <v>15.19193887974858</v>
+        <v>15.20211399255705</v>
       </c>
     </row>
     <row r="717">
@@ -24100,7 +24100,7 @@
         <v>7.488784545419692</v>
       </c>
       <c r="I717" t="n">
-        <v>15.19497020062168</v>
+        <v>15.2052222023131</v>
       </c>
     </row>
     <row r="718">
@@ -24133,7 +24133,7 @@
         <v>7.398826073524869</v>
       </c>
       <c r="I718" t="n">
-        <v>15.12013237269078</v>
+        <v>15.12848612697392</v>
       </c>
     </row>
     <row r="719">
@@ -24166,7 +24166,7 @@
         <v>7.398826073524869</v>
       </c>
       <c r="I719" t="n">
-        <v>15.12013237269078</v>
+        <v>15.12848612697392</v>
       </c>
     </row>
     <row r="720">
@@ -24199,7 +24199,7 @@
         <v>7.467514172069787</v>
       </c>
       <c r="I720" t="n">
-        <v>15.17727505187963</v>
+        <v>15.18707821945644</v>
       </c>
     </row>
     <row r="721">
@@ -24232,7 +24232,7 @@
         <v>7.565735996473276</v>
       </c>
       <c r="I721" t="n">
-        <v>15.25898728908129</v>
+        <v>15.27086307216258</v>
       </c>
     </row>
     <row r="722">
@@ -24265,7 +24265,7 @@
         <v>7.553127828497364</v>
       </c>
       <c r="I722" t="n">
-        <v>15.24849836140576</v>
+        <v>15.26010809481237</v>
       </c>
     </row>
     <row r="723">
@@ -24298,7 +24298,7 @@
         <v>7.553127828497364</v>
       </c>
       <c r="I723" t="n">
-        <v>15.24849836140576</v>
+        <v>15.26010809481237</v>
       </c>
     </row>
     <row r="724">
@@ -24331,7 +24331,7 @@
         <v>7.553127828497364</v>
       </c>
       <c r="I724" t="n">
-        <v>15.24849836140576</v>
+        <v>15.26010809481237</v>
       </c>
     </row>
     <row r="725">
@@ -24364,7 +24364,7 @@
         <v>7.637731831634986</v>
       </c>
       <c r="I725" t="n">
-        <v>15.31888172492579</v>
+        <v>15.33227671908997</v>
       </c>
     </row>
     <row r="726">
@@ -24397,7 +24397,7 @@
         <v>7.637731831634986</v>
       </c>
       <c r="I726" t="n">
-        <v>15.31888172492579</v>
+        <v>15.33227671908997</v>
       </c>
     </row>
     <row r="727">
@@ -24430,7 +24430,7 @@
         <v>7.637731831634986</v>
       </c>
       <c r="I727" t="n">
-        <v>15.31888172492579</v>
+        <v>15.33227671908997</v>
       </c>
     </row>
     <row r="728">
@@ -24463,7 +24463,7 @@
         <v>7.637731831634986</v>
       </c>
       <c r="I728" t="n">
-        <v>15.31888172492579</v>
+        <v>15.33227671908997</v>
       </c>
     </row>
     <row r="729">
@@ -24496,7 +24496,7 @@
         <v>7.460412309530923</v>
       </c>
       <c r="I729" t="n">
-        <v>15.17136690387003</v>
+        <v>15.18102021238549</v>
       </c>
     </row>
     <row r="730">
@@ -24529,7 +24529,7 @@
         <v>7.460412309530923</v>
       </c>
       <c r="I730" t="n">
-        <v>15.17136690387003</v>
+        <v>15.18102021238549</v>
       </c>
     </row>
     <row r="731">
@@ -24562,7 +24562,7 @@
         <v>7.460412309530923</v>
       </c>
       <c r="I731" t="n">
-        <v>15.17136690387003</v>
+        <v>15.18102021238549</v>
       </c>
     </row>
     <row r="732">
@@ -24595,7 +24595,7 @@
         <v>7.460412309530923</v>
       </c>
       <c r="I732" t="n">
-        <v>15.17136690387003</v>
+        <v>15.18102021238549</v>
       </c>
     </row>
     <row r="733">
@@ -24628,7 +24628,7 @@
         <v>7.557182067703569</v>
       </c>
       <c r="I733" t="n">
-        <v>15.25187114497705</v>
+        <v>15.26356642840361</v>
       </c>
     </row>
     <row r="734">
@@ -24661,7 +24661,7 @@
         <v>7.557182067703569</v>
       </c>
       <c r="I734" t="n">
-        <v>15.25187114497705</v>
+        <v>15.26356642840361</v>
       </c>
     </row>
     <row r="735">
@@ -24694,7 +24694,7 @@
         <v>7.460412309530923</v>
       </c>
       <c r="I735" t="n">
-        <v>15.17136690387003</v>
+        <v>15.18102021238549</v>
       </c>
     </row>
     <row r="736">
@@ -24727,7 +24727,7 @@
         <v>7.460412309530923</v>
       </c>
       <c r="I736" t="n">
-        <v>15.17136690387003</v>
+        <v>15.18102021238549</v>
       </c>
     </row>
     <row r="737">
@@ -24760,7 +24760,7 @@
         <v>7.460412309530923</v>
       </c>
       <c r="I737" t="n">
-        <v>15.17136690387003</v>
+        <v>15.18102021238549</v>
       </c>
     </row>
     <row r="738">
@@ -24793,7 +24793,7 @@
         <v>7.460412309530923</v>
       </c>
       <c r="I738" t="n">
-        <v>15.17136690387003</v>
+        <v>15.18102021238549</v>
       </c>
     </row>
     <row r="739">
@@ -24826,7 +24826,7 @@
         <v>7.557182067703569</v>
       </c>
       <c r="I739" t="n">
-        <v>15.25187114497705</v>
+        <v>15.26356642840361</v>
       </c>
     </row>
     <row r="740">
@@ -24859,7 +24859,7 @@
         <v>7.557182067703569</v>
       </c>
       <c r="I740" t="n">
-        <v>15.25187114497705</v>
+        <v>15.26356642840361</v>
       </c>
     </row>
     <row r="741">
@@ -24892,7 +24892,7 @@
         <v>7.629955784473299</v>
       </c>
       <c r="I741" t="n">
-        <v>15.31241271242245</v>
+        <v>15.32564362130305</v>
       </c>
     </row>
     <row r="742">
@@ -24925,7 +24925,7 @@
         <v>7.629955784473299</v>
       </c>
       <c r="I742" t="n">
-        <v>15.31241271242245</v>
+        <v>15.32564362130305</v>
       </c>
     </row>
     <row r="743">
@@ -24958,7 +24958,7 @@
         <v>7.629955784473299</v>
       </c>
       <c r="I743" t="n">
-        <v>15.31241271242245</v>
+        <v>15.32564362130305</v>
       </c>
     </row>
     <row r="744">
@@ -24991,7 +24991,7 @@
         <v>7.754076675471145</v>
       </c>
       <c r="I744" t="n">
-        <v>15.41567077903331</v>
+        <v>15.43152080932279</v>
       </c>
     </row>
     <row r="745">
@@ -25024,7 +25024,7 @@
         <v>7.754076675471145</v>
       </c>
       <c r="I745" t="n">
-        <v>15.41567077903331</v>
+        <v>15.43152080932279</v>
       </c>
     </row>
     <row r="746">
@@ -25057,7 +25057,7 @@
         <v>7.754076675471145</v>
       </c>
       <c r="I746" t="n">
-        <v>15.41567077903331</v>
+        <v>15.43152080932279</v>
       </c>
     </row>
     <row r="747">
@@ -25090,7 +25090,7 @@
         <v>7.824676487070331</v>
       </c>
       <c r="I747" t="n">
-        <v>15.47440384153566</v>
+        <v>15.49174362489197</v>
       </c>
     </row>
     <row r="748">
@@ -25123,7 +25123,7 @@
         <v>7.824676487070331</v>
       </c>
       <c r="I748" t="n">
-        <v>15.47440384153566</v>
+        <v>15.49174362489197</v>
       </c>
     </row>
     <row r="749">
@@ -25156,7 +25156,7 @@
         <v>7.549159304645198</v>
       </c>
       <c r="I749" t="n">
-        <v>15.2451968857478</v>
+        <v>15.25672287784624</v>
       </c>
     </row>
     <row r="750">
@@ -25189,7 +25189,7 @@
         <v>7.549159304645198</v>
       </c>
       <c r="I750" t="n">
-        <v>15.2451968857478</v>
+        <v>15.25672287784624</v>
       </c>
     </row>
     <row r="751">
@@ -25222,7 +25222,7 @@
         <v>7.598436191008099</v>
       </c>
       <c r="I751" t="n">
-        <v>15.28619108079048</v>
+        <v>15.2987568829241</v>
       </c>
     </row>
     <row r="752">
@@ -25255,7 +25255,7 @@
         <v>7.598436191008099</v>
       </c>
       <c r="I752" t="n">
-        <v>15.28619108079048</v>
+        <v>15.2987568829241</v>
       </c>
     </row>
     <row r="753">
@@ -25288,7 +25288,7 @@
         <v>7.549159304645198</v>
       </c>
       <c r="I753" t="n">
-        <v>15.2451968857478</v>
+        <v>15.25672287784624</v>
       </c>
     </row>
     <row r="754">
@@ -25321,7 +25321,7 @@
         <v>7.647705413575158</v>
       </c>
       <c r="I754" t="n">
-        <v>15.32717890020424</v>
+        <v>15.34078435065643</v>
       </c>
     </row>
     <row r="755">
@@ -25354,7 +25354,7 @@
         <v>7.549159304645198</v>
       </c>
       <c r="I755" t="n">
-        <v>15.2451968857478</v>
+        <v>15.25672287784624</v>
       </c>
     </row>
     <row r="756">
@@ -25387,7 +25387,7 @@
         <v>7.549159304645198</v>
       </c>
       <c r="I756" t="n">
-        <v>15.2451968857478</v>
+        <v>15.25672287784624</v>
       </c>
     </row>
     <row r="757">
@@ -25420,7 +25420,7 @@
         <v>7.598436191008099</v>
       </c>
       <c r="I757" t="n">
-        <v>15.28619108079048</v>
+        <v>15.2987568829241</v>
       </c>
     </row>
     <row r="758">
@@ -25453,7 +25453,7 @@
         <v>7.598436191008099</v>
       </c>
       <c r="I758" t="n">
-        <v>15.28619108079048</v>
+        <v>15.2987568829241</v>
       </c>
     </row>
     <row r="759">
@@ -25486,7 +25486,7 @@
         <v>7.549159304645198</v>
       </c>
       <c r="I759" t="n">
-        <v>15.2451968857478</v>
+        <v>15.25672287784624</v>
       </c>
     </row>
     <row r="760">
@@ -25519,7 +25519,7 @@
         <v>7.647705413575158</v>
       </c>
       <c r="I760" t="n">
-        <v>15.32717890020424</v>
+        <v>15.34078435065643</v>
       </c>
     </row>
     <row r="761">
@@ -25552,7 +25552,7 @@
         <v>7.892687505432471</v>
       </c>
       <c r="I761" t="n">
-        <v>15.53098324737019</v>
+        <v>15.54975815669763</v>
       </c>
     </row>
     <row r="762">
@@ -25585,7 +25585,7 @@
         <v>14.23334052188915</v>
       </c>
       <c r="I762" t="n">
-        <v>20.80586941895786</v>
+        <v>20.95844082239781</v>
       </c>
     </row>
     <row r="763">
@@ -25618,7 +25618,7 @@
         <v>14.23334052188915</v>
       </c>
       <c r="I763" t="n">
-        <v>20.80586941895786</v>
+        <v>20.95844082239781</v>
       </c>
     </row>
     <row r="764">
@@ -25651,7 +25651,7 @@
         <v>13.8235928401984</v>
       </c>
       <c r="I764" t="n">
-        <v>20.46499405889937</v>
+        <v>20.60891922304209</v>
       </c>
     </row>
     <row r="765">
@@ -25684,7 +25684,7 @@
         <v>14.02818068794032</v>
       </c>
       <c r="I765" t="n">
-        <v>20.63519381689398</v>
+        <v>20.78343606583773</v>
       </c>
     </row>
   </sheetData>
